--- a/src/static/xlsx/df_api_name_xlsx.xlsx
+++ b/src/static/xlsx/df_api_name_xlsx.xlsx
@@ -493,26 +493,26 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>82760.0443771199284600</t>
+          <t>82927.5291633691748018</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>6738130970.0692786122850334</t>
+          <t>6787931376.1628427247731435</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>-1.9546515718639237</t>
+          <t>-1.8009940896074362</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>83044.7423588388349783</t>
+          <t>82979.2555203909947156</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>1743296428778</v>
+        <v>1743297089423</v>
       </c>
     </row>
     <row r="3">
@@ -529,26 +529,26 @@
       <c r="C3" t="inlineStr"/>
       <c r="D3" t="inlineStr">
         <is>
-          <t>1826.0454190215443003</t>
+          <t>1833.6959861014094902</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>5501487637.2453879317505486</t>
+          <t>5548289274.7091994530292840</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>-4.1478159230515445</t>
+          <t>-3.7907520723792152</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>1849.3130341222672511</t>
+          <t>1846.8058948327428276</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>1743296428778</v>
+        <v>1743297089423</v>
       </c>
     </row>
     <row r="4">
@@ -565,26 +565,26 @@
       <c r="C4" t="inlineStr"/>
       <c r="D4" t="inlineStr">
         <is>
-          <t>1.0031598843274860</t>
+          <t>1.0032853596992851</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>21638531272.9750786477180664</t>
+          <t>21803680461.6579213945873683</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>0.1796221437668190</t>
+          <t>0.1751871928315050</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>1.0006083137050021</t>
+          <t>1.0005749640165395</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>1743296428778</v>
+        <v>1743297089423</v>
       </c>
     </row>
     <row r="5">
@@ -605,26 +605,26 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>2.1337040388729998</t>
+          <t>2.1475096596149217</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>1621712633.5440607255362063</t>
+          <t>1638145769.1721286801968047</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>-3.5851445388090037</t>
+          <t>-2.9692829302731786</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>2.1267684827593523</t>
+          <t>2.1234850546499362</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>1743296428778</v>
+        <v>1743297089423</v>
       </c>
     </row>
     <row r="6">
@@ -645,26 +645,26 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>603.2092953755001181</t>
+          <t>605.2723642581100068</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>315523338.8965768603557037</t>
+          <t>316941868.5504552792170383</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>-3.0879797833860777</t>
+          <t>-2.6306758946870764</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>606.7164538032187854</t>
+          <t>606.1983101043918549</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>1743296428778</v>
+        <v>1743297089423</v>
       </c>
     </row>
     <row r="7">
@@ -681,26 +681,26 @@
       <c r="C7" t="inlineStr"/>
       <c r="D7" t="inlineStr">
         <is>
-          <t>124.6129436721943678</t>
+          <t>125.2021089351356679</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>1297320343.9542991207427065</t>
+          <t>1311190636.5569144336939894</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>-4.1021292154476293</t>
+          <t>-3.6044688822377920</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>126.1880406361023251</t>
+          <t>125.9657787729131898</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>1743296428778</v>
+        <v>1743297089423</v>
       </c>
     </row>
     <row r="8">
@@ -717,26 +717,26 @@
       <c r="C8" t="inlineStr"/>
       <c r="D8" t="inlineStr">
         <is>
-          <t>1.0005792515933380</t>
+          <t>1.0012784561547774</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>3911457565.7241444185843300</t>
+          <t>3938548447.2261661835216679</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>0.0353966867897044</t>
+          <t>0.1009394973542220</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>1.0014512039136398</t>
+          <t>1.0014767974539042</t>
         </is>
       </c>
       <c r="H8" t="n">
-        <v>1743296428778</v>
+        <v>1743297089423</v>
       </c>
     </row>
     <row r="9">
@@ -753,26 +753,26 @@
       <c r="C9" t="inlineStr"/>
       <c r="D9" t="inlineStr">
         <is>
-          <t>0.1694094083317871</t>
+          <t>0.1703741125665958</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>587431862.6889677725776096</t>
+          <t>594437659.1801780086268755</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>-6.5831107597578234</t>
+          <t>-6.0686260074544599</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>0.1726923547804482</t>
+          <t>0.1722242722826475</t>
         </is>
       </c>
       <c r="H9" t="n">
-        <v>1743296428778</v>
+        <v>1743297089423</v>
       </c>
     </row>
     <row r="10">
@@ -793,26 +793,26 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>0.6719315847263520</t>
+          <t>0.6745334421358229</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>325216277.4983057960445134</t>
+          <t>327578924.8543985455292427</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>-5.1886529448304301</t>
+          <t>-4.9541273660256890</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>0.6786383343146972</t>
+          <t>0.6776034453413297</t>
         </is>
       </c>
       <c r="H10" t="n">
-        <v>1743296428778</v>
+        <v>1743297089423</v>
       </c>
     </row>
     <row r="11">
@@ -829,26 +829,26 @@
       <c r="C11" t="inlineStr"/>
       <c r="D11" t="inlineStr">
         <is>
-          <t>0.2304069582683168</t>
+          <t>0.2302783259612055</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>283548641.0543944436589109</t>
+          <t>284280223.9630108460337031</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>-1.0613194683674034</t>
+          <t>-1.0282408493613735</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>0.2336074303263903</t>
+          <t>0.2334863945424018</t>
         </is>
       </c>
       <c r="H11" t="n">
-        <v>1743296428778</v>
+        <v>1743297089423</v>
       </c>
     </row>
     <row r="12">
@@ -865,26 +865,26 @@
       <c r="C12" t="inlineStr"/>
       <c r="D12" t="inlineStr">
         <is>
-          <t>1826.6316344271735837</t>
+          <t>1825.7528636676991339</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>6970701.5364070646062509</t>
+          <t>6966864.2798131010344101</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>-3.9460983834569113</t>
+          <t>-4.0384262889465598</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>1857.0855918975613091</t>
+          <t>1856.6007047467115695</t>
         </is>
       </c>
       <c r="H12" t="n">
-        <v>1743296428778</v>
+        <v>1743297089423</v>
       </c>
     </row>
     <row r="13">
@@ -901,26 +901,26 @@
       <c r="C13" t="inlineStr"/>
       <c r="D13" t="inlineStr">
         <is>
-          <t>82160.4085827302762931</t>
+          <t>82293.0000839416095287</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>112914807.3429569444865152</t>
+          <t>113069494.8774586400333772</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>-2.4532268988890406</t>
+          <t>-2.3633857735699158</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>82934.9081497220221341</t>
+          <t>82858.5756787920442054</t>
         </is>
       </c>
       <c r="H13" t="n">
-        <v>1743296428778</v>
+        <v>1743297089423</v>
       </c>
     </row>
     <row r="14">
@@ -937,26 +937,26 @@
       <c r="C14" t="inlineStr"/>
       <c r="D14" t="inlineStr">
         <is>
-          <t>3.6550737125768745</t>
+          <t>3.6701286226387559</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>89797936.8219193903854222</t>
+          <t>90060417.1979437715978933</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>-4.2803543453892532</t>
+          <t>-3.8339416539194979</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>3.7269633519302995</t>
+          <t>3.7189384458816226</t>
         </is>
       </c>
       <c r="H14" t="n">
-        <v>1743296428778</v>
+        <v>1743297089423</v>
       </c>
     </row>
     <row r="15">
@@ -973,26 +973,26 @@
       <c r="C15" t="inlineStr"/>
       <c r="D15" t="inlineStr">
         <is>
-          <t>13.4986493631058576</t>
+          <t>13.5576661660143526</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>148033444.5081974820030978</t>
+          <t>149729896.9923917064241619</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>-5.5744279356877193</t>
+          <t>-5.1055243658124749</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>13.7794253474532640</t>
+          <t>13.7457180531963252</t>
         </is>
       </c>
       <c r="H15" t="n">
-        <v>1743296428778</v>
+        <v>1743297089423</v>
       </c>
     </row>
     <row r="16">
@@ -1009,26 +1009,26 @@
       <c r="C16" t="inlineStr"/>
       <c r="D16" t="inlineStr">
         <is>
-          <t>9.5819907130565717</t>
+          <t>9.5925176271442827</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>5065218.8506716655968880</t>
+          <t>5077252.4701464625415234</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>-1.5042570051890393</t>
+          <t>-1.3438852814405950</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>9.5465601721741580</t>
+          <t>9.5461364621487550</t>
         </is>
       </c>
       <c r="H16" t="n">
-        <v>1743296428778</v>
+        <v>1743297089423</v>
       </c>
     </row>
     <row r="17">
@@ -1049,26 +1049,26 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>0.2665675637621393</t>
+          <t>0.2675161271012842</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>64188286.3882731930940632</t>
+          <t>64409490.9602687408891295</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>-3.2191995483401758</t>
+          <t>-2.9103961096761259</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>0.2679960011734401</t>
+          <t>0.2676030983765726</t>
         </is>
       </c>
       <c r="H17" t="n">
-        <v>1743296428778</v>
+        <v>1743297089423</v>
       </c>
     </row>
     <row r="18">
@@ -1089,26 +1089,26 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>19.5535945953322664</t>
+          <t>19.6888378936696513</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>129822586.3204629382012913</t>
+          <t>131347962.3695596230835735</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>-4.1419417355980286</t>
+          <t>-3.5448335168692977</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>19.9731536815784087</t>
+          <t>19.9396176946555383</t>
         </is>
       </c>
       <c r="H18" t="n">
-        <v>1743296428778</v>
+        <v>1743297089423</v>
       </c>
     </row>
     <row r="19">
@@ -1129,26 +1129,26 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>0.0000126499357219</t>
+          <t>0.0000127072729629</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>86169843.1554561342763766</t>
+          <t>86865024.1398232121926783</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>-4.9915963333473393</t>
+          <t>-4.6386686334144398</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>0.0000128018528277</t>
+          <t>0.0000127713982102</t>
         </is>
       </c>
       <c r="H19" t="n">
-        <v>1743296428778</v>
+        <v>1743297089423</v>
       </c>
     </row>
     <row r="20">
@@ -1169,26 +1169,26 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>2.2970003997622248</t>
+          <t>2.3090628518462328</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>600903513.5160155356168542</t>
+          <t>603811213.5792201639459010</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>-8.6321872385657904</t>
+          <t>-8.3801118580093186</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>2.3723129247694218</t>
+          <t>2.3572283973579266</t>
         </is>
       </c>
       <c r="H20" t="n">
-        <v>1743296428778</v>
+        <v>1743297089423</v>
       </c>
     </row>
     <row r="21">
@@ -1209,26 +1209,26 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>0.1717106537448069</t>
+          <t>0.1727124461220426</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>128136656.5223963905818122</t>
+          <t>129297238.4542242752037435</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>-5.8869693323770543</t>
+          <t>-5.5434628231165468</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>0.1728983354961282</t>
+          <t>0.1726025041526711</t>
         </is>
       </c>
       <c r="H21" t="n">
-        <v>1743296428778</v>
+        <v>1743297089423</v>
       </c>
     </row>
     <row r="22">
@@ -1249,26 +1249,26 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>85.3371250663056768</t>
+          <t>85.6191821011924101</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>202371499.2088674647393066</t>
+          <t>203624267.8348365291774100</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>-2.6908646028728347</t>
+          <t>-2.3575808053747788</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>86.0210756085866026</t>
+          <t>85.9439078687093424</t>
         </is>
       </c>
       <c r="H22" t="n">
-        <v>1743296428778</v>
+        <v>1743297089423</v>
       </c>
     </row>
     <row r="23">
@@ -1285,26 +1285,26 @@
       <c r="C23" t="inlineStr"/>
       <c r="D23" t="inlineStr">
         <is>
-          <t>4.0490901986769048</t>
+          <t>4.0807256767016805</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>83390845.6258277825445769</t>
+          <t>84990974.2955041219007478</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>-5.4057620370504589</t>
+          <t>-4.6917572972211935</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>4.1234983310934706</t>
+          <t>4.1159123674808479</t>
         </is>
       </c>
       <c r="H23" t="n">
-        <v>1743296428778</v>
+        <v>1743297089423</v>
       </c>
     </row>
     <row r="24">
@@ -1321,22 +1321,22 @@
       <c r="C24" t="inlineStr"/>
       <c r="D24" t="inlineStr">
         <is>
-          <t>1822.1428194740409626</t>
+          <t>1820.3034927190071803</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>458907602.7908560594147618</t>
+          <t>458398419.5947099863037350</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>-4.2343571082122902</t>
+          <t>-4.5104850991144580</t>
         </is>
       </c>
       <c r="G24" t="inlineStr"/>
       <c r="H24" t="n">
-        <v>1743296428778</v>
+        <v>1743297089423</v>
       </c>
     </row>
     <row r="25">
@@ -1357,26 +1357,26 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>6.2374629888469327</t>
+          <t>6.2621374954955497</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>31569193.1041813480502856</t>
+          <t>31935081.2685878052710320</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>-0.3261219874268728</t>
+          <t>0.2400808515054984</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>6.1897770671931328</t>
+          <t>6.1878268643898281</t>
         </is>
       </c>
       <c r="H25" t="n">
-        <v>1743296428778</v>
+        <v>1743297089423</v>
       </c>
     </row>
     <row r="26">
@@ -1397,26 +1397,26 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>302.1037252063375014</t>
+          <t>303.4525906130892614</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>50145991.2206247858396634</t>
+          <t>50523838.6870920845421259</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>-1.6845817060201469</t>
+          <t>-1.5342009668764545</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>305.0693074417908371</t>
+          <t>304.8505496213330562</t>
         </is>
       </c>
       <c r="H26" t="n">
-        <v>1743296428778</v>
+        <v>1743297089423</v>
       </c>
     </row>
     <row r="27">
@@ -1433,22 +1433,22 @@
       <c r="C27" t="inlineStr"/>
       <c r="D27" t="inlineStr">
         <is>
-          <t>4.6372747029180744</t>
+          <t>4.6482447865146377</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>128162231.7914895075460081</t>
+          <t>128223484.9942608692832941</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>-4.0994536778401171</t>
+          <t>-4.0729111636287373</t>
         </is>
       </c>
       <c r="G27" t="inlineStr"/>
       <c r="H27" t="n">
-        <v>1743296428778</v>
+        <v>1743297089423</v>
       </c>
     </row>
     <row r="28">
@@ -1469,22 +1469,22 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>0.7963881382335473</t>
+          <t>0.7981116800254935</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>94508756.3046675757847424</t>
+          <t>94983084.9193920878098903</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>-4.1748525378591141</t>
+          <t>-4.0535733621508638</t>
         </is>
       </c>
       <c r="G28" t="inlineStr"/>
       <c r="H28" t="n">
-        <v>1743296428778</v>
+        <v>1743297089423</v>
       </c>
     </row>
     <row r="29">
@@ -1501,26 +1501,26 @@
       <c r="C29" t="inlineStr"/>
       <c r="D29" t="inlineStr">
         <is>
-          <t>0.9996348531409275</t>
+          <t>0.9998210050652018</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>77398585.9815510368464489</t>
+          <t>76516309.8357458628932869</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>0.0131504131641480</t>
+          <t>0.0317284179221477</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>0.9993482990396921</t>
+          <t>0.9993785585610450</t>
         </is>
       </c>
       <c r="H29" t="n">
-        <v>1743296428778</v>
+        <v>1743297089423</v>
       </c>
     </row>
     <row r="30">
@@ -1537,22 +1537,22 @@
       <c r="C30" t="inlineStr"/>
       <c r="D30" t="inlineStr">
         <is>
-          <t>0.9996415360319071</t>
+          <t>0.9997036594883386</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>42157230.0758602233026466</t>
+          <t>42153539.5057779115581172</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>0.0399017562113137</t>
+          <t>0.0325274575496051</t>
         </is>
       </c>
       <c r="G30" t="inlineStr"/>
       <c r="H30" t="n">
-        <v>1743296428778</v>
+        <v>1743297089423</v>
       </c>
     </row>
     <row r="31">
@@ -1573,26 +1573,26 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>12.7738171619032984</t>
+          <t>12.8735008797437743</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>20372639.5230821107273718</t>
+          <t>20604134.1364157196968593</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>-5.4517584958242026</t>
+          <t>-4.6147180575070059</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>12.8837029693807511</t>
+          <t>12.8537775548344583</t>
         </is>
       </c>
       <c r="H31" t="n">
-        <v>1743296428778</v>
+        <v>1743297089423</v>
       </c>
     </row>
     <row r="32">
@@ -1609,26 +1609,26 @@
       <c r="C32" t="inlineStr"/>
       <c r="D32" t="inlineStr">
         <is>
-          <t>216.6459310203401836</t>
+          <t>216.5043471615185573</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>29343423.2659363334086565</t>
+          <t>29365008.4789742421566112</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>-0.1608927974195777</t>
+          <t>-0.2779796124097036</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>216.2504398956469358</t>
+          <t>216.1808981338184985</t>
         </is>
       </c>
       <c r="H32" t="n">
-        <v>1743296428778</v>
+        <v>1743297089423</v>
       </c>
     </row>
     <row r="33">
@@ -1645,26 +1645,26 @@
       <c r="C33" t="inlineStr"/>
       <c r="D33" t="inlineStr">
         <is>
-          <t>5.9570232127750625</t>
+          <t>5.9973945085841864</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>62308366.2353110608557843</t>
+          <t>61876197.0485251321800817</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>-4.1153630332955628</t>
+          <t>-3.4168810101982324</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>6.0728445767880959</t>
+          <t>6.0572853260288021</t>
         </is>
       </c>
       <c r="H33" t="n">
-        <v>1743296428778</v>
+        <v>1743297089423</v>
       </c>
     </row>
     <row r="34">
@@ -1681,26 +1681,26 @@
       <c r="C34" t="inlineStr"/>
       <c r="D34" t="inlineStr">
         <is>
-          <t>5.2061020704720377</t>
+          <t>5.2233932029347008</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>49178999.8239569164878138</t>
+          <t>49438667.3789587457457948</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>-6.4630455834273942</t>
+          <t>-6.2991264733658025</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>5.3578400782101849</t>
+          <t>5.3491377834569602</t>
         </is>
       </c>
       <c r="H34" t="n">
-        <v>1743296428778</v>
+        <v>1743297089423</v>
       </c>
     </row>
     <row r="35">
@@ -1717,26 +1717,26 @@
       <c r="C35" t="inlineStr"/>
       <c r="D35" t="inlineStr">
         <is>
-          <t>2.5661665583244796</t>
+          <t>2.5847890599700152</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>73565751.9620961189599748</t>
+          <t>74241312.1412922275313487</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>-6.1731483629713261</t>
+          <t>-5.5714181963339703</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>2.6362407683705698</t>
+          <t>2.6312731741156523</t>
         </is>
       </c>
       <c r="H35" t="n">
-        <v>1743296428778</v>
+        <v>1743297089423</v>
       </c>
     </row>
     <row r="36">
@@ -1757,26 +1757,26 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>0.0000071694614843</t>
+          <t>0.0000072019165067</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>322405478.4250871994242229</t>
+          <t>324447816.0335298952280498</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>-8.5531366898790991</t>
+          <t>-8.1783750551832437</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>0.0000074507509335</t>
+          <t>0.0000074251425768</t>
         </is>
       </c>
       <c r="H36" t="n">
-        <v>1743296428778</v>
+        <v>1743297089423</v>
       </c>
     </row>
     <row r="37">
@@ -1793,26 +1793,26 @@
       <c r="C37" t="inlineStr"/>
       <c r="D37" t="inlineStr">
         <is>
-          <t>48.1843071192830569</t>
+          <t>48.1936695906651657</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>2152628.7686387053800014</t>
+          <t>2172852.5769088583279429</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>-2.0189043819263856</t>
+          <t>-2.0309749332122079</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>48.6449711354461357</t>
+          <t>48.2209627780203238</t>
         </is>
       </c>
       <c r="H37" t="n">
-        <v>1743296428778</v>
+        <v>1743297089423</v>
       </c>
     </row>
     <row r="38">
@@ -1833,26 +1833,26 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>0.1039377989195878</t>
+          <t>0.1050054112391722</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>30687296.7743126929999065</t>
+          <t>31308438.8177280376136383</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>2.9481780074821190</t>
+          <t>4.4072716750636409</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>0.1009154167014576</t>
+          <t>0.1014797713652044</t>
         </is>
       </c>
       <c r="H38" t="n">
-        <v>1743296428778</v>
+        <v>1743297089423</v>
       </c>
     </row>
     <row r="39">
@@ -1873,26 +1873,26 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>0.8003969388846803</t>
+          <t>0.8024388541729500</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>89110784.7888853486035917</t>
+          <t>89062690.9020856337598402</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>-4.0138997075551610</t>
+          <t>-3.8786963710640158</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>0.8141420282944772</t>
+          <t>0.8128771008483150</t>
         </is>
       </c>
       <c r="H39" t="n">
-        <v>1743296428778</v>
+        <v>1743297089423</v>
       </c>
     </row>
     <row r="40">
@@ -1909,26 +1909,26 @@
       <c r="C40" t="inlineStr"/>
       <c r="D40" t="inlineStr">
         <is>
-          <t>0.9985393929047001</t>
+          <t>0.9984440841840216</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>1575702421.3029768510372503</t>
+          <t>1580817680.8818198947735466</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>-0.0801736221960067</t>
+          <t>-0.0794863613942713</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>0.9986698156804152</t>
+          <t>0.9986678437559490</t>
         </is>
       </c>
       <c r="H40" t="n">
-        <v>1743296428778</v>
+        <v>1743297089423</v>
       </c>
     </row>
     <row r="41">
@@ -1945,26 +1945,26 @@
       <c r="C41" t="inlineStr"/>
       <c r="D41" t="inlineStr">
         <is>
-          <t>5.3419707982240117</t>
+          <t>5.3553581674207719</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>30048534.1658013037239408</t>
+          <t>30285562.2896538722392984</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>-5.0416774325089829</t>
+          <t>-4.7779118293248823</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>5.4166783752894436</t>
+          <t>5.4028287789997180</t>
         </is>
       </c>
       <c r="H41" t="n">
-        <v>1743296428778</v>
+        <v>1743297089423</v>
       </c>
     </row>
     <row r="42">
@@ -1981,26 +1981,26 @@
       <c r="C42" t="inlineStr"/>
       <c r="D42" t="inlineStr">
         <is>
-          <t>167.4715235081837071</t>
+          <t>168.9382108748584928</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>130492580.9391713602837238</t>
+          <t>132152343.3703900258897286</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>-4.8950716141694588</t>
+          <t>-3.9756145765020624</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>173.8869159622272818</t>
+          <t>173.3192129933888652</t>
         </is>
       </c>
       <c r="H42" t="n">
-        <v>1743296428778</v>
+        <v>1743297089423</v>
       </c>
     </row>
     <row r="43">
@@ -2017,26 +2017,26 @@
       <c r="C43" t="inlineStr"/>
       <c r="D43" t="inlineStr">
         <is>
-          <t>0.7960019162448302</t>
+          <t>0.8014353330087523</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>120968245.5405302322566729</t>
+          <t>121732495.5327970613200271</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>-6.0570057873357020</t>
+          <t>-5.4380962513170565</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>0.8043753579066322</t>
+          <t>0.8029862515558480</t>
         </is>
       </c>
       <c r="H43" t="n">
-        <v>1743296428778</v>
+        <v>1743297089423</v>
       </c>
     </row>
     <row r="44">
@@ -2057,26 +2057,26 @@
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>16.5638155097551222</t>
+          <t>16.6326577545266533</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>24803475.4375168921511254</t>
+          <t>24964659.9946078151663381</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>-3.4862867385756772</t>
+          <t>-3.0426756135880773</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>16.8135854457573480</t>
+          <t>16.7947860510500625</t>
         </is>
       </c>
       <c r="H44" t="n">
-        <v>1743296428778</v>
+        <v>1743297089423</v>
       </c>
     </row>
     <row r="45">
@@ -2093,26 +2093,26 @@
       <c r="C45" t="inlineStr"/>
       <c r="D45" t="inlineStr">
         <is>
-          <t>0.2022508779883776</t>
+          <t>0.2029858218806858</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>41272510.1657462387536871</t>
+          <t>41496019.7833358615592533</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>-4.9464558603646963</t>
+          <t>-4.5356682257785474</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>0.2040717464484717</t>
+          <t>0.2036532869851435</t>
         </is>
       </c>
       <c r="H45" t="n">
-        <v>1743296428778</v>
+        <v>1743297089423</v>
       </c>
     </row>
     <row r="46">
@@ -2133,26 +2133,26 @@
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>10.0381497210256249</t>
+          <t>10.0896906223828891</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>88676169.6388604117666954</t>
+          <t>89731895.7149255101135995</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>-3.5034800915905096</t>
+          <t>-3.3515954640505875</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>10.1201591794082393</t>
+          <t>10.1080301364509111</t>
         </is>
       </c>
       <c r="H46" t="n">
-        <v>1743296428778</v>
+        <v>1743297089423</v>
       </c>
     </row>
     <row r="47">
@@ -2173,26 +2173,26 @@
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>0.0227834610011582</t>
+          <t>0.0229385489581322</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>22757160.4782930086793579</t>
+          <t>23020385.9044152673676558</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>-5.4794807363545648</t>
+          <t>-4.9357830294772238</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>0.0231585935657915</t>
+          <t>0.0231168750144423</t>
         </is>
       </c>
       <c r="H47" t="n">
-        <v>1743296428778</v>
+        <v>1743297089423</v>
       </c>
     </row>
     <row r="48">
@@ -2213,26 +2213,26 @@
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>229.2026689030461673</t>
+          <t>230.7049429611233535</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>69504153.9801216275404946</t>
+          <t>69873874.3706417972833377</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>-5.8405161075421223</t>
+          <t>-5.4724882889183235</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>230.2406184801842890</t>
+          <t>229.9681160090976073</t>
         </is>
       </c>
       <c r="H48" t="n">
-        <v>1743296428778</v>
+        <v>1743297089423</v>
       </c>
     </row>
     <row r="49">
@@ -2249,26 +2249,26 @@
       <c r="C49" t="inlineStr"/>
       <c r="D49" t="inlineStr">
         <is>
-          <t>0.3634299649769541</t>
+          <t>0.3654066609858666</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>85826748.8029185289213638</t>
+          <t>86603642.7883759417364614</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>-6.1528722016873390</t>
+          <t>-5.8402562178233348</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>0.3761115254978733</t>
+          <t>0.3755070902972269</t>
         </is>
       </c>
       <c r="H49" t="n">
-        <v>1743296428778</v>
+        <v>1743297089423</v>
       </c>
     </row>
     <row r="50">
@@ -2285,26 +2285,26 @@
       <c r="C50" t="inlineStr"/>
       <c r="D50" t="inlineStr">
         <is>
-          <t>22.2451400575284930</t>
+          <t>22.3013633371439866</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>8371357.3680651630551270</t>
+          <t>8402986.1709214515875124</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>-2.9736444722341990</t>
+          <t>-2.6536743547826964</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>22.4939745414774474</t>
+          <t>22.4608051815367804</t>
         </is>
       </c>
       <c r="H50" t="n">
-        <v>1743296428778</v>
+        <v>1743297089423</v>
       </c>
     </row>
     <row r="51">
@@ -2321,26 +2321,26 @@
       <c r="C51" t="inlineStr"/>
       <c r="D51" t="inlineStr">
         <is>
-          <t>3.2007733513434120</t>
+          <t>3.2122818514582171</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>32420868.5876664090023028</t>
+          <t>32496108.2163664427118694</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>-6.7071073065479964</t>
+          <t>-6.5084650787542356</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>3.2846944568648404</t>
+          <t>3.2737717671686061</t>
         </is>
       </c>
       <c r="H51" t="n">
-        <v>1743296428778</v>
+        <v>1743297089423</v>
       </c>
     </row>
     <row r="52">
@@ -2361,26 +2361,26 @@
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>3.4611867619490877</t>
+          <t>3.4803880512295666</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>43895960.4035756039848386</t>
+          <t>44847856.3374500889358521</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>-7.8890604869739984</t>
+          <t>-7.6787500923704659</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>3.6187712579667117</t>
+          <t>3.5969444001129779</t>
         </is>
       </c>
       <c r="H52" t="n">
-        <v>1743296428778</v>
+        <v>1743297089423</v>
       </c>
     </row>
     <row r="53">
@@ -2397,26 +2397,26 @@
       <c r="C53" t="inlineStr"/>
       <c r="D53" t="inlineStr">
         <is>
-          <t>2.7231582956052051</t>
+          <t>2.7359736829640121</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>60728871.6159660285525038</t>
+          <t>60914112.0147459322625667</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>-4.0189965468201196</t>
+          <t>-3.5856788413242423</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>2.7791181399685364</t>
+          <t>2.7746113191325839</t>
         </is>
       </c>
       <c r="H53" t="n">
-        <v>1743296428778</v>
+        <v>1743297089423</v>
       </c>
     </row>
     <row r="54">
@@ -2437,26 +2437,26 @@
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>0.0641139039405092</t>
+          <t>0.0642964576819243</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>45114767.6245311916456593</t>
+          <t>45257356.0444050468173256</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>-8.1687095034737330</t>
+          <t>-8.0148524623789621</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>0.0650133534219686</t>
+          <t>0.0649115868391312</t>
         </is>
       </c>
       <c r="H54" t="n">
-        <v>1743296428778</v>
+        <v>1743297089423</v>
       </c>
     </row>
     <row r="55">
@@ -2473,26 +2473,26 @@
       <c r="C55" t="inlineStr"/>
       <c r="D55" t="inlineStr">
         <is>
-          <t>4.2089476501750967</t>
+          <t>4.2326977842744358</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>54137335.7538672824046803</t>
+          <t>54558054.1345065810949299</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>-7.3081580421229405</t>
+          <t>-6.7166949566535948</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>4.3858141310301909</t>
+          <t>4.3758918958773279</t>
         </is>
       </c>
       <c r="H55" t="n">
-        <v>1743296428778</v>
+        <v>1743297089423</v>
       </c>
     </row>
     <row r="56">
@@ -2513,26 +2513,26 @@
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>0.1833873675677493</t>
+          <t>0.1843582935250483</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>44625472.4100937419805845</t>
+          <t>44950777.3495961162902724</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>-8.0459599019246519</t>
+          <t>-7.5229382701776611</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>0.1882228009118393</t>
+          <t>0.1877839629998194</t>
         </is>
       </c>
       <c r="H56" t="n">
-        <v>1743296428778</v>
+        <v>1743297089423</v>
       </c>
     </row>
     <row r="57">
@@ -2549,26 +2549,26 @@
       <c r="C57" t="inlineStr"/>
       <c r="D57" t="inlineStr">
         <is>
-          <t>0.3317757903515358</t>
+          <t>0.3337681418140623</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>72256852.9387394260305537</t>
+          <t>73495471.4248479304045222</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>-4.6949628035524086</t>
+          <t>-4.0890266565674433</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>0.3347457808490293</t>
+          <t>0.3342787286153585</t>
         </is>
       </c>
       <c r="H57" t="n">
-        <v>1743296428778</v>
+        <v>1743297089423</v>
       </c>
     </row>
     <row r="58">
@@ -2585,26 +2585,26 @@
       <c r="C58" t="inlineStr"/>
       <c r="D58" t="inlineStr">
         <is>
-          <t>17.5677884423626287</t>
+          <t>17.5238894662878224</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>13220717.8345049584644924</t>
+          <t>12408498.7972102824056527</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>-4.6712299247686292</t>
+          <t>-4.9109615521263812</t>
         </is>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>18.0306465294782016</t>
+          <t>18.0010427894502002</t>
         </is>
       </c>
       <c r="H58" t="n">
-        <v>1743296428778</v>
+        <v>1743297089423</v>
       </c>
     </row>
     <row r="59">
@@ -2625,26 +2625,26 @@
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>0.4849823297451328</t>
+          <t>0.4898708196738049</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>93429676.3567482015335452</t>
+          <t>94586902.3715917514983483</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>-10.5088259865655151</t>
+          <t>-9.4752875696239887</t>
         </is>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>0.5028413180145808</t>
+          <t>0.5009069681711168</t>
         </is>
       </c>
       <c r="H59" t="n">
-        <v>1743296428778</v>
+        <v>1743297089423</v>
       </c>
     </row>
     <row r="60">
@@ -2661,26 +2661,26 @@
       <c r="C60" t="inlineStr"/>
       <c r="D60" t="inlineStr">
         <is>
-          <t>5.2391549856473331</t>
+          <t>5.2954364538186104</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>34248273.1339873409458228</t>
+          <t>34551655.5949595036837470</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>-3.9373782802503067</t>
+          <t>-3.2903236864656875</t>
         </is>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>5.3046904681602489</t>
+          <t>5.2936643932589780</t>
         </is>
       </c>
       <c r="H60" t="n">
-        <v>1743296428778</v>
+        <v>1743297089423</v>
       </c>
     </row>
     <row r="61">
@@ -2701,26 +2701,26 @@
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>11.0515537610670625</t>
+          <t>11.0715003017666565</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>638155.6177684378551772</t>
+          <t>641288.7701626320564898</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>-0.9648178577301260</t>
+          <t>-0.8619525572045405</t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>11.0779473885241439</t>
+          <t>11.0742446459175479</t>
         </is>
       </c>
       <c r="H61" t="n">
-        <v>1743296428778</v>
+        <v>1743297089423</v>
       </c>
     </row>
     <row r="62">
@@ -2741,26 +2741,26 @@
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>0.4744200940296352</t>
+          <t>0.4771304541329743</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>25887501.6302859689123556</t>
+          <t>26160665.6484985250518837</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>-4.8879280183415012</t>
+          <t>-4.4314894483614882</t>
         </is>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>0.4723689064591215</t>
+          <t>0.4716476797971150</t>
         </is>
       </c>
       <c r="H62" t="n">
-        <v>1743296428778</v>
+        <v>1743297089423</v>
       </c>
     </row>
     <row r="63">
@@ -2777,26 +2777,26 @@
       <c r="C63" t="inlineStr"/>
       <c r="D63" t="inlineStr">
         <is>
-          <t>0.7643105408630777</t>
+          <t>0.7692184030064616</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>56353053.5764173030149113</t>
+          <t>57286716.0317907658068210</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>-8.4556177401871675</t>
+          <t>-7.9611169433862505</t>
         </is>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>0.7867260737979288</t>
+          <t>0.7850005165233475</t>
         </is>
       </c>
       <c r="H63" t="n">
-        <v>1743296428778</v>
+        <v>1743297089423</v>
       </c>
     </row>
     <row r="64">
@@ -2817,26 +2817,26 @@
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>0.4696050579380655</t>
+          <t>0.4727122103632980</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>54920270.0702769761137439</t>
+          <t>55509764.4224532928073038</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>-7.7219336645800228</t>
+          <t>-7.2162166198989094</t>
         </is>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>0.4831587145785492</t>
+          <t>0.4819306928483113</t>
         </is>
       </c>
       <c r="H64" t="n">
-        <v>1743296428778</v>
+        <v>1743297089423</v>
       </c>
     </row>
     <row r="65">
@@ -2857,26 +2857,26 @@
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>0.4448802175468912</t>
+          <t>0.4489746831476630</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>76197939.5246974808601961</t>
+          <t>77037706.2000971402886798</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>-7.8991191975409341</t>
+          <t>-7.2204360308916088</t>
         </is>
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>0.4746995954653084</t>
+          <t>0.4732417511268104</t>
         </is>
       </c>
       <c r="H65" t="n">
-        <v>1743296428778</v>
+        <v>1743297089423</v>
       </c>
     </row>
     <row r="66">
@@ -2897,26 +2897,26 @@
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>1283.8555126481847417</t>
+          <t>1293.6938154838731654</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>38937342.1059252261307533</t>
+          <t>38646153.4805548113045795</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>-11.8179873141884518</t>
+          <t>-11.1144035836948587</t>
         </is>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>1377.3787792446152030</t>
+          <t>1365.6651917439821381</t>
         </is>
       </c>
       <c r="H66" t="n">
-        <v>1743296428778</v>
+        <v>1743297089423</v>
       </c>
     </row>
     <row r="67">
@@ -2933,26 +2933,26 @@
       <c r="C67" t="inlineStr"/>
       <c r="D67" t="inlineStr">
         <is>
-          <t>0.0681997463540025</t>
+          <t>0.0681947718721061</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>8142955.2672438648674953</t>
+          <t>8141779.5059726454296845</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>-2.0919419480048241</t>
+          <t>-2.0651457844343615</t>
         </is>
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>0.0688021891602972</t>
+          <t>0.0687431017553435</t>
         </is>
       </c>
       <c r="H67" t="n">
-        <v>1743296428778</v>
+        <v>1743297089423</v>
       </c>
     </row>
     <row r="68">
@@ -2973,26 +2973,26 @@
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>0.5485133137658671</t>
+          <t>0.5521243630488310</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>10262888.1457316179330239</t>
+          <t>10365674.7558606008508500</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>-5.5249213522150777</t>
+          <t>-5.1890695643545925</t>
         </is>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>0.5622747964606907</t>
+          <t>0.5607393093750623</t>
         </is>
       </c>
       <c r="H68" t="n">
-        <v>1743296428778</v>
+        <v>1743297089423</v>
       </c>
     </row>
     <row r="69">
@@ -3009,22 +3009,22 @@
       <c r="C69" t="inlineStr"/>
       <c r="D69" t="inlineStr">
         <is>
-          <t>603.8202917871117481</t>
+          <t>607.6979661988179893</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>11301114.4577377831404109</t>
+          <t>11373689.1011417572887887</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>-3.1811863644928955</t>
+          <t>-2.8200482113556925</t>
         </is>
       </c>
       <c r="G69" t="inlineStr"/>
       <c r="H69" t="n">
-        <v>1743296428778</v>
+        <v>1743297089423</v>
       </c>
     </row>
     <row r="70">
@@ -3045,26 +3045,26 @@
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>0.6223506842340983</t>
+          <t>0.6265865247348464</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>18885875.9414001822354664</t>
+          <t>19027774.4947739669366454</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>-5.6649086294751152</t>
+          <t>-4.9451531823475113</t>
         </is>
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>0.6292294061095763</t>
+          <t>0.6265622914257434</t>
         </is>
       </c>
       <c r="H70" t="n">
-        <v>1743296428778</v>
+        <v>1743297089423</v>
       </c>
     </row>
     <row r="71">
@@ -3081,26 +3081,26 @@
       <c r="C71" t="inlineStr"/>
       <c r="D71" t="inlineStr">
         <is>
-          <t>0.7739677945459865</t>
+          <t>0.7788064684079382</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>72317537.6205415119018028</t>
+          <t>72832124.2538959299504867</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>-8.3048885828177748</t>
+          <t>-7.7303289068561315</t>
         </is>
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>0.8001925716231685</t>
+          <t>0.7984820503301564</t>
         </is>
       </c>
       <c r="H71" t="n">
-        <v>1743296428778</v>
+        <v>1743297089423</v>
       </c>
     </row>
     <row r="72">
@@ -3117,22 +3117,22 @@
       <c r="C72" t="inlineStr"/>
       <c r="D72" t="inlineStr">
         <is>
-          <t>0.9976964783104505</t>
+          <t>0.9976964985523024</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>22221876.2554632308956546</t>
+          <t>22220725.7004632324523059</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>0.0011156652422023</t>
+          <t>-0.0022846510775210</t>
         </is>
       </c>
       <c r="G72" t="inlineStr"/>
       <c r="H72" t="n">
-        <v>1743296428778</v>
+        <v>1743297089423</v>
       </c>
     </row>
     <row r="73">
@@ -3149,26 +3149,26 @@
       <c r="C73" t="inlineStr"/>
       <c r="D73" t="inlineStr">
         <is>
-          <t>0.0000112892594854</t>
+          <t>0.0000113640330586</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>53492670.7642846965889532</t>
+          <t>53794434.8022967652647113</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>-8.3636623837188955</t>
+          <t>-7.8580759643105981</t>
         </is>
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>0.0000115616252007</t>
+          <t>0.0000115118747924</t>
         </is>
       </c>
       <c r="H73" t="n">
-        <v>1743296428778</v>
+        <v>1743297089423</v>
       </c>
     </row>
     <row r="74">
@@ -3185,26 +3185,26 @@
       <c r="C74" t="inlineStr"/>
       <c r="D74" t="inlineStr">
         <is>
-          <t>0.1797293094238838</t>
+          <t>0.1807302139807161</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>48230289.1594706576314658</t>
+          <t>48755190.3846543971820610</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>-6.4512737260460375</t>
+          <t>-6.0159833187340152</t>
         </is>
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>0.1821464847958657</t>
+          <t>0.1817410755645439</t>
         </is>
       </c>
       <c r="H74" t="n">
-        <v>1743296428778</v>
+        <v>1743297089423</v>
       </c>
     </row>
     <row r="75">
@@ -3221,26 +3221,26 @@
       <c r="C75" t="inlineStr"/>
       <c r="D75" t="inlineStr">
         <is>
-          <t>0.0886614482151354</t>
+          <t>0.0893984898375097</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>10742740.4332538394652245</t>
+          <t>10822210.6118117108048251</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>-6.8743387485876290</t>
+          <t>-6.0181161393629331</t>
         </is>
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>0.0913646475318233</t>
+          <t>0.0911073638691793</t>
         </is>
       </c>
       <c r="H75" t="n">
-        <v>1743296428778</v>
+        <v>1743297089423</v>
       </c>
     </row>
     <row r="76">
@@ -3261,26 +3261,26 @@
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>8.7271758484691478</t>
+          <t>8.7738356023131703</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>45775295.8093810811401494</t>
+          <t>46150998.9003946191166332</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>-5.6229271758846421</t>
+          <t>-4.9565324226529550</t>
         </is>
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>8.9110532991196106</t>
+          <t>8.8736290555783592</t>
         </is>
       </c>
       <c r="H76" t="n">
-        <v>1743296428778</v>
+        <v>1743297089423</v>
       </c>
     </row>
     <row r="77">
@@ -3301,26 +3301,26 @@
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>0.5441020272576751</t>
+          <t>0.5474245526509444</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>59388903.7026077457520198</t>
+          <t>59410841.5595608581575820</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>-4.1799061255695576</t>
+          <t>-3.7220613813275818</t>
         </is>
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>0.5619135177794020</t>
+          <t>0.5606892622302187</t>
         </is>
       </c>
       <c r="H77" t="n">
-        <v>1743296428778</v>
+        <v>1743297089423</v>
       </c>
     </row>
     <row r="78">
@@ -3341,26 +3341,26 @@
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>69.3748647491287123</t>
+          <t>69.6411676697710958</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>10675463.9206836976571386</t>
+          <t>10711992.1584636375171202</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>-3.1347310576675061</t>
+          <t>-2.7173357483851560</t>
         </is>
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>69.3781264400720656</t>
+          <t>69.2811401687994097</t>
         </is>
       </c>
       <c r="H78" t="n">
-        <v>1743296428778</v>
+        <v>1743297089423</v>
       </c>
     </row>
     <row r="79">
@@ -3381,26 +3381,26 @@
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>0.8307004320442866</t>
+          <t>0.8360399723196338</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>9397271.3350656093382241</t>
+          <t>9499187.3052904765952585</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>-6.8389242356599970</t>
+          <t>-6.1939983740360331</t>
         </is>
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>0.8517306820074946</t>
+          <t>0.8496616412330231</t>
         </is>
       </c>
       <c r="H79" t="n">
-        <v>1743296428778</v>
+        <v>1743297089423</v>
       </c>
     </row>
     <row r="80">
@@ -3421,22 +3421,22 @@
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>2.1626335449853718</t>
+          <t>2.1740494005629778</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>3994703.7731995951026983</t>
+          <t>4020821.1437301738903098</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>-4.2490424005815022</t>
+          <t>-4.2437009454162382</t>
         </is>
       </c>
       <c r="G80" t="inlineStr"/>
       <c r="H80" t="n">
-        <v>1743296428778</v>
+        <v>1743297089423</v>
       </c>
     </row>
     <row r="81">
@@ -3453,26 +3453,26 @@
       <c r="C81" t="inlineStr"/>
       <c r="D81" t="inlineStr">
         <is>
-          <t>0.0132099956544099</t>
+          <t>0.0132326225574872</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>11999002.6133810408858173</t>
+          <t>12040100.9838446369146222</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>-3.8769049079181192</t>
+          <t>-3.6887098513259874</t>
         </is>
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>0.0133742920755036</t>
+          <t>0.0133463487595621</t>
         </is>
       </c>
       <c r="H81" t="n">
-        <v>1743296428778</v>
+        <v>1743297089423</v>
       </c>
     </row>
     <row r="82">
@@ -3489,26 +3489,26 @@
       <c r="C82" t="inlineStr"/>
       <c r="D82" t="inlineStr">
         <is>
-          <t>0.9982620237116672</t>
+          <t>0.9983127064537924</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>8939006.0810610567663604</t>
+          <t>8947105.4518134354357686</t>
         </is>
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>-0.1806435559488069</t>
+          <t>-0.1815774802922565</t>
         </is>
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>0.9985215089226389</t>
+          <t>0.9984617540967416</t>
         </is>
       </c>
       <c r="H82" t="n">
-        <v>1743296428778</v>
+        <v>1743297089423</v>
       </c>
     </row>
     <row r="83">
@@ -3525,26 +3525,26 @@
       <c r="C83" t="inlineStr"/>
       <c r="D83" t="inlineStr">
         <is>
-          <t>7.3614348111370427</t>
+          <t>7.3979148708834479</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>148966341.3839507739103852</t>
+          <t>147650655.9995572899750983</t>
         </is>
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>-16.6633003211165513</t>
+          <t>-16.4256168129871732</t>
         </is>
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>8.0864170633587263</t>
+          <t>8.0151963427271458</t>
         </is>
       </c>
       <c r="H83" t="n">
-        <v>1743296428778</v>
+        <v>1743297089423</v>
       </c>
     </row>
     <row r="84">
@@ -3561,26 +3561,26 @@
       <c r="C84" t="inlineStr"/>
       <c r="D84" t="inlineStr">
         <is>
-          <t>0.8703300022568320</t>
+          <t>0.8781661326532031</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>39392005.7579894052301206</t>
+          <t>39861790.5905127886669281</t>
         </is>
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>-7.1232729560979133</t>
+          <t>-6.4430708967681380</t>
         </is>
       </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t>0.9045673142712821</t>
+          <t>0.9024296962588342</t>
         </is>
       </c>
       <c r="H84" t="n">
-        <v>1743296428778</v>
+        <v>1743297089423</v>
       </c>
     </row>
     <row r="85">
@@ -3597,26 +3597,26 @@
       <c r="C85" t="inlineStr"/>
       <c r="D85" t="inlineStr">
         <is>
-          <t>3113.8877306043397872</t>
+          <t>3113.8118256360491498</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>6505929.2955044483643827</t>
+          <t>6521254.6511759625828904</t>
         </is>
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>0.2324938147597639</t>
+          <t>0.2405160745701050</t>
         </is>
       </c>
       <c r="G85" t="inlineStr">
         <is>
-          <t>3111.8197180447126622</t>
+          <t>3111.9726842137706695</t>
         </is>
       </c>
       <c r="H85" t="n">
-        <v>1743296428778</v>
+        <v>1743297089423</v>
       </c>
     </row>
     <row r="86">
@@ -3633,26 +3633,26 @@
       <c r="C86" t="inlineStr"/>
       <c r="D86" t="inlineStr">
         <is>
-          <t>1.0759296229887041</t>
+          <t>1.0783566610107233</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>3344034.5389671337725542</t>
+          <t>3354281.4765150424480164</t>
         </is>
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>-3.8727989786403779</t>
+          <t>-3.6690439802786020</t>
         </is>
       </c>
       <c r="G86" t="inlineStr">
         <is>
-          <t>1.0883141746803229</t>
+          <t>1.0872846051811889</t>
         </is>
       </c>
       <c r="H86" t="n">
-        <v>1743296428778</v>
+        <v>1743297089423</v>
       </c>
     </row>
     <row r="87">
@@ -3669,102 +3669,102 @@
       <c r="C87" t="inlineStr"/>
       <c r="D87" t="inlineStr">
         <is>
-          <t>2.1947071061119463</t>
+          <t>2.2062600120166955</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>13341133.9542752778044346</t>
+          <t>13501738.8825533788555203</t>
         </is>
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>-1.5749669422183704</t>
+          <t>-1.0572592606431501</t>
         </is>
       </c>
       <c r="G87" t="inlineStr">
         <is>
-          <t>2.1652630825696802</t>
+          <t>2.1638107184053501</t>
         </is>
       </c>
       <c r="H87" t="n">
-        <v>1743296428778</v>
+        <v>1743297089423</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>tezos</t>
+          <t>gala</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>XTZ</t>
-        </is>
-      </c>
-      <c r="C88" t="inlineStr"/>
+          <t>GALA</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>50000000000.0000000000000000</t>
+        </is>
+      </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>0.6491911161441259</t>
+          <t>0.0154519859083297</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>9733887.5883731963745640</t>
+          <t>38670584.4551439913864919</t>
         </is>
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>-4.1852471680886808</t>
+          <t>-7.2448445296643593</t>
         </is>
       </c>
       <c r="G88" t="inlineStr">
         <is>
-          <t>0.6637110068922031</t>
+          <t>0.0155755438700855</t>
         </is>
       </c>
       <c r="H88" t="n">
-        <v>1743296428778</v>
+        <v>1743297089423</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>gala</t>
+          <t>tezos</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>GALA</t>
-        </is>
-      </c>
-      <c r="C89" t="inlineStr">
-        <is>
-          <t>50000000000.0000000000000000</t>
-        </is>
-      </c>
+          <t>XTZ</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr"/>
       <c r="D89" t="inlineStr">
         <is>
-          <t>0.0153273036288905</t>
+          <t>0.6498973145992834</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>38156480.3793952565705838</t>
+          <t>9784674.5781892348970444</t>
         </is>
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>-7.8666062818849727</t>
+          <t>-4.0837261451111769</t>
         </is>
       </c>
       <c r="G89" t="inlineStr">
         <is>
-          <t>0.0156240585593196</t>
+          <t>0.6629573109917954</t>
         </is>
       </c>
       <c r="H89" t="n">
-        <v>1743296428778</v>
+        <v>1743297089423</v>
       </c>
     </row>
     <row r="90">
@@ -3781,26 +3781,26 @@
       <c r="C90" t="inlineStr"/>
       <c r="D90" t="inlineStr">
         <is>
-          <t>0.2690171720934153</t>
+          <t>0.2700176940676300</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>15313112.4445538185821614</t>
+          <t>15437541.0003241915126376</t>
         </is>
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>-4.0506877420015184</t>
+          <t>-3.6949553997828084</t>
         </is>
       </c>
       <c r="G90" t="inlineStr">
         <is>
-          <t>0.2726459687979406</t>
+          <t>0.2719935528067818</t>
         </is>
       </c>
       <c r="H90" t="n">
-        <v>1743296428778</v>
+        <v>1743297089423</v>
       </c>
     </row>
     <row r="91">
@@ -3817,26 +3817,26 @@
       <c r="C91" t="inlineStr"/>
       <c r="D91" t="inlineStr">
         <is>
-          <t>0.0000006725345523</t>
+          <t>0.0000006726925356</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>1117956.4923917130911966</t>
+          <t>1119582.5506941898859089</t>
         </is>
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>-1.0369176348312984</t>
+          <t>-1.1446210686205828</t>
         </is>
       </c>
       <c r="G91" t="inlineStr">
         <is>
-          <t>0.0000006787313542</t>
+          <t>0.0000006785067114</t>
         </is>
       </c>
       <c r="H91" t="n">
-        <v>1743296428778</v>
+        <v>1743297089423</v>
       </c>
     </row>
     <row r="92">
@@ -3853,26 +3853,26 @@
       <c r="C92" t="inlineStr"/>
       <c r="D92" t="inlineStr">
         <is>
-          <t>3118.4393549740026085</t>
+          <t>3120.3917155112038202</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>46961060.1468940123415554</t>
+          <t>47179474.3602999591058587</t>
         </is>
       </c>
       <c r="F92" t="inlineStr">
         <is>
-          <t>0.7794311876670654</t>
+          <t>0.8938231713416683</t>
         </is>
       </c>
       <c r="G92" t="inlineStr">
         <is>
-          <t>3104.1064416028487498</t>
+          <t>3106.2132606304694097</t>
         </is>
       </c>
       <c r="H92" t="n">
-        <v>1743296428778</v>
+        <v>1743297089423</v>
       </c>
     </row>
     <row r="93">
@@ -3889,26 +3889,26 @@
       <c r="C93" t="inlineStr"/>
       <c r="D93" t="inlineStr">
         <is>
-          <t>0.1729546685498464</t>
+          <t>0.1744014464748732</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>10752417.7391426953071054</t>
+          <t>11074007.9250574728216734</t>
         </is>
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>-5.8786070124222296</t>
+          <t>-5.0420554757971498</t>
         </is>
       </c>
       <c r="G93" t="inlineStr">
         <is>
-          <t>0.1753388064911254</t>
+          <t>0.1749882961790816</t>
         </is>
       </c>
       <c r="H93" t="n">
-        <v>1743296428778</v>
+        <v>1743297089423</v>
       </c>
     </row>
     <row r="94">
@@ -3929,26 +3929,26 @@
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>0.4874479490292167</t>
+          <t>0.4917164978778142</t>
         </is>
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>43863980.4958921333897647</t>
+          <t>44371785.7632005035311824</t>
         </is>
       </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t>-4.7869320647319512</t>
+          <t>-4.3281372022399099</t>
         </is>
       </c>
       <c r="G94" t="inlineStr">
         <is>
-          <t>0.4891359202111243</t>
+          <t>0.4883480961803173</t>
         </is>
       </c>
       <c r="H94" t="n">
-        <v>1743296428778</v>
+        <v>1743297089423</v>
       </c>
     </row>
     <row r="95">
@@ -3965,26 +3965,26 @@
       <c r="C95" t="inlineStr"/>
       <c r="D95" t="inlineStr">
         <is>
-          <t>31.1284498623647251</t>
+          <t>31.1699237720044652</t>
         </is>
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>8021229.0329227161314426</t>
+          <t>8035242.4952367962671806</t>
         </is>
       </c>
       <c r="F95" t="inlineStr">
         <is>
-          <t>-5.5089276973914030</t>
+          <t>-5.3607716789000495</t>
         </is>
       </c>
       <c r="G95" t="inlineStr">
         <is>
-          <t>32.1680266069767518</t>
+          <t>32.1134346834240365</t>
         </is>
       </c>
       <c r="H95" t="n">
-        <v>1743296428778</v>
+        <v>1743297089423</v>
       </c>
     </row>
     <row r="96">
@@ -4001,26 +4001,26 @@
       <c r="C96" t="inlineStr"/>
       <c r="D96" t="inlineStr">
         <is>
-          <t>0.1022988982820189</t>
+          <t>0.1025970098339907</t>
         </is>
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>5943755.8034542716035440</t>
+          <t>5963499.4733320285565362</t>
         </is>
       </c>
       <c r="F96" t="inlineStr">
         <is>
-          <t>-3.8361449759440496</t>
+          <t>-3.5021706427026627</t>
         </is>
       </c>
       <c r="G96" t="inlineStr">
         <is>
-          <t>0.1035489193639471</t>
+          <t>0.1034965879236058</t>
         </is>
       </c>
       <c r="H96" t="n">
-        <v>1743296428778</v>
+        <v>1743297089423</v>
       </c>
     </row>
     <row r="97">
@@ -4041,26 +4041,26 @@
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>1.9884816708114827</t>
+          <t>2.0004668947167828</t>
         </is>
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>60071163.6820132203548264</t>
+          <t>60670783.5947500538798113</t>
         </is>
       </c>
       <c r="F97" t="inlineStr">
         <is>
-          <t>-7.3181694702050256</t>
+          <t>-6.4646268247626904</t>
         </is>
       </c>
       <c r="G97" t="inlineStr">
         <is>
-          <t>2.0125416468468761</t>
+          <t>2.0085547104487743</t>
         </is>
       </c>
       <c r="H97" t="n">
-        <v>1743296428778</v>
+        <v>1743297089423</v>
       </c>
     </row>
     <row r="98">
@@ -4077,26 +4077,26 @@
       <c r="C98" t="inlineStr"/>
       <c r="D98" t="inlineStr">
         <is>
-          <t>0.3769956106414815</t>
+          <t>0.3778741654980206</t>
         </is>
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>7816060.2957314757030214</t>
+          <t>7847665.1969374822440106</t>
         </is>
       </c>
       <c r="F98" t="inlineStr">
         <is>
-          <t>-4.3467710389223881</t>
+          <t>-4.1565532281742545</t>
         </is>
       </c>
       <c r="G98" t="inlineStr">
         <is>
-          <t>0.3841858896809982</t>
+          <t>0.3832745655695799</t>
         </is>
       </c>
       <c r="H98" t="n">
-        <v>1743296428778</v>
+        <v>1743297089423</v>
       </c>
     </row>
     <row r="99">
@@ -4117,26 +4117,26 @@
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>36.2341672352677816</t>
+          <t>36.4618285925430486</t>
         </is>
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>10347820.0593351208372001</t>
+          <t>10442760.8739948745103446</t>
         </is>
       </c>
       <c r="F99" t="inlineStr">
         <is>
-          <t>-2.0297922489031671</t>
+          <t>-1.7440984590406621</t>
         </is>
       </c>
       <c r="G99" t="inlineStr">
         <is>
-          <t>36.0665276317425307</t>
+          <t>36.0338364089196340</t>
         </is>
       </c>
       <c r="H99" t="n">
-        <v>1743296428778</v>
+        <v>1743297089423</v>
       </c>
     </row>
     <row r="100">
@@ -4157,26 +4157,26 @@
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>3.1567977115982481</t>
+          <t>3.1822198336760457</t>
         </is>
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>3683151.0475988545770633</t>
+          <t>3766781.3204107295429499</t>
         </is>
       </c>
       <c r="F100" t="inlineStr">
         <is>
-          <t>1.3916145539516959</t>
+          <t>1.8314948230235200</t>
         </is>
       </c>
       <c r="G100" t="inlineStr">
         <is>
-          <t>3.1252861785399789</t>
+          <t>3.1281213582511125</t>
         </is>
       </c>
       <c r="H100" t="n">
-        <v>1743296428778</v>
+        <v>1743297089423</v>
       </c>
     </row>
     <row r="101">
@@ -4197,26 +4197,26 @@
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>15.7740589137890567</t>
+          <t>15.8809220781809960</t>
         </is>
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>32019059.5569617085401784</t>
+          <t>32715960.2208523061170783</t>
         </is>
       </c>
       <c r="F101" t="inlineStr">
         <is>
-          <t>-5.8845118311693865</t>
+          <t>-5.2729660719649166</t>
         </is>
       </c>
       <c r="G101" t="inlineStr">
         <is>
-          <t>16.1924942120804199</t>
+          <t>16.1609566383691538</t>
         </is>
       </c>
       <c r="H101" t="n">
-        <v>1743296428778</v>
+        <v>1743297089423</v>
       </c>
     </row>
   </sheetData>

--- a/src/static/xlsx/df_api_name_xlsx.xlsx
+++ b/src/static/xlsx/df_api_name_xlsx.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H101"/>
+  <dimension ref="A1:F101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -441,37 +441,27 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>symbol</t>
+          <t>name</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>maxSupply</t>
+          <t>rank</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>priceUsd</t>
+          <t>supply</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>volumeUsd24Hr</t>
+          <t>explorer</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>changePercent24Hr</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>vwap24Hr</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>timestamp</t>
+          <t>marketCapUsd</t>
         </is>
       </c>
     </row>
@@ -483,36 +473,28 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>BTC</t>
+          <t>Bitcoin</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>21000000.0000000000000000</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>82927.5291633691748018</t>
+          <t>19844090.0000000000000000</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>6787931376.1628427247731435</t>
+          <t>https://blockchain.info/</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>-1.8009940896074362</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>82979.2555203909947156</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>1743297089423</v>
+          <t>1645408213162.3085423711777190</t>
+        </is>
       </c>
     </row>
     <row r="3">
@@ -523,32 +505,28 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>ETH</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr"/>
+          <t>Ethereum</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>1833.6959861014094902</t>
+          <t>120654453.5456346000000000</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>5548289274.7091994530292840</t>
+          <t>https://etherscan.io/</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>-3.7907520723792152</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>1846.8058948327428276</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>1743297089423</v>
+          <t>219447239944.2114512478497129</t>
+        </is>
       </c>
     </row>
     <row r="4">
@@ -559,32 +537,28 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>USDT</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr"/>
+          <t>Tether</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>1.0032853596992851</t>
+          <t>144182349120.7869600000000000</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>21803680461.6579213945873683</t>
+          <t>https://www.omniexplorer.info/asset/31</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>0.1751871928315050</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>1.0005749640165395</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>1743297089423</v>
+          <t>144472528344.4947595458365958</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -600,31 +574,23 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>100000000000.0000000000000000</t>
+          <t>4</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>2.1475096596149217</t>
+          <t>58205697378.0000000000000000</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>1638145769.1721286801968047</t>
+          <t>https://xrpcharts.ripple.com/#/graph/</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>-2.9692829302731786</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>2.1234850546499362</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>1743297089423</v>
+          <t>125128539404.0488101244391484</t>
+        </is>
       </c>
     </row>
     <row r="6">
@@ -640,31 +606,23 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
           <t>144006830.0000000000000000</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>605.2723642581100068</t>
-        </is>
-      </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>316941868.5504552792170383</t>
+          <t>https://etherscan.io/token/0xB8c77482e45F1F44dE1745F52C74426C631bDD52</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>-2.6306758946870764</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>606.1983101043918549</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>1743297089423</v>
+          <t>87075359850.5724607777222570</t>
+        </is>
       </c>
     </row>
     <row r="7">
@@ -675,32 +633,28 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>SOL</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr"/>
+          <t>Solana</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>125.2021089351356679</t>
+          <t>512293807.5507926300000000</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>1311190636.5569144336939894</t>
+          <t>https://explorer.solana.com/</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>-3.6044688822377920</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>125.9657787729131898</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>1743297089423</v>
+          <t>64173621326.0654427258974176</t>
+        </is>
       </c>
     </row>
     <row r="8">
@@ -714,29 +668,25 @@
           <t>USDC</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr"/>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>1.0012784561547774</t>
+          <t>60242525341.8881500000000000</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>3938548447.2261661835216679</t>
+          <t>https://etherscan.io/token/0xa0b86991c6218b36c1d19d4a2e9eb0ce3606eb48</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>0.1009394973542220</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>1.0014767974539042</t>
-        </is>
-      </c>
-      <c r="H8" t="n">
-        <v>1743297089423</v>
+          <t>60263652571.4768036023903822</t>
+        </is>
       </c>
     </row>
     <row r="9">
@@ -747,32 +697,28 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>DOGE</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr"/>
+          <t>Dogecoin</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>0.1703741125665958</t>
+          <t>148644126383.7052300000000000</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>594437659.1801780086268755</t>
+          <t>http://dogechain.info/chain/Dogecoin</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>-6.0686260074544599</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>0.1722242722826475</t>
-        </is>
-      </c>
-      <c r="H9" t="n">
-        <v>1743297089423</v>
+          <t>25192339632.7758404781160303</t>
+        </is>
       </c>
     </row>
     <row r="10">
@@ -783,36 +729,28 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>ADA</t>
+          <t>Cardano</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>45000000000.0000000000000000</t>
+          <t>9</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>0.6745334421358229</t>
+          <t>35242104181.1897300000000000</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>327578924.8543985455292427</t>
+          <t>https://cardanoexplorer.com/</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>-4.9541273660256890</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>0.6776034453413297</t>
-        </is>
-      </c>
-      <c r="H10" t="n">
-        <v>1743297089423</v>
+          <t>23723258891.0099981885348963</t>
+        </is>
       </c>
     </row>
     <row r="11">
@@ -823,32 +761,28 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>TRX</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr"/>
+          <t>TRON</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>0.2302783259612055</t>
+          <t>94994605853.7637200000000000</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>284280223.9630108460337031</t>
+          <t>https://tronscan.org/#/</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>-1.0282408493613735</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>0.2334863945424018</t>
-        </is>
-      </c>
-      <c r="H11" t="n">
-        <v>1743297089423</v>
+          <t>21915590545.0177149452066276</t>
+        </is>
       </c>
     </row>
     <row r="12">
@@ -859,32 +793,28 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>STETH</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr"/>
+          <t>Lido Staked ETH</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>1825.7528636676991339</t>
+          <t>9367578.0451454800000000</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>6966864.2798131010344101</t>
+          <t>https://etherscan.io/token/0xae7ab96520de3a18e5e111b5eaab095312d7fe84</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>-4.0384262889465598</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>1856.6007047467115695</t>
-        </is>
-      </c>
-      <c r="H12" t="n">
-        <v>1743297089423</v>
+          <t>17013824733.8718290823942758</t>
+        </is>
       </c>
     </row>
     <row r="13">
@@ -895,32 +825,28 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>WBTC</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr"/>
+          <t>Wrapped Bitcoin</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>82293.0000839416095287</t>
+          <t>129077.4055218900000000</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>113069494.8774586400333772</t>
+          <t>https://etherscan.io/token/0x2260fac5e5542a773aa44fbcfedf7c193bc2c599</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>-2.3633857735699158</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>82858.5756787920442054</t>
-        </is>
-      </c>
-      <c r="H13" t="n">
-        <v>1743297089423</v>
+          <t>10598806295.6447535423859155</t>
+        </is>
       </c>
     </row>
     <row r="14">
@@ -931,32 +857,24 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>TON</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr"/>
+          <t>Toncoin</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>3.6701286226387559</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>90060417.1979437715978933</t>
-        </is>
-      </c>
+          <t>2484528578.6548066000000000</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr"/>
       <c r="F14" t="inlineStr">
         <is>
-          <t>-3.8339416539194979</t>
-        </is>
-      </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>3.7189384458816226</t>
-        </is>
-      </c>
-      <c r="H14" t="n">
-        <v>1743297089423</v>
+          <t>9472862912.8328174480942813</t>
+        </is>
       </c>
     </row>
     <row r="15">
@@ -967,32 +885,28 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>LINK</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr"/>
+          <t>Chainlink</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>13.5576661660143526</t>
+          <t>657099970.4527867000000000</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>149729896.9923917064241619</t>
+          <t>https://etherscan.io/token/0x514910771af9ca656af840dff83e8264ecf986ca</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>-5.1055243658124749</t>
-        </is>
-      </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>13.7457180531963252</t>
-        </is>
-      </c>
-      <c r="H15" t="n">
-        <v>1743297089423</v>
+          <t>8958597212.6335910550156019</t>
+        </is>
       </c>
     </row>
     <row r="16">
@@ -1003,32 +917,28 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>LEO</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr"/>
+          <t>UNUS SED LEO</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>9.5925176271442827</t>
+          <t>923836969.9000000000000000</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>5077252.4701464625415234</t>
+          <t>https://eospark.com/account/bitfinexleo1</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>-1.3438852814405950</t>
-        </is>
-      </c>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>9.5461364621487550</t>
-        </is>
-      </c>
-      <c r="H16" t="n">
-        <v>1743297089423</v>
+          <t>8901839290.0928122997258208</t>
+        </is>
       </c>
     </row>
     <row r="17">
@@ -1039,36 +949,28 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>XLM</t>
+          <t>Stellar</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>50001806812.0000000000000000</t>
+          <t>16</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>0.2675161271012842</t>
+          <t>30787178407.4941640000000000</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>64409490.9602687408891295</t>
+          <t>https://dashboard.stellar.org/</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>-2.9103961096761259</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>0.2676030983765726</t>
-        </is>
-      </c>
-      <c r="H17" t="n">
-        <v>1743297089423</v>
+          <t>8265176800.0094639130424089</t>
+        </is>
       </c>
     </row>
     <row r="18">
@@ -1079,116 +981,92 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>AVAX</t>
+          <t>Avalanche</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>715748719.0000000000000000</t>
+          <t>17</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>19.6888378936696513</t>
+          <t>414844783.0787661700000000</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>131347962.3695596230835735</t>
+          <t>https://avascan.info/</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>-3.5448335168692977</t>
-        </is>
-      </c>
-      <c r="G18" t="inlineStr">
-        <is>
-          <t>19.9396176946555383</t>
-        </is>
-      </c>
-      <c r="H18" t="n">
-        <v>1743297089423</v>
+          <t>8051635600.1507045998396600</t>
+        </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>shiba-inu</t>
+          <t>sui</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>SHIB</t>
+          <t>Sui</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>589552695333683.0000000000000000</t>
+          <t>18</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>0.0000127072729629</t>
+          <t>3169845047.4838877000000000</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>86865024.1398232121926783</t>
+          <t>https://suiexplorer.com/</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>-4.6386686334144398</t>
-        </is>
-      </c>
-      <c r="G19" t="inlineStr">
-        <is>
-          <t>0.0000127713982102</t>
-        </is>
-      </c>
-      <c r="H19" t="n">
-        <v>1743297089423</v>
+          <t>7482713340.3192561276521836</t>
+        </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>sui</t>
+          <t>shiba-inu</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>SUI</t>
+          <t>Shiba Inu</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>10000000000.0000000000000000</t>
+          <t>19</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>2.3090628518462328</t>
+          <t>589250822785832.4000000000000000</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>603811213.5792201639459010</t>
+          <t>https://etherscan.io/token/0x95ad61b0a150d79219dcf64e1e6cc01f0b64c4ce</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>-8.3801118580093186</t>
-        </is>
-      </c>
-      <c r="G20" t="inlineStr">
-        <is>
-          <t>2.3572283973579266</t>
-        </is>
-      </c>
-      <c r="H20" t="n">
-        <v>1743297089423</v>
+          <t>7426139533.0259675745838750</t>
+        </is>
       </c>
     </row>
     <row r="21">
@@ -1199,36 +1077,28 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>HBAR</t>
+          <t>Hedera</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>50000000000.0000000000000000</t>
+          <t>20</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>0.1727124461220426</t>
+          <t>42219399509.4028200000000000</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>129297238.4542242752037435</t>
+          <t>https://app.dragonglass.me/hedera/home</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>-5.5434628231165468</t>
-        </is>
-      </c>
-      <c r="G21" t="inlineStr">
-        <is>
-          <t>0.1726025041526711</t>
-        </is>
-      </c>
-      <c r="H21" t="n">
-        <v>1743297089423</v>
+          <t>7199344865.4500467226974255</t>
+        </is>
       </c>
     </row>
     <row r="22">
@@ -1239,36 +1109,28 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>LTC</t>
+          <t>Litecoin</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>84000000.0000000000000000</t>
+          <t>21</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>85.6191821011924101</t>
+          <t>75558468.3040892000000000</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>203624267.8348365291774100</t>
+          <t>http://explorer.litecoin.net/chain/Litecoin</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>-2.3575808053747788</t>
-        </is>
-      </c>
-      <c r="G22" t="inlineStr">
-        <is>
-          <t>85.9439078687093424</t>
-        </is>
-      </c>
-      <c r="H22" t="n">
-        <v>1743297089423</v>
+          <t>6524123028.5938966723779963</t>
+        </is>
       </c>
     </row>
     <row r="23">
@@ -1279,32 +1141,28 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>DOT</t>
-        </is>
-      </c>
-      <c r="C23" t="inlineStr"/>
+          <t>Polkadot</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>4.0807256767016805</t>
+          <t>1522267060.0000000000000000</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>84990974.2955041219007478</t>
+          <t>https://polkascan.io/polkadot</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>-4.6917572972211935</t>
-        </is>
-      </c>
-      <c r="G23" t="inlineStr">
-        <is>
-          <t>4.1159123674808479</t>
-        </is>
-      </c>
-      <c r="H23" t="n">
-        <v>1743297089423</v>
+          <t>6207093548.6842221570056020</t>
+        </is>
       </c>
     </row>
     <row r="24">
@@ -1315,28 +1173,28 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>WETH</t>
-        </is>
-      </c>
-      <c r="C24" t="inlineStr"/>
+          <t>Wrapped ETH</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>1820.3034927190071803</t>
+          <t>3375317.5926469000000000</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>458398419.5947099863037350</t>
+          <t>https://etherscan.io/token/0xc02aaa39b223fe8d0a0e5c4f27ead9083c756cc2</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>-4.5104850991144580</t>
-        </is>
-      </c>
-      <c r="G24" t="inlineStr"/>
-      <c r="H24" t="n">
-        <v>1743297089423</v>
+          <t>6155101635.7528262072104602</t>
+        </is>
       </c>
     </row>
     <row r="25">
@@ -1347,36 +1205,28 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>OM</t>
+          <t>Mantra</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>888888888.0000000000000000</t>
+          <t>24</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>6.2621374954955497</t>
+          <t>974778351.8199997000000000</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>31935081.2685878052710320</t>
+          <t>https://etherscan.io/token/0x3593d125a4f7849a1b059e64f4517a86dd60c95d</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>0.2400808515054984</t>
-        </is>
-      </c>
-      <c r="G25" t="inlineStr">
-        <is>
-          <t>6.1878268643898281</t>
-        </is>
-      </c>
-      <c r="H25" t="n">
-        <v>1743297089423</v>
+          <t>6075993196.3036925716925741</t>
+        </is>
       </c>
     </row>
     <row r="26">
@@ -1387,36 +1237,28 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>BCH</t>
+          <t>Bitcoin Cash</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>21000000.0000000000000000</t>
+          <t>25</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>303.4525906130892614</t>
+          <t>19849115.6250000000000000</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>50523838.6870920845421259</t>
+          <t>https://blockchair.com/bitcoin-cash/blocks</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>-1.5342009668764545</t>
-        </is>
-      </c>
-      <c r="G26" t="inlineStr">
-        <is>
-          <t>304.8505496213330562</t>
-        </is>
-      </c>
-      <c r="H26" t="n">
-        <v>1743297089423</v>
+          <t>6056506018.1945628304810350</t>
+        </is>
       </c>
     </row>
     <row r="27">
@@ -1427,132 +1269,124 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>BGB</t>
-        </is>
-      </c>
-      <c r="C27" t="inlineStr"/>
+          <t>Bitget Token</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>26</t>
+        </is>
+      </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>4.6482447865146377</t>
+          <t>1200000000.0000000000000000</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>128223484.9942608692832941</t>
+          <t>https://etherscan.io/token/0x54D2252757e1672EEaD234D27B1270728fF90581</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>-4.0729111636287373</t>
-        </is>
-      </c>
-      <c r="G27" t="inlineStr"/>
-      <c r="H27" t="n">
-        <v>1743297089423</v>
+          <t>5500491881.5415703600000000</t>
+        </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>pi</t>
+          <t>multi-collateral-dai</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>PI</t>
+          <t>Dai</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>100000000000.0000000000000000</t>
+          <t>27</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>0.7981116800254935</t>
+          <t>5365382702.6648720000000000</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>94983084.9193920878098903</t>
+          <t>https://etherscan.io/token/0x89d24a6b4ccb1b6faa2625fe562bdd9a23260359</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>-4.0535733621508638</t>
-        </is>
-      </c>
-      <c r="G28" t="inlineStr"/>
-      <c r="H28" t="n">
-        <v>1743297089423</v>
+          <t>5361791683.7172770712587038</t>
+        </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>multi-collateral-dai</t>
+          <t>ethena-usde</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>DAI</t>
-        </is>
-      </c>
-      <c r="C29" t="inlineStr"/>
+          <t>Ethena USDe</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>28</t>
+        </is>
+      </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>0.9998210050652018</t>
+          <t>5247255782.7102750000000000</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>76516309.8357458628932869</t>
+          <t>etherscan.io</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>0.0317284179221477</t>
-        </is>
-      </c>
-      <c r="G29" t="inlineStr">
-        <is>
-          <t>0.9993785585610450</t>
-        </is>
-      </c>
-      <c r="H29" t="n">
-        <v>1743297089423</v>
+          <t>5246902513.3316238460008273</t>
+        </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>ethena-usde</t>
+          <t>pi</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>USDE</t>
-        </is>
-      </c>
-      <c r="C30" t="inlineStr"/>
+          <t>Pi</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>29</t>
+        </is>
+      </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>0.9997036594883386</t>
+          <t>6773814332.2604940000000000</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>42153539.5057779115581172</t>
+          <t>https://blockexplorer.minepi.com/</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>0.0325274575496051</t>
-        </is>
-      </c>
-      <c r="G30" t="inlineStr"/>
-      <c r="H30" t="n">
-        <v>1743297089423</v>
+          <t>5167207446.9047400375356706</t>
+        </is>
       </c>
     </row>
     <row r="31">
@@ -1563,36 +1397,28 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>HYPE</t>
+          <t>Hyperliquid</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>1000000000.0000000000000000</t>
+          <t>30</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>12.8735008797437743</t>
+          <t>333928180.0000000000000000</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>20604134.1364157196968593</t>
+          <t>https://app.hyperliquid.xyz/explorer/token/0x0d01dc56dcaaca66ad901c959b4011ec</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>-4.6147180575070059</t>
-        </is>
-      </c>
-      <c r="G31" t="inlineStr">
-        <is>
-          <t>12.8537775548344583</t>
-        </is>
-      </c>
-      <c r="H31" t="n">
-        <v>1743297089423</v>
+          <t>4201769039.5293132697724700</t>
+        </is>
       </c>
     </row>
     <row r="32">
@@ -1603,32 +1429,28 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>XMR</t>
-        </is>
-      </c>
-      <c r="C32" t="inlineStr"/>
+          <t>Monero</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>31</t>
+        </is>
+      </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>216.5043471615185573</t>
+          <t>18446744.0737095500000000</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>29365008.4789742421566112</t>
+          <t>http://moneroblocks.info/</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>-0.2779796124097036</t>
-        </is>
-      </c>
-      <c r="G32" t="inlineStr">
-        <is>
-          <t>216.1808981338184985</t>
-        </is>
-      </c>
-      <c r="H32" t="n">
-        <v>1743297089423</v>
+          <t>4008181468.8650203385339444</t>
+        </is>
       </c>
     </row>
     <row r="33">
@@ -1639,32 +1461,28 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>UNI</t>
-        </is>
-      </c>
-      <c r="C33" t="inlineStr"/>
+          <t>Uniswap</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>32</t>
+        </is>
+      </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>5.9973945085841864</t>
+          <t>628494054.7100000000000000</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>61876197.0485251321800817</t>
+          <t>https://etherscan.io/token/0x1f9840a85d5af5bf1d1762f925bdaddc4201f984</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>-3.4168810101982324</t>
-        </is>
-      </c>
-      <c r="G33" t="inlineStr">
-        <is>
-          <t>6.0572853260288021</t>
-        </is>
-      </c>
-      <c r="H33" t="n">
-        <v>1743297089423</v>
+          <t>3749159627.7413234019014864</t>
+        </is>
       </c>
     </row>
     <row r="34">
@@ -1675,32 +1493,28 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>APT</t>
-        </is>
-      </c>
-      <c r="C34" t="inlineStr"/>
+          <t>Aptos</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>5.2233932029347008</t>
+          <t>604031596.5939680000000000</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>49438667.3789587457457948</t>
+          <t>https://explorer.aptoslabs.com/</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>-6.2991264733658025</t>
-        </is>
-      </c>
-      <c r="G34" t="inlineStr">
-        <is>
-          <t>5.3491377834569602</t>
-        </is>
-      </c>
-      <c r="H34" t="n">
-        <v>1743297089423</v>
+          <t>3195108080.1067342020275697</t>
+        </is>
       </c>
     </row>
     <row r="35">
@@ -1711,32 +1525,28 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>NEAR</t>
-        </is>
-      </c>
-      <c r="C35" t="inlineStr"/>
+          <t>Near Protocol</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>2.5847890599700152</t>
+          <t>1198396448.0000000000000000</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>74241312.1412922275313487</t>
+          <t>https://explorer.nearprotocol.com/</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>-5.5714181963339703</t>
-        </is>
-      </c>
-      <c r="G35" t="inlineStr">
-        <is>
-          <t>2.6312731741156523</t>
-        </is>
-      </c>
-      <c r="H35" t="n">
-        <v>1743297089423</v>
+          <t>3160198965.9692502467403296</t>
+        </is>
       </c>
     </row>
     <row r="36">
@@ -1747,36 +1557,28 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>PEPE</t>
+          <t>Pepe</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>420690000000000.0000000000000000</t>
+          <t>35</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>0.0000072019165067</t>
+          <t>420689899653543.5600000000000000</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>324447816.0335298952280498</t>
+          <t>https://etherscan.io/token/0x6982508145454ce325ddbe47a25d4ec3d2311933</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>-8.1783750551832437</t>
-        </is>
-      </c>
-      <c r="G36" t="inlineStr">
-        <is>
-          <t>0.0000074251425768</t>
-        </is>
-      </c>
-      <c r="H36" t="n">
-        <v>1743297089423</v>
+          <t>2967439521.6201030865441585</t>
+        </is>
       </c>
     </row>
     <row r="37">
@@ -1790,29 +1592,25 @@
           <t>OKB</t>
         </is>
       </c>
-      <c r="C37" t="inlineStr"/>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>36</t>
+        </is>
+      </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>48.1936695906651657</t>
+          <t>60000000.0000000000000000</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>2172852.5769088583279429</t>
+          <t>https://etherscan.io/token/0x75231f58b43240c9718dd58b4967c5114342a86c</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>-2.0309749332122079</t>
-        </is>
-      </c>
-      <c r="G37" t="inlineStr">
-        <is>
-          <t>48.2209627780203238</t>
-        </is>
-      </c>
-      <c r="H37" t="n">
-        <v>1743297089423</v>
+          <t>2912819056.6660053240000000</t>
+        </is>
       </c>
     </row>
     <row r="38">
@@ -1823,36 +1621,28 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>CRO</t>
+          <t>Cronos</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>30263013692.0000000000000000</t>
+          <t>37</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>0.1050054112391722</t>
+          <t>26571560696.0000000000000000</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>31308438.8177280376136383</t>
+          <t>https://etherscan.io/token/0xa0b73e1ff0b80914ab6fe0444e65848c4c34450b</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>4.4072716750636409</t>
-        </is>
-      </c>
-      <c r="G38" t="inlineStr">
-        <is>
-          <t>0.1014797713652044</t>
-        </is>
-      </c>
-      <c r="H38" t="n">
-        <v>1743297089423</v>
+          <t>2769337703.7960085895384152</t>
+        </is>
       </c>
     </row>
     <row r="39">
@@ -1863,220 +1653,184 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>MNT</t>
+          <t>Mantle</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>6219316795.0000000000000000</t>
+          <t>38</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>0.8024388541729500</t>
+          <t>3364694382.8368406000000000</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>89062690.9020856337598402</t>
+          <t>https://mantlescan.xyz/</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>-3.8786963710640158</t>
-        </is>
-      </c>
-      <c r="G39" t="inlineStr">
-        <is>
-          <t>0.8128771008483150</t>
-        </is>
-      </c>
-      <c r="H39" t="n">
-        <v>1743297089423</v>
+          <t>2699772651.6693683250662620</t>
+        </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>first-digital-usd</t>
+          <t>internet-computer</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>FDUSD</t>
-        </is>
-      </c>
-      <c r="C40" t="inlineStr"/>
+          <t>Internet Computer</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>39</t>
+        </is>
+      </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>0.9984440841840216</t>
+          <t>482076932.8747825000000000</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>1580817680.8818198947735466</t>
+          <t>https://www.dfinityexplorer.org/#/</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>-0.0794863613942713</t>
-        </is>
-      </c>
-      <c r="G40" t="inlineStr">
-        <is>
-          <t>0.9986678437559490</t>
-        </is>
-      </c>
-      <c r="H40" t="n">
-        <v>1743297089423</v>
+          <t>2591823755.8688453073314074</t>
+        </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>internet-computer</t>
+          <t>first-digital-usd</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>ICP</t>
-        </is>
-      </c>
-      <c r="C41" t="inlineStr"/>
+          <t>First Digital USD</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>5.3553581674207719</t>
-        </is>
-      </c>
-      <c r="E41" t="inlineStr">
-        <is>
-          <t>30285562.2896538722392984</t>
-        </is>
-      </c>
+          <t>2588088088.1678160000000000</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr"/>
       <c r="F41" t="inlineStr">
         <is>
-          <t>-4.7779118293248823</t>
-        </is>
-      </c>
-      <c r="G41" t="inlineStr">
-        <is>
-          <t>5.4028287789997180</t>
-        </is>
-      </c>
-      <c r="H41" t="n">
-        <v>1743297089423</v>
+          <t>2583960590.5102734226441160</t>
+        </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>aave</t>
+          <t>ondo-finance</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>AAVE</t>
-        </is>
-      </c>
-      <c r="C42" t="inlineStr"/>
+          <t>Ondo</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>41</t>
+        </is>
+      </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>168.9382108748584928</t>
+          <t>3159107529.0000000000000000</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>132152343.3703900258897286</t>
+          <t>https://etherscan.io/token/0xfAbA6f8e4a5E8Ab82F62fe7C39859FA577269BE3</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>-3.9756145765020624</t>
-        </is>
-      </c>
-      <c r="G42" t="inlineStr">
-        <is>
-          <t>173.3192129933888652</t>
-        </is>
-      </c>
-      <c r="H42" t="n">
-        <v>1743297089423</v>
+          <t>2527930536.2107285663304451</t>
+        </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>ondo-finance</t>
+          <t>ethereum-classic</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>ONDO</t>
-        </is>
-      </c>
-      <c r="C43" t="inlineStr"/>
+          <t>Ethereum Classic</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>42</t>
+        </is>
+      </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>0.8014353330087523</t>
+          <t>151321540.2914661500000000</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>121732495.5327970613200271</t>
+          <t>http://gastracker.io/</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>-5.4380962513170565</t>
-        </is>
-      </c>
-      <c r="G43" t="inlineStr">
-        <is>
-          <t>0.8029862515558480</t>
-        </is>
-      </c>
-      <c r="H43" t="n">
-        <v>1743297089423</v>
+          <t>2518538271.2183289311813451</t>
+        </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>ethereum-classic</t>
+          <t>aave</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>ETC</t>
+          <t>Aave</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>210700000.0000000000000000</t>
+          <t>43</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>16.6326577545266533</t>
+          <t>15093850.1019675900000000</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>24964659.9946078151663381</t>
+          <t>https://etherscan.io/token/0x80fB784B7eD66730e8b1DBd9820aFD29931aab03</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>-3.0426756135880773</t>
-        </is>
-      </c>
-      <c r="G44" t="inlineStr">
-        <is>
-          <t>16.7947860510500625</t>
-        </is>
-      </c>
-      <c r="H44" t="n">
-        <v>1743297089423</v>
+          <t>2480477522.3127977983604312</t>
+        </is>
       </c>
     </row>
     <row r="45">
@@ -2087,32 +1841,28 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>POL</t>
-        </is>
-      </c>
-      <c r="C45" t="inlineStr"/>
+          <t>POL (prev. MATIC)</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>44</t>
+        </is>
+      </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>0.2029858218806858</t>
+          <t>10392099602.6534290000000000</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>41496019.7833358615592533</t>
+          <t>https://etherscan.io/token/0x455e53CBB86018Ac2B8092FdCd39d8444aFFC3F6</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>-4.5356682257785474</t>
-        </is>
-      </c>
-      <c r="G45" t="inlineStr">
-        <is>
-          <t>0.2036532869851435</t>
-        </is>
-      </c>
-      <c r="H45" t="n">
-        <v>1743297089423</v>
+          <t>2125677493.8637828266678834</t>
+        </is>
       </c>
     </row>
     <row r="46">
@@ -2123,36 +1873,28 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>TRUMP</t>
+          <t>Trump Official</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>999999993.4500000000000000</t>
+          <t>45</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>10.0896906223828891</t>
+          <t>199999429.1037350000000000</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>89731895.7149255101135995</t>
+          <t>https://solscan.io/token/6p6xgHyF7AeE6TZkSmFsko444wqoP15icUSqi2jfGiPN</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>-3.3515954640505875</t>
-        </is>
-      </c>
-      <c r="G46" t="inlineStr">
-        <is>
-          <t>10.1080301364509111</t>
-        </is>
-      </c>
-      <c r="H46" t="n">
-        <v>1743297089423</v>
+          <t>2035525360.1065975143096493</t>
+        </is>
       </c>
     </row>
     <row r="47">
@@ -2163,36 +1905,28 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>VET</t>
+          <t>VeChain</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>86712634466.0000000000000000</t>
+          <t>46</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>0.0229385489581322</t>
+          <t>85985041177.0000000000000000</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>23020385.9044152673676558</t>
+          <t>https://explore.veforge.com/</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>-4.9357830294772238</t>
-        </is>
-      </c>
-      <c r="G47" t="inlineStr">
-        <is>
-          <t>0.0231168750144423</t>
-        </is>
-      </c>
-      <c r="H47" t="n">
-        <v>1743297089423</v>
+          <t>1964184580.0370603932843252</t>
+        </is>
       </c>
     </row>
     <row r="48">
@@ -2203,36 +1937,28 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>TAO</t>
+          <t>Bittensor</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>21000000.0000000000000000</t>
+          <t>47</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>230.7049429611233535</t>
+          <t>8534124.0000000000000000</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>69873874.3706417972833377</t>
+          <t>https://bittensor.com/scan</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>-5.4724882889183235</t>
-        </is>
-      </c>
-      <c r="G48" t="inlineStr">
-        <is>
-          <t>229.9681160090976073</t>
-        </is>
-      </c>
-      <c r="H48" t="n">
-        <v>1743297089423</v>
+          <t>1945000796.7737817470563632</t>
+        </is>
       </c>
     </row>
     <row r="49">
@@ -2243,104 +1969,84 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>ENA</t>
-        </is>
-      </c>
-      <c r="C49" t="inlineStr"/>
+          <t>Ethena</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>48</t>
+        </is>
+      </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>0.3654066609858666</t>
-        </is>
-      </c>
-      <c r="E49" t="inlineStr">
-        <is>
-          <t>86603642.7883759417364614</t>
-        </is>
-      </c>
+          <t>5285937500.0000000000000000</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr"/>
       <c r="F49" t="inlineStr">
         <is>
-          <t>-5.8402562178233348</t>
-        </is>
-      </c>
-      <c r="G49" t="inlineStr">
-        <is>
-          <t>0.3755070902972269</t>
-        </is>
-      </c>
-      <c r="H49" t="n">
-        <v>1743297089423</v>
+          <t>1944153476.2849278632812500</t>
+        </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>gatetoken</t>
+          <t>celestia</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>GT</t>
-        </is>
-      </c>
-      <c r="C50" t="inlineStr"/>
+          <t>Celestia</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>49</t>
+        </is>
+      </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>22.3013633371439866</t>
+          <t>579488884.7562950000000000</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>8402986.1709214515875124</t>
+          <t>https://www.mintscan.io/celestia</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>-2.6536743547826964</t>
-        </is>
-      </c>
-      <c r="G50" t="inlineStr">
-        <is>
-          <t>22.4608051815367804</t>
-        </is>
-      </c>
-      <c r="H50" t="n">
-        <v>1743297089423</v>
+          <t>1914708485.3858905839257909</t>
+        </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>celestia</t>
+          <t>gatetoken</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>TIA</t>
-        </is>
-      </c>
-      <c r="C51" t="inlineStr"/>
+          <t>GateToken</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>3.2122818514582171</t>
-        </is>
-      </c>
-      <c r="E51" t="inlineStr">
-        <is>
-          <t>32496108.2163664427118694</t>
-        </is>
-      </c>
+          <t>85826628.2767399300000000</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr"/>
       <c r="F51" t="inlineStr">
         <is>
-          <t>-6.5084650787542356</t>
-        </is>
-      </c>
-      <c r="G51" t="inlineStr">
-        <is>
-          <t>3.2737717671686061</t>
-        </is>
-      </c>
-      <c r="H51" t="n">
-        <v>1743297089423</v>
+          <t>1912748173.4635396020805350</t>
+        </is>
       </c>
     </row>
     <row r="52">
@@ -2351,36 +2057,24 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>RENDER</t>
+          <t>Render</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>644168762.0000000000000000</t>
+          <t>51</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>3.4803880512295666</t>
-        </is>
-      </c>
-      <c r="E52" t="inlineStr">
-        <is>
-          <t>44847856.3374500889358521</t>
-        </is>
-      </c>
+          <t>517716590.0562826400000000</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr"/>
       <c r="F52" t="inlineStr">
         <is>
-          <t>-7.6787500923704659</t>
-        </is>
-      </c>
-      <c r="G52" t="inlineStr">
-        <is>
-          <t>3.5969444001129779</t>
-        </is>
-      </c>
-      <c r="H52" t="n">
-        <v>1743297089423</v>
+          <t>1827864130.9687097878394158</t>
+        </is>
       </c>
     </row>
     <row r="53">
@@ -2391,108 +2085,92 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>FIL</t>
-        </is>
-      </c>
-      <c r="C53" t="inlineStr"/>
+          <t>Filecoin</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>52</t>
+        </is>
+      </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>2.7359736829640121</t>
+          <t>646143249.0000000000000000</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>60914112.0147459322625667</t>
+          <t>https://protocol.ai</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>-3.5856788413242423</t>
-        </is>
-      </c>
-      <c r="G53" t="inlineStr">
-        <is>
-          <t>2.7746113191325839</t>
-        </is>
-      </c>
-      <c r="H53" t="n">
-        <v>1743297089423</v>
+          <t>1783390606.6825216231768563</t>
+        </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>kaspa</t>
+          <t>cosmos</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>KAS</t>
+          <t>Cosmos</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>28704026601.0000000000000000</t>
+          <t>53</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>0.0642964576819243</t>
+          <t>390934204.0000000000000000</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>45257356.0444050468173256</t>
+          <t>https://www.mintscan.io/</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>-8.0148524623789621</t>
-        </is>
-      </c>
-      <c r="G54" t="inlineStr">
-        <is>
-          <t>0.0649115868391312</t>
-        </is>
-      </c>
-      <c r="H54" t="n">
-        <v>1743297089423</v>
+          <t>1683788927.3133535968270408</t>
+        </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>cosmos</t>
+          <t>kaspa</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>ATOM</t>
-        </is>
-      </c>
-      <c r="C55" t="inlineStr"/>
+          <t>Kaspa</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>54</t>
+        </is>
+      </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>4.2326977842744358</t>
+          <t>25942485466.1023500000000000</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>54558054.1345065810949299</t>
+          <t>https://explorer.kaspa.org/</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>-6.7166949566535948</t>
-        </is>
-      </c>
-      <c r="G55" t="inlineStr">
-        <is>
-          <t>4.3758918958773279</t>
-        </is>
-      </c>
-      <c r="H55" t="n">
-        <v>1743297089423</v>
+          <t>1673393918.4620271640847856</t>
+        </is>
       </c>
     </row>
     <row r="56">
@@ -2503,36 +2181,28 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>ALGO</t>
+          <t>Algorand</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>10000000000.0000000000000000</t>
+          <t>55</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>0.1843582935250483</t>
+          <t>8530769996.2217810000000000</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>44950777.3495961162902724</t>
+          <t>https://algoexplorer.io/</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>-7.5229382701776611</t>
-        </is>
-      </c>
-      <c r="G56" t="inlineStr">
-        <is>
-          <t>0.1877839629998194</t>
-        </is>
-      </c>
-      <c r="H56" t="n">
-        <v>1743297089423</v>
+          <t>1558994329.6481137488808930</t>
+        </is>
       </c>
     </row>
     <row r="57">
@@ -2543,32 +2213,28 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>ARB</t>
-        </is>
-      </c>
-      <c r="C57" t="inlineStr"/>
+          <t>Arbitrum</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>56</t>
+        </is>
+      </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>0.3337681418140623</t>
+          <t>4617913336.0000000000000000</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>73495471.4248479304045222</t>
+          <t>https://arbiscan.io/token/0x912CE59144191C1204E64559FE8253a0e49E6548</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>-4.0890266565674433</t>
-        </is>
-      </c>
-      <c r="G57" t="inlineStr">
-        <is>
-          <t>0.3342787286153585</t>
-        </is>
-      </c>
-      <c r="H57" t="n">
-        <v>1743297089423</v>
+          <t>1540384598.0423855366826552</t>
+        </is>
       </c>
     </row>
     <row r="58">
@@ -2579,32 +2245,28 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>DEXE</t>
-        </is>
-      </c>
-      <c r="C58" t="inlineStr"/>
+          <t>DeXe</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>57</t>
+        </is>
+      </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>17.5238894662878224</t>
+          <t>83733353.1605750500000000</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>12408498.7972102824056527</t>
+          <t>https://etherscan.io/token/0xde4EE8057785A7e8e800Db58F9784845A5C2Cbd6</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>-4.9109615521263812</t>
-        </is>
-      </c>
-      <c r="G58" t="inlineStr">
-        <is>
-          <t>18.0010427894502002</t>
-        </is>
-      </c>
-      <c r="H58" t="n">
-        <v>1743297089423</v>
+          <t>1474887064.7361723171876779</t>
+        </is>
       </c>
     </row>
     <row r="59">
@@ -2615,36 +2277,28 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>Sonic (prev. FTM)</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>3175000000.0000000000000000</t>
+          <t>58</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>0.4898708196738049</t>
+          <t>2880000000.0000000000000000</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>94586902.3715917514983483</t>
+          <t>sonicscan.org</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>-9.4752875696239887</t>
-        </is>
-      </c>
-      <c r="G59" t="inlineStr">
-        <is>
-          <t>0.5009069681711168</t>
-        </is>
-      </c>
-      <c r="H59" t="n">
-        <v>1743297089423</v>
+          <t>1409566141.7837159040000000</t>
+        </is>
       </c>
     </row>
     <row r="60">
@@ -2655,32 +2309,28 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>IP</t>
-        </is>
-      </c>
-      <c r="C60" t="inlineStr"/>
+          <t>Story</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>59</t>
+        </is>
+      </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>5.2954364538186104</t>
+          <t>258745395.0000000000000000</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>34551655.5949595036837470</t>
+          <t>www.storyscan.xyz</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>-3.2903236864656875</t>
-        </is>
-      </c>
-      <c r="G60" t="inlineStr">
-        <is>
-          <t>5.2936643932589780</t>
-        </is>
-      </c>
-      <c r="H60" t="n">
-        <v>1743297089423</v>
+          <t>1367199664.4673207316714155</t>
+        </is>
       </c>
     </row>
     <row r="61">
@@ -2691,36 +2341,28 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>KCS</t>
+          <t>KuCoin Token</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>200000000.0000000000000000</t>
+          <t>60</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>11.0715003017666565</t>
+          <t>122543917.8513356400000000</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>641288.7701626320564898</t>
+          <t>https://etherscan.io/token/0xf34960d9d60be18cc1d5afc1a6f012a723a28811</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>-0.8619525572045405</t>
-        </is>
-      </c>
-      <c r="G61" t="inlineStr">
-        <is>
-          <t>11.0742446459175479</t>
-        </is>
-      </c>
-      <c r="H61" t="n">
-        <v>1743297089423</v>
+          <t>1358654517.0417458659000833</t>
+        </is>
       </c>
     </row>
     <row r="62">
@@ -2731,36 +2373,28 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>JUP</t>
+          <t>Jupiter</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>3000000000.0000000000000000</t>
+          <t>61</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>0.4771304541329743</t>
+          <t>2690911111.1000000000000000</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>26160665.6484985250518837</t>
+          <t>https://solscan.io/token/JUPyiwrYJFskUPiHa7hkeR8VUtAeFoSYbKedZNsDvCN</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>-4.4314894483614882</t>
-        </is>
-      </c>
-      <c r="G62" t="inlineStr">
-        <is>
-          <t>0.4716476797971150</t>
-        </is>
-      </c>
-      <c r="H62" t="n">
-        <v>1743297089423</v>
+          <t>1300386060.1236361107200213</t>
+        </is>
       </c>
     </row>
     <row r="63">
@@ -2771,32 +2405,28 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>OP</t>
-        </is>
-      </c>
-      <c r="C63" t="inlineStr"/>
+          <t>Optimism</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>62</t>
+        </is>
+      </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>0.7692184030064616</t>
+          <t>1620705846.0000000000000000</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>57286716.0317907658068210</t>
+          <t>https://optimistic.etherscan.io/token/0x4200000000000000000000000000000000000042</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>-7.9611169433862505</t>
-        </is>
-      </c>
-      <c r="G63" t="inlineStr">
-        <is>
-          <t>0.7850005165233475</t>
-        </is>
-      </c>
-      <c r="H63" t="n">
-        <v>1743297089423</v>
+          <t>1220425171.5658997786197620</t>
+        </is>
       </c>
     </row>
     <row r="64">
@@ -2807,116 +2437,88 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>FET</t>
+          <t>Artificial Superintelligence Alliance</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>2630547141.0000000000000000</t>
+          <t>63</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>0.4727122103632980</t>
+          <t>2520000000.0000000000000000</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>55509764.4224532928073038</t>
+          <t>https://etherscan.io/token/0x1d287cc25dad7ccaf76a26bc660c5f7c8e2a05bd</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>-7.2162166198989094</t>
-        </is>
-      </c>
-      <c r="G64" t="inlineStr">
-        <is>
-          <t>0.4819306928483113</t>
-        </is>
-      </c>
-      <c r="H64" t="n">
-        <v>1743297089423</v>
+          <t>1193721337.8999644400000000</t>
+        </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>movement</t>
+          <t>maker</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>MOVE</t>
+          <t>Maker</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>10000000000.0000000000000000</t>
+          <t>64</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>0.4489746831476630</t>
+          <t>848074.4183746700000000</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>77037706.2000971402886798</t>
+          <t>https://etherscan.io/token/Maker</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>-7.2204360308916088</t>
-        </is>
-      </c>
-      <c r="G65" t="inlineStr">
-        <is>
-          <t>0.4732417511268104</t>
-        </is>
-      </c>
-      <c r="H65" t="n">
-        <v>1743297089423</v>
+          <t>1083807750.8223584676369527</t>
+        </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>maker</t>
+          <t>movement</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>MKR</t>
+          <t>Movement</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>1000000.0000000000000000</t>
+          <t>65</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>1293.6938154838731654</t>
-        </is>
-      </c>
-      <c r="E66" t="inlineStr">
-        <is>
-          <t>38646153.4805548113045795</t>
-        </is>
-      </c>
+          <t>2450000000.0000000000000000</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr"/>
       <c r="F66" t="inlineStr">
         <is>
-          <t>-11.1144035836948587</t>
-        </is>
-      </c>
-      <c r="G66" t="inlineStr">
-        <is>
-          <t>1365.6651917439821381</t>
-        </is>
-      </c>
-      <c r="H66" t="n">
-        <v>1743297089423</v>
+          <t>1069253786.7841127550000000</t>
+        </is>
       </c>
     </row>
     <row r="67">
@@ -2927,32 +2529,28 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>XDC</t>
-        </is>
-      </c>
-      <c r="C67" t="inlineStr"/>
+          <t>XDC Network</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>66</t>
+        </is>
+      </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>0.0681947718721061</t>
+          <t>15692654414.5500000000000000</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>8141779.5059726454296845</t>
+          <t>https://etherscan.io/token/0x41ab1b6fcbb2fa9dced81acbdec13ea6315f2bf2</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>-2.0651457844343615</t>
-        </is>
-      </c>
-      <c r="G67" t="inlineStr">
-        <is>
-          <t>0.0687431017553435</t>
-        </is>
-      </c>
-      <c r="H67" t="n">
-        <v>1743297089423</v>
+          <t>1043799394.3845735966682584</t>
+        </is>
       </c>
     </row>
     <row r="68">
@@ -2963,68 +2561,52 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>IMX</t>
+          <t>Immutable X</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>2000000000.0000000000000000</t>
+          <t>67</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>0.5521243630488310</t>
-        </is>
-      </c>
-      <c r="E68" t="inlineStr">
-        <is>
-          <t>10365674.7558606008508500</t>
-        </is>
-      </c>
+          <t>1768317543.3900000000000000</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr"/>
       <c r="F68" t="inlineStr">
         <is>
-          <t>-5.1890695643545925</t>
-        </is>
-      </c>
-      <c r="G68" t="inlineStr">
-        <is>
-          <t>0.5607393093750623</t>
-        </is>
-      </c>
-      <c r="H68" t="n">
-        <v>1743297089423</v>
+          <t>971463395.1974062978635984</t>
+        </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>wbnb</t>
+          <t>worldcoin-org</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>WBNB</t>
-        </is>
-      </c>
-      <c r="C69" t="inlineStr"/>
+          <t>Worldcoin</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>68</t>
+        </is>
+      </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>607.6979661988179893</t>
-        </is>
-      </c>
-      <c r="E69" t="inlineStr">
-        <is>
-          <t>11373689.1011417572887887</t>
-        </is>
-      </c>
+          <t>1214526120.0344640000000000</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr"/>
       <c r="F69" t="inlineStr">
         <is>
-          <t>-2.8200482113556925</t>
-        </is>
-      </c>
-      <c r="G69" t="inlineStr"/>
-      <c r="H69" t="n">
-        <v>1743297089423</v>
+          <t>954345596.6503831522625351</t>
+        </is>
       </c>
     </row>
     <row r="70">
@@ -3035,176 +2617,152 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>STX</t>
+          <t>Stacks</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>1818000000.0000000000000000</t>
+          <t>69</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>0.6265865247348464</t>
+          <t>1519229293.8326400000000000</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>19027774.4947739669366454</t>
+          <t>https://explorer.stacks.co/</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>-4.9451531823475113</t>
-        </is>
-      </c>
-      <c r="G70" t="inlineStr">
-        <is>
-          <t>0.6265622914257434</t>
-        </is>
-      </c>
-      <c r="H70" t="n">
-        <v>1743297089423</v>
+          <t>951776872.6014462734626158</t>
+        </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>worldcoin-org</t>
+          <t>wbnb</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>WLD</t>
-        </is>
-      </c>
-      <c r="C71" t="inlineStr"/>
+          <t>Wrapped BNB</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>70</t>
+        </is>
+      </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>0.7788064684079382</t>
+          <t>1582884.5398480400000000</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>72832124.2538959299504867</t>
+          <t>https://bscscan.com/token/0xbb4CdB9CBd36B01bD1cBaEBF2De08d9173bc095c</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>-7.7303289068561315</t>
-        </is>
-      </c>
-      <c r="G71" t="inlineStr">
-        <is>
-          <t>0.7984820503301564</t>
-        </is>
-      </c>
-      <c r="H71" t="n">
-        <v>1743297089423</v>
+          <t>950892872.4217079056947832</t>
+        </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>usual-usd</t>
+          <t>eos</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>USD0</t>
-        </is>
-      </c>
-      <c r="C72" t="inlineStr"/>
+          <t>EOS</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>71</t>
+        </is>
+      </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>0.9976964985523024</t>
+          <t>1555708008.4996000000000000</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>22220725.7004632324523059</t>
+          <t>https://bloks.io/</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>-0.0022846510775210</t>
-        </is>
-      </c>
-      <c r="G72" t="inlineStr"/>
-      <c r="H72" t="n">
-        <v>1743297089423</v>
+          <t>939381108.3260441224465711</t>
+        </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>bonk1</t>
+          <t>usual-usd</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>BONK</t>
-        </is>
-      </c>
-      <c r="C73" t="inlineStr"/>
+          <t>Usual USD</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>72</t>
+        </is>
+      </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>0.0000113640330586</t>
+          <t>899129894.3078742000000000</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>53794434.8022967652647113</t>
+          <t>https://etherscan.io/address/0x73A15FeD60Bf67631dC6cd7Bc5B6e8da8190aCF5</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>-7.8580759643105981</t>
-        </is>
-      </c>
-      <c r="G73" t="inlineStr">
-        <is>
-          <t>0.0000115118747924</t>
-        </is>
-      </c>
-      <c r="H73" t="n">
-        <v>1743297089423</v>
+          <t>897098518.1013240661011999</t>
+        </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>sei</t>
+          <t>bonk1</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>SEI</t>
-        </is>
-      </c>
-      <c r="C74" t="inlineStr"/>
+          <t>Bonk</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>73</t>
+        </is>
+      </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>0.1807302139807161</t>
-        </is>
-      </c>
-      <c r="E74" t="inlineStr">
-        <is>
-          <t>48755190.3846543971820610</t>
-        </is>
-      </c>
+          <t>77894175221082.5500000000000000</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr"/>
       <c r="F74" t="inlineStr">
         <is>
-          <t>-6.0159833187340152</t>
-        </is>
-      </c>
-      <c r="G74" t="inlineStr">
-        <is>
-          <t>0.1817410755645439</t>
-        </is>
-      </c>
-      <c r="H74" t="n">
-        <v>1743297089423</v>
+          <t>885864781.8351067450829436</t>
+        </is>
       </c>
     </row>
     <row r="75">
@@ -3215,228 +2773,180 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>GRT</t>
-        </is>
-      </c>
-      <c r="C75" t="inlineStr"/>
+          <t>The Graph</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>74</t>
+        </is>
+      </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>0.0893984898375097</t>
+          <t>9775189789.3182130000000000</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>10822210.6118117108048251</t>
+          <t>https://etherscan.io/token/0xc944e90c64b2c07662a292be6244bdf05cda44a7</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>-6.0181161393629331</t>
-        </is>
-      </c>
-      <c r="G75" t="inlineStr">
-        <is>
-          <t>0.0911073638691793</t>
-        </is>
-      </c>
-      <c r="H75" t="n">
-        <v>1743297089423</v>
+          <t>876926157.9498841890478749</t>
+        </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>injective-protocol</t>
+          <t>sei</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>INJ</t>
+          <t>Sei</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>100000000.0000000000000000</t>
+          <t>75</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>8.7738356023131703</t>
-        </is>
-      </c>
-      <c r="E76" t="inlineStr">
-        <is>
-          <t>46150998.9003946191166332</t>
-        </is>
-      </c>
+          <t>4882361111.0000000000000000</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr"/>
       <c r="F76" t="inlineStr">
         <is>
-          <t>-4.9565324226529550</t>
-        </is>
-      </c>
-      <c r="G76" t="inlineStr">
-        <is>
-          <t>8.8736290555783592</t>
-        </is>
-      </c>
-      <c r="H76" t="n">
-        <v>1743297089423</v>
+          <t>872215392.1541441497312826</t>
+        </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>eos</t>
+          <t>injective-protocol</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>EOS</t>
+          <t>Injective</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>2100000000.0000000000000000</t>
+          <t>76</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>0.5474245526509444</t>
+          <t>98970935.4100000000000000</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>59410841.5595608581575820</t>
+          <t>https://etherscan.io/token/0xe28b3b32b6c345a34ff64674606124dd5aceca30</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>-3.7220613813275818</t>
-        </is>
-      </c>
-      <c r="G77" t="inlineStr">
-        <is>
-          <t>0.5606892622302187</t>
-        </is>
-      </c>
-      <c r="H77" t="n">
-        <v>1743297089423</v>
+          <t>870536980.8628373050907274</t>
+        </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>quant</t>
+          <t>binaryx-new</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>QNT</t>
+          <t>Four</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>14881364.0000000000000000</t>
+          <t>77</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>69.6411676697710958</t>
-        </is>
-      </c>
-      <c r="E78" t="inlineStr">
-        <is>
-          <t>10711992.1584636375171202</t>
-        </is>
-      </c>
+          <t>381867255.1445740000000000</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr"/>
       <c r="F78" t="inlineStr">
         <is>
-          <t>-2.7173357483851560</t>
-        </is>
-      </c>
-      <c r="G78" t="inlineStr">
-        <is>
-          <t>69.2811401687994097</t>
-        </is>
-      </c>
-      <c r="H78" t="n">
-        <v>1743297089423</v>
+          <t>864185142.9753558143632849</t>
+        </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>theta</t>
+          <t>quant</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>THETA</t>
+          <t>Quant</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>1000000000.0000000000000000</t>
+          <t>78</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>0.8360399723196338</t>
+          <t>12072738.0000000000000000</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>9499187.3052904765952585</t>
+          <t>https://etherscan.io/token/0x4a220e6096b25eadb88358cb44068a3248254675</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>-6.1939983740360331</t>
-        </is>
-      </c>
-      <c r="G79" t="inlineStr">
-        <is>
-          <t>0.8496616412330231</t>
-        </is>
-      </c>
-      <c r="H79" t="n">
-        <v>1743297089423</v>
+          <t>843429263.2225833415663452</t>
+        </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>binaryx-new</t>
+          <t>theta</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>FORM</t>
+          <t>Theta Network</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>580000000.0000000000000000</t>
+          <t>79</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>2.1740494005629778</t>
+          <t>1000000000.0000000000000000</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>4020821.1437301738903098</t>
+          <t>https://explorer.thetatoken.org/</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>-4.2437009454162382</t>
-        </is>
-      </c>
-      <c r="G80" t="inlineStr"/>
-      <c r="H80" t="n">
-        <v>1743297089423</v>
+          <t>828708154.0332393000000000</t>
+        </is>
       </c>
     </row>
     <row r="81">
@@ -3447,32 +2957,28 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>FLR</t>
-        </is>
-      </c>
-      <c r="C81" t="inlineStr"/>
+          <t>Flare</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>0.0132326225574872</t>
+          <t>60983663777.0100000000000000</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>12040100.9838446369146222</t>
+          <t>https://flare-explorer.flare.network/</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>-3.6887098513259874</t>
-        </is>
-      </c>
-      <c r="G81" t="inlineStr">
-        <is>
-          <t>0.0133463487595621</t>
-        </is>
-      </c>
-      <c r="H81" t="n">
-        <v>1743297089423</v>
+          <t>811028179.4564724563828983</t>
+        </is>
       </c>
     </row>
     <row r="82">
@@ -3483,32 +2989,28 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>PYUSD</t>
-        </is>
-      </c>
-      <c r="C82" t="inlineStr"/>
+          <t>PayPal USD</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>81</t>
+        </is>
+      </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>0.9983127064537924</t>
+          <t>802871349.4263150000000000</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>8947105.4518134354357686</t>
+          <t>https://etherscan.io/token/0x6c3ea9036406852006290770bedfcaba0e23a0e8</t>
         </is>
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>-0.1815774802922565</t>
-        </is>
-      </c>
-      <c r="G82" t="inlineStr">
-        <is>
-          <t>0.9984617540967416</t>
-        </is>
-      </c>
-      <c r="H82" t="n">
-        <v>1743297089423</v>
+          <t>801668858.5420229872356842</t>
+        </is>
       </c>
     </row>
     <row r="83">
@@ -3519,32 +3021,24 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>BERA</t>
-        </is>
-      </c>
-      <c r="C83" t="inlineStr"/>
+          <t>Berachain</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>82</t>
+        </is>
+      </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>7.3979148708834479</t>
-        </is>
-      </c>
-      <c r="E83" t="inlineStr">
-        <is>
-          <t>147650655.9995572899750983</t>
-        </is>
-      </c>
+          <t>107480000.0000000000000000</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr"/>
       <c r="F83" t="inlineStr">
         <is>
-          <t>-16.4256168129871732</t>
-        </is>
-      </c>
-      <c r="G83" t="inlineStr">
-        <is>
-          <t>8.0151963427271458</t>
-        </is>
-      </c>
-      <c r="H83" t="n">
-        <v>1743297089423</v>
+          <t>796326003.0156102897520000</t>
+        </is>
       </c>
     </row>
     <row r="84">
@@ -3555,32 +3049,28 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>LDO</t>
-        </is>
-      </c>
-      <c r="C84" t="inlineStr"/>
+          <t>Lido DAO</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>83</t>
+        </is>
+      </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>0.8781661326532031</t>
+          <t>897877243.8587132000000000</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>39861790.5905127886669281</t>
+          <t>https://etherscan.io/token/0x5a98fcbea516cf06857215779fd812ca3bef1b32</t>
         </is>
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>-6.4430708967681380</t>
-        </is>
-      </c>
-      <c r="G84" t="inlineStr">
-        <is>
-          <t>0.9024296962588342</t>
-        </is>
-      </c>
-      <c r="H84" t="n">
-        <v>1743297089423</v>
+          <t>780317062.5935810025694505</t>
+        </is>
       </c>
     </row>
     <row r="85">
@@ -3591,32 +3081,28 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>XAUT</t>
-        </is>
-      </c>
-      <c r="C85" t="inlineStr"/>
+          <t>Tether Gold</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>84</t>
+        </is>
+      </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>3113.8118256360491498</t>
+          <t>246524.0000000000000000</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>6521254.6511759625828904</t>
+          <t>https://etherscan.io/token/0x4922a015c4407f87432b179bb209e125432e4a2a</t>
         </is>
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>0.2405160745701050</t>
-        </is>
-      </c>
-      <c r="G85" t="inlineStr">
-        <is>
-          <t>3111.9726842137706695</t>
-        </is>
-      </c>
-      <c r="H85" t="n">
-        <v>1743297089423</v>
+          <t>765659590.4938563644343640</t>
+        </is>
       </c>
     </row>
     <row r="86">
@@ -3627,32 +3113,28 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>NEXO</t>
-        </is>
-      </c>
-      <c r="C86" t="inlineStr"/>
+          <t>Nexo</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>85</t>
+        </is>
+      </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>1.0783566610107233</t>
+          <t>646145839.5746847000000000</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>3354281.4765150424480164</t>
+          <t>https://etherscan.io/token/0xb62132e35a6c13ee1ee0f84dc5d40bad8d815206</t>
         </is>
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>-3.6690439802786020</t>
-        </is>
-      </c>
-      <c r="G86" t="inlineStr">
-        <is>
-          <t>1.0872846051811889</t>
-        </is>
-      </c>
-      <c r="H86" t="n">
-        <v>1743297089423</v>
+          <t>704079373.1665961097102343</t>
+        </is>
       </c>
     </row>
     <row r="87">
@@ -3663,32 +3145,28 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>JTO</t>
-        </is>
-      </c>
-      <c r="C87" t="inlineStr"/>
+          <t>Jito</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>86</t>
+        </is>
+      </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>2.2062600120166955</t>
+          <t>310420802.2000000000000000</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>13501738.8825533788555203</t>
+          <t>https://solscan.io/token/jtojtomepa8beP8AuQc6eXt5FriJwfFMwQx2v2f9mCL</t>
         </is>
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>-1.0572592606431501</t>
-        </is>
-      </c>
-      <c r="G87" t="inlineStr">
-        <is>
-          <t>2.1638107184053501</t>
-        </is>
-      </c>
-      <c r="H87" t="n">
-        <v>1743297089423</v>
+          <t>685468164.5941109403155227</t>
+        </is>
       </c>
     </row>
     <row r="88">
@@ -3699,36 +3177,28 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>GALA</t>
+          <t>Gala</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>50000000000.0000000000000000</t>
+          <t>87</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>0.0154519859083297</t>
+          <t>43759808799.6019300000000000</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>38670584.4551439913864919</t>
+          <t>https://ethplorer.io/es/address/0x15d4c048f83bd7e37d49ea4c83a07267ec4203da#chart=candlestick</t>
         </is>
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>-7.2448445296643593</t>
-        </is>
-      </c>
-      <c r="G88" t="inlineStr">
-        <is>
-          <t>0.0155755438700855</t>
-        </is>
-      </c>
-      <c r="H88" t="n">
-        <v>1743297089423</v>
+          <t>680364927.7310300235442452</t>
+        </is>
       </c>
     </row>
     <row r="89">
@@ -3739,32 +3209,28 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>XTZ</t>
-        </is>
-      </c>
-      <c r="C89" t="inlineStr"/>
+          <t>Tezos</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>88</t>
+        </is>
+      </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>0.6498973145992834</t>
+          <t>1036876078.8643710000000000</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>9784674.5781892348970444</t>
+          <t>https://tzkt.io/</t>
         </is>
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>-4.0837261451111769</t>
-        </is>
-      </c>
-      <c r="G89" t="inlineStr">
-        <is>
-          <t>0.6629573109917954</t>
-        </is>
-      </c>
-      <c r="H89" t="n">
-        <v>1743297089423</v>
+          <t>678818981.6070353497686342</t>
+        </is>
       </c>
     </row>
     <row r="90">
@@ -3775,32 +3241,28 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>SAND</t>
-        </is>
-      </c>
-      <c r="C90" t="inlineStr"/>
+          <t>The Sandbox</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>89</t>
+        </is>
+      </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>0.2700176940676300</t>
+          <t>2481357126.2233224000000000</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>15437541.0003241915126376</t>
+          <t>https://etherscan.io/token/0x3845badAde8e6dFF049820680d1F14bD3903a5d0</t>
         </is>
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>-3.6949553997828084</t>
-        </is>
-      </c>
-      <c r="G90" t="inlineStr">
-        <is>
-          <t>0.2719935528067818</t>
-        </is>
-      </c>
-      <c r="H90" t="n">
-        <v>1743297089423</v>
+          <t>673989427.5158484127737979</t>
+        </is>
       </c>
     </row>
     <row r="91">
@@ -3811,32 +3273,28 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>BTTOLD</t>
-        </is>
-      </c>
-      <c r="C91" t="inlineStr"/>
+          <t>BitTorrent [New]</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>90</t>
+        </is>
+      </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>0.0000006726925356</t>
+          <t>986061142857000.0000000000000000</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>1119582.5506941898859089</t>
+          <t>https://tronscan.org/#/token/1002000</t>
         </is>
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>-1.1446210686205828</t>
-        </is>
-      </c>
-      <c r="G91" t="inlineStr">
-        <is>
-          <t>0.0000006785067114</t>
-        </is>
-      </c>
-      <c r="H91" t="n">
-        <v>1743297089423</v>
+          <t>662896208.4566578475943000</t>
+        </is>
       </c>
     </row>
     <row r="92">
@@ -3847,32 +3305,28 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>PAXG</t>
-        </is>
-      </c>
-      <c r="C92" t="inlineStr"/>
+          <t>PAX Gold</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>91</t>
+        </is>
+      </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>3120.3917155112038202</t>
+          <t>210371.2200000000000000</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>47179474.3602999591058587</t>
+          <t>https://etherscan.io/token/0x45804880de22913dafe09f4980848ece6ecbaf78</t>
         </is>
       </c>
       <c r="F92" t="inlineStr">
         <is>
-          <t>0.8938231713416683</t>
-        </is>
-      </c>
-      <c r="G92" t="inlineStr">
-        <is>
-          <t>3106.2132606304694097</t>
-        </is>
-      </c>
-      <c r="H92" t="n">
-        <v>1743297089423</v>
+          <t>658968358.7340295753568244</t>
+        </is>
       </c>
     </row>
     <row r="93">
@@ -3886,105 +3340,89 @@
           <t>IOTA</t>
         </is>
       </c>
-      <c r="C93" t="inlineStr"/>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>92</t>
+        </is>
+      </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>0.1744014464748732</t>
+          <t>3688810566.0000000000000000</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>11074007.9250574728216734</t>
+          <t>https://thetangle.org/</t>
         </is>
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>-5.0420554757971498</t>
-        </is>
-      </c>
-      <c r="G93" t="inlineStr">
-        <is>
-          <t>0.1749882961790816</t>
-        </is>
-      </c>
-      <c r="H93" t="n">
-        <v>1743297089423</v>
+          <t>637384765.0071368569770990</t>
+        </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>curve-dao-token</t>
+          <t>bitcoin-sv</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>CRV</t>
+          <t>Bitcoin SV</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>3030303030.2990000000000000</t>
+          <t>93</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>0.4917164978778142</t>
+          <t>19844753.1250000000000000</t>
         </is>
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>44371785.7632005035311824</t>
+          <t>https://bsvexplorer.io/</t>
         </is>
       </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t>-4.3281372022399099</t>
-        </is>
-      </c>
-      <c r="G94" t="inlineStr">
-        <is>
-          <t>0.4883480961803173</t>
-        </is>
-      </c>
-      <c r="H94" t="n">
-        <v>1743297089423</v>
+          <t>633674877.0049848252132959</t>
+        </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>bitcoin-sv</t>
+          <t>curve-dao-token</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>BSV</t>
-        </is>
-      </c>
-      <c r="C95" t="inlineStr"/>
+          <t>Curve DAO Token</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>94</t>
+        </is>
+      </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>31.1699237720044652</t>
+          <t>1307661214.0000000000000000</t>
         </is>
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>8035242.4952367962671806</t>
+          <t>https://etherscan.io/token/0xD533a949740bb3306d119CC777fa900bA034cd52</t>
         </is>
       </c>
       <c r="F95" t="inlineStr">
         <is>
-          <t>-5.3607716789000495</t>
-        </is>
-      </c>
-      <c r="G95" t="inlineStr">
-        <is>
-          <t>32.1134346834240365</t>
-        </is>
-      </c>
-      <c r="H95" t="n">
-        <v>1743297089423</v>
+          <t>627354773.7188190044687594</t>
+        </is>
       </c>
     </row>
     <row r="96">
@@ -3995,32 +3433,28 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>KAIA</t>
-        </is>
-      </c>
-      <c r="C96" t="inlineStr"/>
+          <t>Kaia</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>95</t>
+        </is>
+      </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>0.1025970098339907</t>
+          <t>5966455361.8200000000000000</t>
         </is>
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>5963499.4733320285565362</t>
+          <t>https://www.kaiascan.io/</t>
         </is>
       </c>
       <c r="F96" t="inlineStr">
         <is>
-          <t>-3.5021706427026627</t>
-        </is>
-      </c>
-      <c r="G96" t="inlineStr">
-        <is>
-          <t>0.1034965879236058</t>
-        </is>
-      </c>
-      <c r="H96" t="n">
-        <v>1743297089423</v>
+          <t>615611382.4723362714061124</t>
+        </is>
       </c>
     </row>
     <row r="97">
@@ -4031,36 +3465,28 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>CAKE</t>
+          <t>PancakeSwap</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>450000000.0000000000000000</t>
+          <t>96</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>2.0004668947167828</t>
+          <t>301835405.9816226000000000</t>
         </is>
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>60670783.5947500538798113</t>
+          <t>https://bscscan.com/token/0x0e09fabb73bd3ade0a17ecc321fd13a19e81ce82</t>
         </is>
       </c>
       <c r="F97" t="inlineStr">
         <is>
-          <t>-6.4646268247626904</t>
-        </is>
-      </c>
-      <c r="G97" t="inlineStr">
-        <is>
-          <t>2.0085547104487743</t>
-        </is>
-      </c>
-      <c r="H97" t="n">
-        <v>1743297089423</v>
+          <t>602971122.7621005997221797</t>
+        </is>
       </c>
     </row>
     <row r="98">
@@ -4071,112 +3497,92 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>FLOW</t>
-        </is>
-      </c>
-      <c r="C98" t="inlineStr"/>
+          <t>Flow</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>97</t>
+        </is>
+      </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>0.3778741654980206</t>
+          <t>1572540589.3190167000000000</t>
         </is>
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>7847665.1969374822440106</t>
+          <t>https://flowscan.org/</t>
         </is>
       </c>
       <c r="F98" t="inlineStr">
         <is>
-          <t>-4.1565532281742545</t>
-        </is>
-      </c>
-      <c r="G98" t="inlineStr">
-        <is>
-          <t>0.3832745655695799</t>
-        </is>
-      </c>
-      <c r="H98" t="n">
-        <v>1743297089423</v>
+          <t>601698908.4465558868337893</t>
+        </is>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>zcash</t>
+          <t>helium</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>ZEC</t>
+          <t>Helium</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>21000000.0000000000000000</t>
+          <t>98</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>36.4618285925430486</t>
+          <t>179760925.5581076000000000</t>
         </is>
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>10442760.8739948745103446</t>
+          <t>https://explorer.helium.com/</t>
         </is>
       </c>
       <c r="F99" t="inlineStr">
         <is>
-          <t>-1.7440984590406621</t>
-        </is>
-      </c>
-      <c r="G99" t="inlineStr">
-        <is>
-          <t>36.0338364089196340</t>
-        </is>
-      </c>
-      <c r="H99" t="n">
-        <v>1743297089423</v>
+          <t>577243810.8613764417435043</t>
+        </is>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>helium</t>
+          <t>zcash</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>HNT</t>
+          <t>Zcash</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>223000000.0000000000000000</t>
+          <t>99</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>3.1822198336760457</t>
+          <t>15886821.0000000000000000</t>
         </is>
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>3766781.3204107295429499</t>
+          <t>https://explorer.zcha.in/</t>
         </is>
       </c>
       <c r="F100" t="inlineStr">
         <is>
-          <t>1.8314948230235200</t>
-        </is>
-      </c>
-      <c r="G100" t="inlineStr">
-        <is>
-          <t>3.1281213582511125</t>
-        </is>
-      </c>
-      <c r="H100" t="n">
-        <v>1743297089423</v>
+          <t>575776967.8990471133680497</t>
+        </is>
       </c>
     </row>
     <row r="101">
@@ -4187,36 +3593,28 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>ENS</t>
+          <t>Ethereum Name Service</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>100000000.0000000000000000</t>
+          <t>100</t>
         </is>
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>15.8809220781809960</t>
+          <t>35599404.0400000000000000</t>
         </is>
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>32715960.2208523061170783</t>
+          <t>https://etherscan.io/token/0xC18360217D8F7Ab5e7c516566761Ea12Ce7F9D72</t>
         </is>
       </c>
       <c r="F101" t="inlineStr">
         <is>
-          <t>-5.2729660719649166</t>
-        </is>
-      </c>
-      <c r="G101" t="inlineStr">
-        <is>
-          <t>16.1609566383691538</t>
-        </is>
-      </c>
-      <c r="H101" t="n">
-        <v>1743297089423</v>
+          <t>569792890.0385989300074013</t>
+        </is>
       </c>
     </row>
   </sheetData>

--- a/src/static/xlsx/df_api_name_xlsx.xlsx
+++ b/src/static/xlsx/df_api_name_xlsx.xlsx
@@ -483,7 +483,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>19844090.0000000000000000</t>
+          <t>19845709.0000000000000000</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -493,7 +493,7 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>1645408213162.3085423711777190</t>
+          <t>1639528365133.9163638203900608</t>
         </is>
       </c>
     </row>
@@ -515,7 +515,7 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>120654453.5456346000000000</t>
+          <t>120661946.5561551900000000</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -525,7 +525,7 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>219447239944.2114512478497129</t>
+          <t>217027307344.3245594599292001</t>
         </is>
       </c>
     </row>
@@ -547,7 +547,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>144182349120.7869600000000000</t>
+          <t>144034280963.4801300000000000</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -557,7 +557,7 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>144472528344.4947595458365958</t>
+          <t>143983896070.6564411925055732</t>
         </is>
       </c>
     </row>
@@ -589,7 +589,7 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>125128539404.0488101244391484</t>
+          <t>118253432675.7566953179994092</t>
         </is>
       </c>
     </row>
@@ -621,7 +621,7 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>87075359850.5724607777222570</t>
+          <t>85410795869.5067094539521990</t>
         </is>
       </c>
     </row>
@@ -643,7 +643,7 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>512293807.5507926300000000</t>
+          <t>512503882.2685171400000000</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -653,7 +653,7 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>64173621326.0654427258974176</t>
+          <t>60990505066.9203193802891438</t>
         </is>
       </c>
     </row>
@@ -675,7 +675,7 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>60242525341.8881500000000000</t>
+          <t>60649816501.5563100000000000</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -685,7 +685,7 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>60263652571.4768036023903822</t>
+          <t>60710455106.5109587982371554</t>
         </is>
       </c>
     </row>
@@ -707,7 +707,7 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>148644126383.7052300000000000</t>
+          <t>148690796383.7052300000000000</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -717,7 +717,7 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>25192339632.7758404781160303</t>
+          <t>24483399831.0141073155431614</t>
         </is>
       </c>
     </row>
@@ -739,7 +739,7 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>35242104181.1897300000000000</t>
+          <t>35268011575.2034400000000000</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -749,7 +749,7 @@
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>23723258891.0099981885348963</t>
+          <t>22667528163.2964461512383906</t>
         </is>
       </c>
     </row>
@@ -771,7 +771,7 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>94994605853.7637200000000000</t>
+          <t>94985541388.8610000000000000</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
@@ -781,7 +781,7 @@
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>21915590545.0177149452066276</t>
+          <t>22176014805.1385299003679272</t>
         </is>
       </c>
     </row>
@@ -803,7 +803,7 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>9367578.0451454800000000</t>
+          <t>9378159.5971089000000000</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
@@ -813,7 +813,7 @@
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>17013824733.8718290823942758</t>
+          <t>16879794298.3193979325661683</t>
         </is>
       </c>
     </row>
@@ -845,7 +845,7 @@
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>10598806295.6447535423859155</t>
+          <t>10636821595.3958774212415626</t>
         </is>
       </c>
     </row>
@@ -867,25 +867,25 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>2484528578.6548066000000000</t>
+          <t>2461769440.3709480000000000</t>
         </is>
       </c>
       <c r="E14" t="inlineStr"/>
       <c r="F14" t="inlineStr">
         <is>
-          <t>9472862912.8328174480942813</t>
+          <t>9468226533.4435585777858962</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>chainlink</t>
+          <t>unus-sed-leo</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Chainlink</t>
+          <t>UNUS SED LEO</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -895,29 +895,29 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>657099970.4527867000000000</t>
+          <t>923812201.9000000000000000</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>https://etherscan.io/token/0x514910771af9ca656af840dff83e8264ecf986ca</t>
+          <t>https://eospark.com/account/bitfinexleo1</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>8958597212.6335910550156019</t>
+          <t>8620721841.2095968245155606</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>unus-sed-leo</t>
+          <t>chainlink</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>UNUS SED LEO</t>
+          <t>Chainlink</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -927,17 +927,17 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>923836969.9000000000000000</t>
+          <t>657099970.4527867000000000</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>https://eospark.com/account/bitfinexleo1</t>
+          <t>https://etherscan.io/token/0x514910771af9ca656af840dff83e8264ecf986ca</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>8901839290.0928122997258208</t>
+          <t>8497966177.6312458352909623</t>
         </is>
       </c>
     </row>
@@ -959,7 +959,7 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>30787178407.4941640000000000</t>
+          <t>30777463547.8369900000000000</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
@@ -969,19 +969,19 @@
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>8265176800.0094639130424089</t>
+          <t>7968470554.0416372273890169</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>avalanche</t>
+          <t>sui</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Avalanche</t>
+          <t>Sui</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -991,29 +991,29 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>414844783.0787661700000000</t>
+          <t>3249982900.4588876000000000</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>https://avascan.info/</t>
+          <t>https://suiexplorer.com/</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>8051635600.1507045998396600</t>
+          <t>7499759647.1855119643336329</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>sui</t>
+          <t>avalanche</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Sui</t>
+          <t>Avalanche</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -1023,17 +1023,17 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>3169845047.4838877000000000</t>
+          <t>414902635.8846379500000000</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>https://suiexplorer.com/</t>
+          <t>https://avascan.info/</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>7482713340.3192561276521836</t>
+          <t>7491642400.8230887572607880</t>
         </is>
       </c>
     </row>
@@ -1055,7 +1055,7 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>589250822785832.4000000000000000</t>
+          <t>589250687620781.9000000000000000</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
@@ -1065,7 +1065,7 @@
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>7426139533.0259675745838750</t>
+          <t>7130582238.9540358711338977</t>
         </is>
       </c>
     </row>
@@ -1097,7 +1097,7 @@
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>7199344865.4500467226974255</t>
+          <t>6808477142.7080958908682695</t>
         </is>
       </c>
     </row>
@@ -1129,19 +1129,19 @@
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>6524123028.5938966723779963</t>
+          <t>6198760373.1887302767069865</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>polkadot</t>
+          <t>mantra-dao</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Polkadot</t>
+          <t>Mantra</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -1151,17 +1151,17 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>1522267060.0000000000000000</t>
+          <t>974778351.8199997000000000</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>https://polkascan.io/polkadot</t>
+          <t>https://etherscan.io/token/0x3593d125a4f7849a1b059e64f4517a86dd60c95d</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>6207093548.6842221570056020</t>
+          <t>6115177710.7716410903668150</t>
         </is>
       </c>
     </row>
@@ -1193,19 +1193,19 @@
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>6155101635.7528262072104602</t>
+          <t>6073976288.7544976426358435</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>mantra-dao</t>
+          <t>polkadot</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Mantra</t>
+          <t>Polkadot</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -1215,17 +1215,17 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>974778351.8199997000000000</t>
+          <t>1522267060.0000000000000000</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>https://etherscan.io/token/0x3593d125a4f7849a1b059e64f4517a86dd60c95d</t>
+          <t>https://polkascan.io/polkadot</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>6075993196.3036925716925741</t>
+          <t>6042437419.1218366691808060</t>
         </is>
       </c>
     </row>
@@ -1247,7 +1247,7 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>19849115.6250000000000000</t>
+          <t>19850634.3750000000000000</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
@@ -1257,7 +1257,7 @@
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>6056506018.1945628304810350</t>
+          <t>5858474421.0476621134331709</t>
         </is>
       </c>
     </row>
@@ -1289,7 +1289,7 @@
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>5500491881.5415703600000000</t>
+          <t>5394449264.1331698000000000</t>
         </is>
       </c>
     </row>
@@ -1321,7 +1321,7 @@
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>5361791683.7172770712587038</t>
+          <t>5362386872.3288495786416072</t>
         </is>
       </c>
     </row>
@@ -1343,7 +1343,7 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>5247255782.7102750000000000</t>
+          <t>5260950968.3606940000000000</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
@@ -1353,7 +1353,7 @@
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>5246902513.3316238460008273</t>
+          <t>5258656650.5632453057372292</t>
         </is>
       </c>
     </row>
@@ -1375,7 +1375,7 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>6773814332.2604940000000000</t>
+          <t>6794101040.3435950000000000</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
@@ -1385,7 +1385,7 @@
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>5167207446.9047400375356706</t>
+          <t>4455351871.3219725265542810</t>
         </is>
       </c>
     </row>
@@ -1417,7 +1417,7 @@
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>4201769039.5293132697724700</t>
+          <t>3964069991.4073236859226340</t>
         </is>
       </c>
     </row>
@@ -1449,7 +1449,7 @@
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>4008181468.8650203385339444</t>
+          <t>3940688577.4320656390714480</t>
         </is>
       </c>
     </row>
@@ -1481,7 +1481,7 @@
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>3749159627.7413234019014864</t>
+          <t>3686577654.5253241757063987</t>
         </is>
       </c>
     </row>
@@ -1503,7 +1503,7 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>604031596.5939680000000000</t>
+          <t>604422794.1445550000000000</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
@@ -1513,19 +1513,19 @@
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>3195108080.1067342020275697</t>
+          <t>3083077512.1173559555761016</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>near-protocol</t>
+          <t>pepe</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Near Protocol</t>
+          <t>Pepe</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
@@ -1535,29 +1535,29 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>1198396448.0000000000000000</t>
+          <t>420689899653543.5600000000000000</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>https://explorer.nearprotocol.com/</t>
+          <t>https://etherscan.io/token/0x6982508145454ce325ddbe47a25d4ec3d2311933</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>3160198965.9692502467403296</t>
+          <t>2977160679.5246615899631975</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>pepe</t>
+          <t>near-protocol</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Pepe</t>
+          <t>Near Protocol</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
@@ -1567,17 +1567,17 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>420689899653543.5600000000000000</t>
+          <t>1199000741.0000000000000000</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>https://etherscan.io/token/0x6982508145454ce325ddbe47a25d4ec3d2311933</t>
+          <t>https://explorer.nearprotocol.com/</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>2967439521.6201030865441585</t>
+          <t>2931520640.8788716785323770</t>
         </is>
       </c>
     </row>
@@ -1609,19 +1609,19 @@
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>2912819056.6660053240000000</t>
+          <t>2830881507.0770885580000000</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>crypto-com-coin</t>
+          <t>mantle</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Cronos</t>
+          <t>Mantle</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
@@ -1631,29 +1631,29 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>26571560696.0000000000000000</t>
+          <t>3364694382.8368406000000000</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>https://etherscan.io/token/0xa0b73e1ff0b80914ab6fe0444e65848c4c34450b</t>
+          <t>https://mantlescan.xyz/</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>2769337703.7960085895384152</t>
+          <t>2612596235.7873673888388406</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>mantle</t>
+          <t>crypto-com-coin</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Mantle</t>
+          <t>Cronos</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
@@ -1663,29 +1663,29 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>3364694382.8368406000000000</t>
+          <t>26571560696.0000000000000000</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>https://mantlescan.xyz/</t>
+          <t>https://etherscan.io/token/0xa0b73e1ff0b80914ab6fe0444e65848c4c34450b</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>2699772651.6693683250662620</t>
+          <t>2550846518.8007343851500840</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>internet-computer</t>
+          <t>first-digital-usd</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Internet Computer</t>
+          <t>First Digital USD</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
@@ -1695,29 +1695,25 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>482076932.8747825000000000</t>
-        </is>
-      </c>
-      <c r="E40" t="inlineStr">
-        <is>
-          <t>https://www.dfinityexplorer.org/#/</t>
-        </is>
-      </c>
+          <t>2601315490.1633330000000000</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr"/>
       <c r="F40" t="inlineStr">
         <is>
-          <t>2591823755.8688453073314074</t>
+          <t>2550174963.2981185647281197</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>first-digital-usd</t>
+          <t>ondo-finance</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>First Digital USD</t>
+          <t>Ondo</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
@@ -1727,25 +1723,29 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>2588088088.1678160000000000</t>
-        </is>
-      </c>
-      <c r="E41" t="inlineStr"/>
+          <t>3159107529.0000000000000000</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>https://etherscan.io/token/0xfAbA6f8e4a5E8Ab82F62fe7C39859FA577269BE3</t>
+        </is>
+      </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>2583960590.5102734226441160</t>
+          <t>2500019195.7044406479302317</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>ondo-finance</t>
+          <t>internet-computer</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Ondo</t>
+          <t>Internet Computer</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
@@ -1755,17 +1755,17 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>3159107529.0000000000000000</t>
+          <t>482284285.8834832000000000</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>https://etherscan.io/token/0xfAbA6f8e4a5E8Ab82F62fe7C39859FA577269BE3</t>
+          <t>https://www.dfinityexplorer.org/#/</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>2527930536.2107285663304451</t>
+          <t>2448383745.1292949514632636</t>
         </is>
       </c>
     </row>
@@ -1787,7 +1787,7 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>151321540.2914661500000000</t>
+          <t>151367967.6932335000000000</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
@@ -1797,7 +1797,7 @@
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>2518538271.2183289311813451</t>
+          <t>2431759469.2586970275553424</t>
         </is>
       </c>
     </row>
@@ -1819,7 +1819,7 @@
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>15093850.1019675900000000</t>
+          <t>15096506.1791544500000000</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
@@ -1829,7 +1829,7 @@
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>2480477522.3127977983604312</t>
+          <t>2285253833.8380163259613990</t>
         </is>
       </c>
     </row>
@@ -1861,19 +1861,19 @@
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>2125677493.8637828266678834</t>
+          <t>1935203355.7648310045366262</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>official-trump</t>
+          <t>gatetoken</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>Trump Official</t>
+          <t>GateToken</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
@@ -1883,17 +1883,13 @@
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>199999429.1037350000000000</t>
-        </is>
-      </c>
-      <c r="E46" t="inlineStr">
-        <is>
-          <t>https://solscan.io/token/6p6xgHyF7AeE6TZkSmFsko444wqoP15icUSqi2jfGiPN</t>
-        </is>
-      </c>
+          <t>85828689.4334172500000000</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr"/>
       <c r="F46" t="inlineStr">
         <is>
-          <t>2035525360.1065975143096493</t>
+          <t>1910046998.5735125875969763</t>
         </is>
       </c>
     </row>
@@ -1925,19 +1921,19 @@
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>1964184580.0370603932843252</t>
+          <t>1854343290.8184810349814860</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>bittensor</t>
+          <t>official-trump</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>Bittensor</t>
+          <t>Trump Official</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
@@ -1947,29 +1943,29 @@
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>8534124.0000000000000000</t>
+          <t>199999427.4807580000000000</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>https://bittensor.com/scan</t>
+          <t>https://solscan.io/token/6p6xgHyF7AeE6TZkSmFsko444wqoP15icUSqi2jfGiPN</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>1945000796.7737817470563632</t>
+          <t>1846478192.7079247970659443</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>ethena</t>
+          <t>bittensor</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>Ethena</t>
+          <t>Bittensor</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
@@ -1979,25 +1975,29 @@
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>5285937500.0000000000000000</t>
-        </is>
-      </c>
-      <c r="E49" t="inlineStr"/>
+          <t>8546962.0000000000000000</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>https://bittensor.com/scan</t>
+        </is>
+      </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>1944153476.2849278632812500</t>
+          <t>1820962687.4574987517508122</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>celestia</t>
+          <t>ethena</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>Celestia</t>
+          <t>Ethena</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
@@ -2007,29 +2007,25 @@
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>579488884.7562950000000000</t>
-        </is>
-      </c>
-      <c r="E50" t="inlineStr">
-        <is>
-          <t>https://www.mintscan.io/celestia</t>
-        </is>
-      </c>
+          <t>5285937500.0000000000000000</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr"/>
       <c r="F50" t="inlineStr">
         <is>
-          <t>1914708485.3858905839257909</t>
+          <t>1776662918.4867195342187500</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>gatetoken</t>
+          <t>filecoin</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>GateToken</t>
+          <t>Filecoin</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
@@ -2039,13 +2035,17 @@
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>85826628.2767399300000000</t>
-        </is>
-      </c>
-      <c r="E51" t="inlineStr"/>
+          <t>647135072.0000000000000000</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>https://protocol.ai</t>
+        </is>
+      </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>1912748173.4635396020805350</t>
+          <t>1748026602.9330236208759968</t>
         </is>
       </c>
     </row>
@@ -2073,19 +2073,19 @@
       <c r="E52" t="inlineStr"/>
       <c r="F52" t="inlineStr">
         <is>
-          <t>1827864130.9687097878394158</t>
+          <t>1717476317.1171532249850971</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>filecoin</t>
+          <t>celestia</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>Filecoin</t>
+          <t>Celestia</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
@@ -2095,17 +2095,17 @@
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>646143249.0000000000000000</t>
+          <t>584318047.2631370000000000</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>https://protocol.ai</t>
+          <t>https://www.mintscan.io/celestia</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>1783390606.6825216231768563</t>
+          <t>1705606928.6166119198616331</t>
         </is>
       </c>
     </row>
@@ -2137,7 +2137,7 @@
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>1683788927.3133535968270408</t>
+          <t>1639056684.2491185255400192</t>
         </is>
       </c>
     </row>
@@ -2159,7 +2159,7 @@
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>25942485466.1023500000000000</t>
+          <t>25960683651.3743060000000000</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
@@ -2169,7 +2169,7 @@
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>1673393918.4620271640847856</t>
+          <t>1634301649.7139061808185894</t>
         </is>
       </c>
     </row>
@@ -2191,7 +2191,7 @@
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>8530769996.2217810000000000</t>
+          <t>8537381523.8178040000000000</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
@@ -2201,7 +2201,7 @@
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>1558994329.6481137488808930</t>
+          <t>1509418092.4102449442979540</t>
         </is>
       </c>
     </row>
@@ -2233,19 +2233,19 @@
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>1540384598.0423855366826552</t>
+          <t>1419970173.1042036744717304</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>dexe</t>
+          <t>fantom</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>DeXe</t>
+          <t>Sonic (prev. FTM)</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
@@ -2255,29 +2255,29 @@
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>83733353.1605750500000000</t>
+          <t>2880000000.0000000000000000</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>https://etherscan.io/token/0xde4EE8057785A7e8e800Db58F9784845A5C2Cbd6</t>
+          <t>sonicscan.org</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>1474887064.7361723171876779</t>
+          <t>1354992622.0879253760000000</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>fantom</t>
+          <t>kucoin-token</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>Sonic (prev. FTM)</t>
+          <t>KuCoin Token</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
@@ -2287,29 +2287,29 @@
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>2880000000.0000000000000000</t>
+          <t>125043917.8513356400000000</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>sonicscan.org</t>
+          <t>https://etherscan.io/token/0xf34960d9d60be18cc1d5afc1a6f012a723a28811</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>1409566141.7837159040000000</t>
+          <t>1332707105.0086010272566361</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>story-protocol</t>
+          <t>eos</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>Story</t>
+          <t>EOS</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
@@ -2319,29 +2319,29 @@
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>258745395.0000000000000000</t>
+          <t>1556419102.7764000000000000</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>www.storyscan.xyz</t>
+          <t>https://bloks.io/</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>1367199664.4673207316714155</t>
+          <t>1243476602.1285557600427900</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>kucoin-token</t>
+          <t>dexe</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>KuCoin Token</t>
+          <t>DeXe</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
@@ -2351,29 +2351,29 @@
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>122543917.8513356400000000</t>
+          <t>83733353.1605750500000000</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>https://etherscan.io/token/0xf34960d9d60be18cc1d5afc1a6f012a723a28811</t>
+          <t>https://etherscan.io/token/0xde4EE8057785A7e8e800Db58F9784845A5C2Cbd6</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>1358654517.0417458659000833</t>
+          <t>1216907074.7788359174843804</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>jupiter</t>
+          <t>optimism-ethereum</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>Jupiter</t>
+          <t>Optimism</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
@@ -2383,29 +2383,29 @@
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>2690911111.1000000000000000</t>
+          <t>1620705846.0000000000000000</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>https://solscan.io/token/JUPyiwrYJFskUPiHa7hkeR8VUtAeFoSYbKedZNsDvCN</t>
+          <t>https://optimistic.etherscan.io/token/0x4200000000000000000000000000000000000042</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>1300386060.1236361107200213</t>
+          <t>1142899077.5028045893197086</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>optimism-ethereum</t>
+          <t>story-protocol</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>Optimism</t>
+          <t>Story</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
@@ -2415,29 +2415,29 @@
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>1620705846.0000000000000000</t>
+          <t>258992823.0000000000000000</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>https://optimistic.etherscan.io/token/0x4200000000000000000000000000000000000042</t>
+          <t>www.storyscan.xyz</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>1220425171.5658997786197620</t>
+          <t>1123963831.0916701307984247</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>fetch</t>
+          <t>maker</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>Artificial Superintelligence Alliance</t>
+          <t>Maker</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
@@ -2447,29 +2447,29 @@
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>2520000000.0000000000000000</t>
+          <t>848074.4183746700000000</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>https://etherscan.io/token/0x1d287cc25dad7ccaf76a26bc660c5f7c8e2a05bd</t>
+          <t>https://etherscan.io/token/Maker</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>1193721337.8999644400000000</t>
+          <t>1087845997.6339652208908309</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>maker</t>
+          <t>fetch</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>Maker</t>
+          <t>Artificial Superintelligence Alliance</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
@@ -2479,29 +2479,29 @@
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>848074.4183746700000000</t>
+          <t>2520000000.0000000000000000</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>https://etherscan.io/token/Maker</t>
+          <t>https://etherscan.io/token/0x1d287cc25dad7ccaf76a26bc660c5f7c8e2a05bd</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>1083807750.8223584676369527</t>
+          <t>1087206379.6654579680000000</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>movement</t>
+          <t>jupiter</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>Movement</t>
+          <t>Jupiter</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
@@ -2511,13 +2511,17 @@
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>2450000000.0000000000000000</t>
-        </is>
-      </c>
-      <c r="E66" t="inlineStr"/>
+          <t>2690911111.1000000000000000</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>https://solscan.io/token/JUPyiwrYJFskUPiHa7hkeR8VUtAeFoSYbKedZNsDvCN</t>
+        </is>
+      </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>1069253786.7841127550000000</t>
+          <t>1025229816.1535280338290957</t>
         </is>
       </c>
     </row>
@@ -2549,19 +2553,19 @@
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>1043799394.3845735966682584</t>
+          <t>1019376585.6228169645603527</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>immutable-x</t>
+          <t>wbnb</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>Immutable X</t>
+          <t>Wrapped BNB</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
@@ -2571,25 +2575,29 @@
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>1768317543.3900000000000000</t>
-        </is>
-      </c>
-      <c r="E68" t="inlineStr"/>
+          <t>1582884.5398480400000000</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>https://bscscan.com/token/0xbb4CdB9CBd36B01bD1cBaEBF2De08d9173bc095c</t>
+        </is>
+      </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>971463395.1974062978635984</t>
+          <t>936777558.5390565155380626</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>worldcoin-org</t>
+          <t>movement</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>Worldcoin</t>
+          <t>Movement</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
@@ -2599,25 +2607,25 @@
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>1214526120.0344640000000000</t>
+          <t>2450000000.0000000000000000</t>
         </is>
       </c>
       <c r="E69" t="inlineStr"/>
       <c r="F69" t="inlineStr">
         <is>
-          <t>954345596.6503831522625351</t>
+          <t>931613473.4540863250000000</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>stacks</t>
+          <t>worldcoin-org</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>Stacks</t>
+          <t>Worldcoin</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
@@ -2627,29 +2635,25 @@
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>1519229293.8326400000000000</t>
-        </is>
-      </c>
-      <c r="E70" t="inlineStr">
-        <is>
-          <t>https://explorer.stacks.co/</t>
-        </is>
-      </c>
+          <t>1223649706.2148200000000000</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr"/>
       <c r="F70" t="inlineStr">
         <is>
-          <t>951776872.6014462734626158</t>
+          <t>885343051.8002103041850480</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>wbnb</t>
+          <t>stacks</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>Wrapped BNB</t>
+          <t>Stacks</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
@@ -2659,29 +2663,29 @@
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>1582884.5398480400000000</t>
+          <t>1519731982.9897600000000000</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>https://bscscan.com/token/0xbb4CdB9CBd36B01bD1cBaEBF2De08d9173bc095c</t>
+          <t>https://explorer.stacks.co/</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>950892872.4217079056947832</t>
+          <t>877228249.2018610885136464</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>eos</t>
+          <t>usual-usd</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>EOS</t>
+          <t>Usual USD</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
@@ -2691,29 +2695,29 @@
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>1555708008.4996000000000000</t>
+          <t>872045271.8289261000000000</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>https://bloks.io/</t>
+          <t>https://etherscan.io/address/0x73A15FeD60Bf67631dC6cd7Bc5B6e8da8190aCF5</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>939381108.3260441224465711</t>
+          <t>870092925.1567833806837731</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>usual-usd</t>
+          <t>bonk1</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>Usual USD</t>
+          <t>Bonk</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
@@ -2723,29 +2727,25 @@
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>899129894.3078742000000000</t>
-        </is>
-      </c>
-      <c r="E73" t="inlineStr">
-        <is>
-          <t>https://etherscan.io/address/0x73A15FeD60Bf67631dC6cd7Bc5B6e8da8190aCF5</t>
-        </is>
-      </c>
+          <t>77894175221082.5500000000000000</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr"/>
       <c r="F73" t="inlineStr">
         <is>
-          <t>897098518.1013240661011999</t>
+          <t>866119281.4611833164217169</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>bonk1</t>
+          <t>immutable-x</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>Bonk</t>
+          <t>Immutable X</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
@@ -2755,25 +2755,25 @@
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>77894175221082.5500000000000000</t>
+          <t>1768317543.3900000000000000</t>
         </is>
       </c>
       <c r="E74" t="inlineStr"/>
       <c r="F74" t="inlineStr">
         <is>
-          <t>885864781.8351067450829436</t>
+          <t>849353385.9087651851556859</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>the-graph</t>
+          <t>binaryx-new</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>The Graph</t>
+          <t>Four</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
@@ -2783,29 +2783,25 @@
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>9775189789.3182130000000000</t>
-        </is>
-      </c>
-      <c r="E75" t="inlineStr">
-        <is>
-          <t>https://etherscan.io/token/0xc944e90c64b2c07662a292be6244bdf05cda44a7</t>
-        </is>
-      </c>
+          <t>381867255.1445740000000000</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr"/>
       <c r="F75" t="inlineStr">
         <is>
-          <t>876926157.9498841890478749</t>
+          <t>833596261.6203269385324318</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>sei</t>
+          <t>injective-protocol</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>Sei</t>
+          <t>Injective</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
@@ -2815,25 +2811,29 @@
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>4882361111.0000000000000000</t>
-        </is>
-      </c>
-      <c r="E76" t="inlineStr"/>
+          <t>98970935.4100000000000000</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>https://etherscan.io/token/0xe28b3b32b6c345a34ff64674606124dd5aceca30</t>
+        </is>
+      </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>872215392.1541441497312826</t>
+          <t>827402248.4369071694139660</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>injective-protocol</t>
+          <t>the-graph</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>Injective</t>
+          <t>The Graph</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
@@ -2843,29 +2843,29 @@
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>98970935.4100000000000000</t>
+          <t>9775189789.3182130000000000</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>https://etherscan.io/token/0xe28b3b32b6c345a34ff64674606124dd5aceca30</t>
+          <t>https://etherscan.io/token/0xc944e90c64b2c07662a292be6244bdf05cda44a7</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>870536980.8628373050907274</t>
+          <t>811294638.1934762401311477</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>binaryx-new</t>
+          <t>sei</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>Four</t>
+          <t>Sei</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
@@ -2875,13 +2875,13 @@
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>381867255.1445740000000000</t>
+          <t>4882361111.0000000000000000</t>
         </is>
       </c>
       <c r="E78" t="inlineStr"/>
       <c r="F78" t="inlineStr">
         <is>
-          <t>864185142.9753558143632849</t>
+          <t>806429664.2882833109594735</t>
         </is>
       </c>
     </row>
@@ -2913,19 +2913,19 @@
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>843429263.2225833415663452</t>
+          <t>800796059.1185056497732000</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>theta</t>
+          <t>flare</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>Theta Network</t>
+          <t>Flare</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
@@ -2935,29 +2935,29 @@
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>1000000000.0000000000000000</t>
+          <t>60983663777.0100000000000000</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>https://explorer.thetatoken.org/</t>
+          <t>https://flare-explorer.flare.network/</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>828708154.0332393000000000</t>
+          <t>790584621.3156201573696335</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>flare</t>
+          <t>tether-gold</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>Flare</t>
+          <t>Tether Gold</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
@@ -2967,29 +2967,29 @@
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>60983663777.0100000000000000</t>
+          <t>246524.0000000000000000</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>https://flare-explorer.flare.network/</t>
+          <t>https://etherscan.io/token/0x4922a015c4407f87432b179bb209e125432e4a2a</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>811028179.4564724563828983</t>
+          <t>781997690.0747723539614636</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>paypal-usd</t>
+          <t>theta</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>PayPal USD</t>
+          <t>Theta Network</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
@@ -2999,29 +2999,29 @@
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>802871349.4263150000000000</t>
+          <t>1000000000.0000000000000000</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>https://etherscan.io/token/0x6c3ea9036406852006290770bedfcaba0e23a0e8</t>
+          <t>https://explorer.thetatoken.org/</t>
         </is>
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>801668858.5420229872356842</t>
+          <t>774262814.1280753000000000</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>berachain</t>
+          <t>paypal-usd</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>Berachain</t>
+          <t>PayPal USD</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
@@ -3031,13 +3031,17 @@
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>107480000.0000000000000000</t>
-        </is>
-      </c>
-      <c r="E83" t="inlineStr"/>
+          <t>739265391.6749380000000000</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>https://etherscan.io/token/0x6c3ea9036406852006290770bedfcaba0e23a0e8</t>
+        </is>
+      </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>796326003.0156102897520000</t>
+          <t>737713939.0131667917627150</t>
         </is>
       </c>
     </row>
@@ -3069,19 +3073,19 @@
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>780317062.5935810025694505</t>
+          <t>736136852.8863330286299283</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>tether-gold</t>
+          <t>berachain</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>Tether Gold</t>
+          <t>Berachain</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
@@ -3091,29 +3095,25 @@
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>246524.0000000000000000</t>
-        </is>
-      </c>
-      <c r="E85" t="inlineStr">
-        <is>
-          <t>https://etherscan.io/token/0x4922a015c4407f87432b179bb209e125432e4a2a</t>
-        </is>
-      </c>
+          <t>107480000.0000000000000000</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr"/>
       <c r="F85" t="inlineStr">
         <is>
-          <t>765659590.4938563644343640</t>
+          <t>706996649.3430440123880000</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>nexo</t>
+          <t>tezos</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>Nexo</t>
+          <t>Tezos</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
@@ -3123,29 +3123,29 @@
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>646145839.5746847000000000</t>
+          <t>1037550271.7864680000000000</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>https://etherscan.io/token/0xb62132e35a6c13ee1ee0f84dc5d40bad8d815206</t>
+          <t>https://tzkt.io/</t>
         </is>
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>704079373.1665961097102343</t>
+          <t>671528079.5623715789365613</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>jito</t>
+          <t>nexo</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>Jito</t>
+          <t>Nexo</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
@@ -3155,29 +3155,29 @@
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>310420802.2000000000000000</t>
+          <t>646145839.5746847000000000</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>https://solscan.io/token/jtojtomepa8beP8AuQc6eXt5FriJwfFMwQx2v2f9mCL</t>
+          <t>https://etherscan.io/token/0xb62132e35a6c13ee1ee0f84dc5d40bad8d815206</t>
         </is>
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>685468164.5941109403155227</t>
+          <t>670432227.1842362931085152</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>gala</t>
+          <t>pax-gold</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>Gala</t>
+          <t>PAX Gold</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
@@ -3187,29 +3187,29 @@
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>43759808799.6019300000000000</t>
+          <t>210371.2200000000000000</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>https://ethplorer.io/es/address/0x15d4c048f83bd7e37d49ea4c83a07267ec4203da#chart=candlestick</t>
+          <t>https://etherscan.io/token/0x45804880de22913dafe09f4980848ece6ecbaf78</t>
         </is>
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>680364927.7310300235442452</t>
+          <t>667778818.3984549713671582</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>tezos</t>
+          <t>jito</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>Tezos</t>
+          <t>Jito</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
@@ -3219,29 +3219,29 @@
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>1036876078.8643710000000000</t>
+          <t>311886262.1000000000000000</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>https://tzkt.io/</t>
+          <t>https://solscan.io/token/jtojtomepa8beP8AuQc6eXt5FriJwfFMwQx2v2f9mCL</t>
         </is>
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>678818981.6070353497686342</t>
+          <t>654917431.1518687489678679</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>the-sandbox</t>
+          <t>curve-dao-token</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>The Sandbox</t>
+          <t>Curve DAO Token</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
@@ -3251,29 +3251,29 @@
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>2481357126.2233224000000000</t>
+          <t>1308683113.0000000000000000</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>https://etherscan.io/token/0x3845badAde8e6dFF049820680d1F14bD3903a5d0</t>
+          <t>https://etherscan.io/token/0xD533a949740bb3306d119CC777fa900bA034cd52</t>
         </is>
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>673989427.5158484127737979</t>
+          <t>646436402.9773983232964636</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>bittorrent</t>
+          <t>the-sandbox</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>BitTorrent [New]</t>
+          <t>The Sandbox</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
@@ -3283,29 +3283,29 @@
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>986061142857000.0000000000000000</t>
+          <t>2481357126.2233224000000000</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>https://tronscan.org/#/token/1002000</t>
+          <t>https://etherscan.io/token/0x3845badAde8e6dFF049820680d1F14bD3903a5d0</t>
         </is>
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>662896208.4566578475943000</t>
+          <t>640375514.1572475514619660</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>pax-gold</t>
+          <t>gala</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>PAX Gold</t>
+          <t>Gala</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
@@ -3315,29 +3315,29 @@
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>210371.2200000000000000</t>
+          <t>43804947221.8090800000000000</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>https://etherscan.io/token/0x45804880de22913dafe09f4980848ece6ecbaf78</t>
+          <t>https://ethplorer.io/es/address/0x15d4c048f83bd7e37d49ea4c83a07267ec4203da#chart=candlestick</t>
         </is>
       </c>
       <c r="F92" t="inlineStr">
         <is>
-          <t>658968358.7340295753568244</t>
+          <t>634539418.3257243828895352</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>iota</t>
+          <t>bittorrent</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>IOTA</t>
+          <t>BitTorrent [New]</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
@@ -3347,29 +3347,29 @@
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>3688810566.0000000000000000</t>
+          <t>986061142857000.0000000000000000</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>https://thetangle.org/</t>
+          <t>https://tronscan.org/#/token/1002000</t>
         </is>
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>637384765.0071368569770990</t>
+          <t>623368561.8335109456522000</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>bitcoin-sv</t>
+          <t>zcash</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>Bitcoin SV</t>
+          <t>Zcash</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
@@ -3379,29 +3379,29 @@
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>19844753.1250000000000000</t>
+          <t>15886821.0000000000000000</t>
         </is>
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>https://bsvexplorer.io/</t>
+          <t>https://explorer.zcha.in/</t>
         </is>
       </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t>633674877.0049848252132959</t>
+          <t>620064789.6743512306799280</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>curve-dao-token</t>
+          <t>kaia</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>Curve DAO Token</t>
+          <t>Kaia</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
@@ -3411,29 +3411,29 @@
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>1307661214.0000000000000000</t>
+          <t>5966455361.8200000000000000</t>
         </is>
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>https://etherscan.io/token/0xD533a949740bb3306d119CC777fa900bA034cd52</t>
+          <t>https://www.kaiascan.io/</t>
         </is>
       </c>
       <c r="F95" t="inlineStr">
         <is>
-          <t>627354773.7188190044687594</t>
+          <t>614087519.9211075097684709</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>kaia</t>
+          <t>bitcoin-sv</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>Kaia</t>
+          <t>Bitcoin SV</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
@@ -3443,29 +3443,29 @@
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>5966455361.8200000000000000</t>
+          <t>19846218.7500000000000000</t>
         </is>
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>https://www.kaiascan.io/</t>
+          <t>https://bsvexplorer.io/</t>
         </is>
       </c>
       <c r="F96" t="inlineStr">
         <is>
-          <t>615611382.4723362714061124</t>
+          <t>607687878.8539023315164531</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>pancakeswap</t>
+          <t>iota</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>PancakeSwap</t>
+          <t>IOTA</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
@@ -3475,17 +3475,17 @@
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>301835405.9816226000000000</t>
+          <t>3707948285.0000000000000000</t>
         </is>
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>https://bscscan.com/token/0x0e09fabb73bd3ade0a17ecc321fd13a19e81ce82</t>
+          <t>https://thetangle.org/</t>
         </is>
       </c>
       <c r="F97" t="inlineStr">
         <is>
-          <t>602971122.7621005997221797</t>
+          <t>601775482.3818354606028220</t>
         </is>
       </c>
     </row>
@@ -3507,7 +3507,7 @@
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>1572540589.3190167000000000</t>
+          <t>1574016688.1911110000000000</t>
         </is>
       </c>
       <c r="E98" t="inlineStr">
@@ -3517,19 +3517,19 @@
       </c>
       <c r="F98" t="inlineStr">
         <is>
-          <t>601698908.4465558868337893</t>
+          <t>580342144.3433431183256138</t>
         </is>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>helium</t>
+          <t>raydium</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>Helium</t>
+          <t>Raydium</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
@@ -3539,29 +3539,29 @@
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>179760925.5581076000000000</t>
+          <t>290814662.0678040000000000</t>
         </is>
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>https://explorer.helium.com/</t>
+          <t>https://explorer.solana.com/address/4k3Dyjzvzp8eMZWUXbBCjEvwSkkk59S5iCNLY3QrkX6R</t>
         </is>
       </c>
       <c r="F99" t="inlineStr">
         <is>
-          <t>577243810.8613764417435043</t>
+          <t>551352890.8105441114184460</t>
         </is>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>zcash</t>
+          <t>ethereum-name-service</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>Zcash</t>
+          <t>Ethereum Name Service</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
@@ -3571,29 +3571,29 @@
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>15886821.0000000000000000</t>
+          <t>35599404.0400000000000000</t>
         </is>
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>https://explorer.zcha.in/</t>
+          <t>https://etherscan.io/token/0xC18360217D8F7Ab5e7c516566761Ea12Ce7F9D72</t>
         </is>
       </c>
       <c r="F100" t="inlineStr">
         <is>
-          <t>575776967.8990471133680497</t>
+          <t>537733564.0469310436815616</t>
         </is>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>ethereum-name-service</t>
+          <t>pancakeswap</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>Ethereum Name Service</t>
+          <t>PancakeSwap</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
@@ -3603,17 +3603,17 @@
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>35599404.0400000000000000</t>
+          <t>295394509.7510309000000000</t>
         </is>
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>https://etherscan.io/token/0xC18360217D8F7Ab5e7c516566761Ea12Ce7F9D72</t>
+          <t>https://bscscan.com/token/0x0e09fabb73bd3ade0a17ecc321fd13a19e81ce82</t>
         </is>
       </c>
       <c r="F101" t="inlineStr">
         <is>
-          <t>569792890.0385989300074013</t>
+          <t>534180343.4006736428446227</t>
         </is>
       </c>
     </row>

--- a/src/static/xlsx/df_api_name_xlsx.xlsx
+++ b/src/static/xlsx/df_api_name_xlsx.xlsx
@@ -483,7 +483,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>19845709.0000000000000000</t>
+          <t>19846231.0000000000000000</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -493,7 +493,7 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>1639528365133.9163638203900608</t>
+          <t>1645455068329.5992655856772274</t>
         </is>
       </c>
     </row>
@@ -515,7 +515,7 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>120661946.5561551900000000</t>
+          <t>120666956.0999141600000000</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -525,7 +525,7 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>217027307344.3245594599292001</t>
+          <t>217347221316.2245667294943836</t>
         </is>
       </c>
     </row>
@@ -547,7 +547,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>144034280963.4801300000000000</t>
+          <t>144086679997.8651000000000000</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -557,7 +557,7 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>143983896070.6564411925055732</t>
+          <t>144232177004.9568880200639706</t>
         </is>
       </c>
     </row>
@@ -579,7 +579,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>58205697378.0000000000000000</t>
+          <t>58274974538.0000000000000000</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -589,7 +589,7 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>118253432675.7566953179994092</t>
+          <t>119781574734.2608914102939664</t>
         </is>
       </c>
     </row>
@@ -621,19 +621,19 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>85410795869.5067094539521990</t>
+          <t>85245710974.6838895745453480</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>solana</t>
+          <t>usd-coin</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Solana</t>
+          <t>USDC</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -643,29 +643,29 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>512503882.2685171400000000</t>
+          <t>60870184064.3102700000000000</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>https://explorer.solana.com/</t>
+          <t>https://etherscan.io/token/0xa0b86991c6218b36c1d19d4a2e9eb0ce3606eb48</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>60990505066.9203193802891438</t>
+          <t>60787223223.3547225953715602</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>usd-coin</t>
+          <t>solana</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>USDC</t>
+          <t>Solana</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -675,17 +675,17 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>60649816501.5563100000000000</t>
+          <t>514450631.2156934000000000</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>https://etherscan.io/token/0xa0b86991c6218b36c1d19d4a2e9eb0ce3606eb48</t>
+          <t>https://explorer.solana.com/</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>60710455106.5109587982371554</t>
+          <t>59430679232.1768655839925762</t>
         </is>
       </c>
     </row>
@@ -707,7 +707,7 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>148690796383.7052300000000000</t>
+          <t>148705696383.7052600000000000</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -717,7 +717,7 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>24483399831.0141073155431614</t>
+          <t>24022255961.9878813635512270</t>
         </is>
       </c>
     </row>
@@ -749,7 +749,7 @@
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>22667528163.2964461512383906</t>
+          <t>22833704989.2943970887606578</t>
         </is>
       </c>
     </row>
@@ -771,7 +771,7 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>94985541388.8610000000000000</t>
+          <t>94982643679.6072200000000000</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
@@ -781,7 +781,7 @@
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>22176014805.1385299003679272</t>
+          <t>22679918094.5092607670833901</t>
         </is>
       </c>
     </row>
@@ -803,7 +803,7 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>9378159.5971089000000000</t>
+          <t>9374205.4626198300000000</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
@@ -813,7 +813,7 @@
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>16879794298.3193979325661683</t>
+          <t>16853468197.5788653671317378</t>
         </is>
       </c>
     </row>
@@ -845,19 +845,19 @@
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>10636821595.3958774212415626</t>
+          <t>10659287443.1468571077809319</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>toncoin</t>
+          <t>unus-sed-leo</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Toncoin</t>
+          <t>UNUS SED LEO</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -867,25 +867,29 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>2461769440.3709480000000000</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr"/>
+          <t>923803780.9000000000000000</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>https://eospark.com/account/bitfinexleo1</t>
+        </is>
+      </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>9468226533.4435585777858962</t>
+          <t>8801225034.9594423175688165</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>unus-sed-leo</t>
+          <t>toncoin</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>UNUS SED LEO</t>
+          <t>Toncoin</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -895,17 +899,13 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>923812201.9000000000000000</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>https://eospark.com/account/bitfinexleo1</t>
-        </is>
-      </c>
+          <t>2473007671.3828063000000000</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr"/>
       <c r="F15" t="inlineStr">
         <is>
-          <t>8620721841.2095968245155606</t>
+          <t>8694959472.1163698981801967</t>
         </is>
       </c>
     </row>
@@ -937,7 +937,7 @@
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>8497966177.6312458352909623</t>
+          <t>8388795396.3038237658811401</t>
         </is>
       </c>
     </row>
@@ -959,7 +959,7 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>30777463547.8369900000000000</t>
+          <t>30778563460.8500250000000000</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
@@ -969,19 +969,19 @@
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>7968470554.0416372273890169</t>
+          <t>7982481164.9355166817492093</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>sui</t>
+          <t>avalanche</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Sui</t>
+          <t>Avalanche</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -991,29 +991,29 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>3249982900.4588876000000000</t>
+          <t>414932590.3611275000000000</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>https://suiexplorer.com/</t>
+          <t>https://avascan.info/</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>7499759647.1855119643336329</t>
+          <t>7507349560.3925563510019458</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>avalanche</t>
+          <t>sui</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Avalanche</t>
+          <t>Sui</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -1023,17 +1023,17 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>414902635.8846379500000000</t>
+          <t>3249982900.4588876000000000</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>https://avascan.info/</t>
+          <t>https://suiexplorer.com/</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>7491642400.8230887572607880</t>
+          <t>7190619044.4238470876965061</t>
         </is>
       </c>
     </row>
@@ -1055,7 +1055,7 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>589250687620781.9000000000000000</t>
+          <t>589250651184905.6000000000000000</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
@@ -1065,7 +1065,7 @@
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>7130582238.9540358711338977</t>
+          <t>7149207058.8357847212975309</t>
         </is>
       </c>
     </row>
@@ -1097,7 +1097,7 @@
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>6808477142.7080958908682695</t>
+          <t>6769945155.0978177477284540</t>
         </is>
       </c>
     </row>
@@ -1129,7 +1129,7 @@
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>6198760373.1887302767069865</t>
+          <t>6276792885.9557257081554631</t>
         </is>
       </c>
     </row>
@@ -1161,19 +1161,19 @@
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>6115177710.7716410903668150</t>
+          <t>6196028586.1268496819595810</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>weth</t>
+          <t>polkadot</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Wrapped ETH</t>
+          <t>Polkadot</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -1183,29 +1183,29 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>3375317.5926469000000000</t>
+          <t>1522267060.0000000000000000</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>https://etherscan.io/token/0xc02aaa39b223fe8d0a0e5c4f27ead9083c756cc2</t>
+          <t>https://polkascan.io/polkadot</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>6073976288.7544976426358435</t>
+          <t>6122622118.2422885134599200</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>polkadot</t>
+          <t>weth</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Polkadot</t>
+          <t>Wrapped ETH</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -1215,17 +1215,17 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>1522267060.0000000000000000</t>
+          <t>3375317.5926469000000000</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>https://polkascan.io/polkadot</t>
+          <t>https://etherscan.io/token/0xc02aaa39b223fe8d0a0e5c4f27ead9083c756cc2</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>6042437419.1218366691808060</t>
+          <t>6087581874.8754121847077226</t>
         </is>
       </c>
     </row>
@@ -1247,7 +1247,7 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>19850634.3750000000000000</t>
+          <t>19851131.2500000000000000</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
@@ -1257,19 +1257,19 @@
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>5858474421.0476621134331709</t>
+          <t>5981333587.6287151181585756</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>bitget-token-new</t>
+          <t>bitcoin-bep2</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Bitget Token</t>
+          <t>Bitcoin BEP2</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -1279,29 +1279,29 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>1200000000.0000000000000000</t>
+          <t>65207.7183961800000000</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>https://etherscan.io/token/0x54D2252757e1672EEaD234D27B1270728fF90581</t>
+          <t>https://explorer.binance.org/asset/BTCB-1DE</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>5394449264.1331698000000000</t>
+          <t>5406915597.2907756128391827</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>multi-collateral-dai</t>
+          <t>bitget-token-new</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Dai</t>
+          <t>Bitget Token</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -1311,29 +1311,29 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>5365382702.6648720000000000</t>
+          <t>1200000000.0000000000000000</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>https://etherscan.io/token/0x89d24a6b4ccb1b6faa2625fe562bdd9a23260359</t>
+          <t>https://etherscan.io/token/0x54D2252757e1672EEaD234D27B1270728fF90581</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>5362386872.3288495786416072</t>
+          <t>5384848075.6187163600000000</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>ethena-usde</t>
+          <t>multi-collateral-dai</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Ethena USDe</t>
+          <t>Dai</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -1343,29 +1343,29 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>5260950968.3606940000000000</t>
+          <t>5365382702.6648720000000000</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>etherscan.io</t>
+          <t>https://etherscan.io/token/0x89d24a6b4ccb1b6faa2625fe562bdd9a23260359</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>5258656650.5632453057372292</t>
+          <t>5364447321.7372434799786098</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>pi</t>
+          <t>ethena-usde</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Pi</t>
+          <t>Ethena USDe</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -1375,17 +1375,17 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>6794101040.3435950000000000</t>
+          <t>5252116023.5953940000000000</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>https://blockexplorer.minepi.com/</t>
+          <t>etherscan.io</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>4455351871.3219725265542810</t>
+          <t>5249076389.4218363704248283</t>
         </is>
       </c>
     </row>
@@ -1417,7 +1417,7 @@
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>3964069991.4073236859226340</t>
+          <t>3945453821.5850907161325560</t>
         </is>
       </c>
     </row>
@@ -1449,19 +1449,19 @@
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>3940688577.4320656390714480</t>
+          <t>3931065257.5209289524726976</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>uniswap</t>
+          <t>pi</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Uniswap</t>
+          <t>Pi</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
@@ -1471,29 +1471,29 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>628494054.7100000000000000</t>
+          <t>6794101040.3435950000000000</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>https://etherscan.io/token/0x1f9840a85d5af5bf1d1762f925bdaddc4201f984</t>
+          <t>https://blockexplorer.minepi.com/</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>3686577654.5253241757063987</t>
+          <t>3826504636.5530106227650924</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>aptos</t>
+          <t>uniswap</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Aptos</t>
+          <t>Uniswap</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
@@ -1503,29 +1503,29 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>604422794.1445550000000000</t>
+          <t>628494054.7100000000000000</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>https://explorer.aptoslabs.com/</t>
+          <t>https://etherscan.io/token/0x1f9840a85d5af5bf1d1762f925bdaddc4201f984</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>3083077512.1173559555761016</t>
+          <t>3670315024.7961939013706965</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>pepe</t>
+          <t>aptos</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Pepe</t>
+          <t>Aptos</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
@@ -1535,17 +1535,17 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>420689899653543.5600000000000000</t>
+          <t>604472162.4773237000000000</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>https://etherscan.io/token/0x6982508145454ce325ddbe47a25d4ec3d2311933</t>
+          <t>https://explorer.aptoslabs.com/</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>2977160679.5246615899631975</t>
+          <t>3027303615.5497629508098800</t>
         </is>
       </c>
     </row>
@@ -1567,7 +1567,7 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>1199000741.0000000000000000</t>
+          <t>1199263060.0000000000000000</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
@@ -1577,19 +1577,19 @@
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>2931520640.8788716785323770</t>
+          <t>2981082309.7863528502957960</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>okb</t>
+          <t>pepe</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>OKB</t>
+          <t>Pepe</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
@@ -1599,29 +1599,29 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>60000000.0000000000000000</t>
+          <t>420689899653543.5600000000000000</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>https://etherscan.io/token/0x75231f58b43240c9718dd58b4967c5114342a86c</t>
+          <t>https://etherscan.io/token/0x6982508145454ce325ddbe47a25d4ec3d2311933</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>2830881507.0770885580000000</t>
+          <t>2828676423.3981642566396693</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>mantle</t>
+          <t>okb</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Mantle</t>
+          <t>OKB</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
@@ -1631,29 +1631,29 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>3364694382.8368406000000000</t>
+          <t>60000000.0000000000000000</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>https://mantlescan.xyz/</t>
+          <t>https://etherscan.io/token/0x75231f58b43240c9718dd58b4967c5114342a86c</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>2612596235.7873673888388406</t>
+          <t>2810953916.1080981760000000</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>crypto-com-coin</t>
+          <t>ondo-finance</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Cronos</t>
+          <t>Ondo</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
@@ -1663,29 +1663,29 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>26571560696.0000000000000000</t>
+          <t>3159107529.0000000000000000</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>https://etherscan.io/token/0xa0b73e1ff0b80914ab6fe0444e65848c4c34450b</t>
+          <t>https://etherscan.io/token/0xfAbA6f8e4a5E8Ab82F62fe7C39859FA577269BE3</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>2550846518.8007343851500840</t>
+          <t>2591081900.3136380337320388</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>first-digital-usd</t>
+          <t>crypto-com-coin</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>First Digital USD</t>
+          <t>Cronos</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
@@ -1695,25 +1695,29 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>2601315490.1633330000000000</t>
-        </is>
-      </c>
-      <c r="E40" t="inlineStr"/>
+          <t>26571560696.0000000000000000</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>https://etherscan.io/token/0xa0b73e1ff0b80914ab6fe0444e65848c4c34450b</t>
+        </is>
+      </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>2550174963.2981185647281197</t>
+          <t>2510011282.6102546951871568</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>ondo-finance</t>
+          <t>mantle</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Ondo</t>
+          <t>Mantle</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
@@ -1723,17 +1727,17 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>3159107529.0000000000000000</t>
+          <t>3364694382.8368406000000000</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>https://etherscan.io/token/0xfAbA6f8e4a5E8Ab82F62fe7C39859FA577269BE3</t>
+          <t>https://mantlescan.xyz/</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>2500019195.7044406479302317</t>
+          <t>2503052193.5362013959995912</t>
         </is>
       </c>
     </row>
@@ -1755,7 +1759,7 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>482284285.8834832000000000</t>
+          <t>482976259.2016464000000000</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
@@ -1765,7 +1769,7 @@
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>2448383745.1292949514632636</t>
+          <t>2477431953.2822203202517431</t>
         </is>
       </c>
     </row>
@@ -1787,7 +1791,7 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>151367967.6932335000000000</t>
+          <t>151382010.9572335000000000</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
@@ -1797,19 +1801,19 @@
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>2431759469.2586970275553424</t>
+          <t>2439870589.5435319001136557</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>aave</t>
+          <t>first-digital-usd</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>Aave</t>
+          <t>First Digital USD</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
@@ -1819,29 +1823,25 @@
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>15096506.1791544500000000</t>
-        </is>
-      </c>
-      <c r="E44" t="inlineStr">
-        <is>
-          <t>https://etherscan.io/token/0x80fB784B7eD66730e8b1DBd9820aFD29931aab03</t>
-        </is>
-      </c>
+          <t>2364076402.9933310000000000</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr"/>
       <c r="F44" t="inlineStr">
         <is>
-          <t>2285253833.8380163259613990</t>
+          <t>2351176923.7007802703935634</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>polygon-ecosystem-token</t>
+          <t>aave</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>POL (prev. MATIC)</t>
+          <t>Aave</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
@@ -1851,29 +1851,29 @@
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>10392099602.6534290000000000</t>
+          <t>15096908.2563389300000000</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>https://etherscan.io/token/0x455e53CBB86018Ac2B8092FdCd39d8444aFFC3F6</t>
+          <t>https://etherscan.io/token/0x80fB784B7eD66730e8b1DBd9820aFD29931aab03</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>1935203355.7648310045366262</t>
+          <t>2251930389.4196288082844043</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>gatetoken</t>
+          <t>polygon-ecosystem-token</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>GateToken</t>
+          <t>POL (prev. MATIC)</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
@@ -1883,25 +1883,29 @@
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>85828689.4334172500000000</t>
-        </is>
-      </c>
-      <c r="E46" t="inlineStr"/>
+          <t>10392099602.6534290000000000</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>https://etherscan.io/token/0x455e53CBB86018Ac2B8092FdCd39d8444aFFC3F6</t>
+        </is>
+      </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>1910046998.5735125875969763</t>
+          <t>1976558181.2927872590491727</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>vechain</t>
+          <t>gatetoken</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>VeChain</t>
+          <t>GateToken</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
@@ -1911,17 +1915,13 @@
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>85985041177.0000000000000000</t>
-        </is>
-      </c>
-      <c r="E47" t="inlineStr">
-        <is>
-          <t>https://explore.veforge.com/</t>
-        </is>
-      </c>
+          <t>85828710.2959600400000000</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr"/>
       <c r="F47" t="inlineStr">
         <is>
-          <t>1854343290.8184810349814860</t>
+          <t>1891153862.6581085632833988</t>
         </is>
       </c>
     </row>
@@ -1943,7 +1943,7 @@
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>199999427.4807580000000000</t>
+          <t>199999426.9845430000000000</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
@@ -1953,19 +1953,19 @@
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>1846478192.7079247970659443</t>
+          <t>1888555568.3313755237197186</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>bittensor</t>
+          <t>vechain</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>Bittensor</t>
+          <t>VeChain</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
@@ -1975,29 +1975,29 @@
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>8546962.0000000000000000</t>
+          <t>85985041177.0000000000000000</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>https://bittensor.com/scan</t>
+          <t>https://explore.veforge.com/</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>1820962687.4574987517508122</t>
+          <t>1864437882.2039439415450287</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>ethena</t>
+          <t>bittensor</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>Ethena</t>
+          <t>Bittensor</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
@@ -2007,25 +2007,29 @@
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>5285937500.0000000000000000</t>
-        </is>
-      </c>
-      <c r="E50" t="inlineStr"/>
+          <t>8554006.0000000000000000</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>https://bittensor.com/scan</t>
+        </is>
+      </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>1776662918.4867195342187500</t>
+          <t>1846463934.5908563527578930</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>filecoin</t>
+          <t>cosmos</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>Filecoin</t>
+          <t>Cosmos</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
@@ -2035,29 +2039,29 @@
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>647135072.0000000000000000</t>
+          <t>390934204.0000000000000000</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>https://protocol.ai</t>
+          <t>https://www.mintscan.io/</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>1748026602.9330236208759968</t>
+          <t>1830111374.6743614844948848</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>render</t>
+          <t>filecoin</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>Render</t>
+          <t>Filecoin</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
@@ -2067,25 +2071,29 @@
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>517716590.0562826400000000</t>
-        </is>
-      </c>
-      <c r="E52" t="inlineStr"/>
+          <t>647135072.0000000000000000</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>https://protocol.ai</t>
+        </is>
+      </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>1717476317.1171532249850971</t>
+          <t>1758385592.3633098857439712</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>celestia</t>
+          <t>render</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>Celestia</t>
+          <t>Render</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
@@ -2095,29 +2103,25 @@
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>584318047.2631370000000000</t>
-        </is>
-      </c>
-      <c r="E53" t="inlineStr">
-        <is>
-          <t>https://www.mintscan.io/celestia</t>
-        </is>
-      </c>
+          <t>517716590.0562826400000000</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr"/>
       <c r="F53" t="inlineStr">
         <is>
-          <t>1705606928.6166119198616331</t>
+          <t>1695536295.2475520112760005</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>cosmos</t>
+          <t>kaspa</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>Cosmos</t>
+          <t>Kaspa</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
@@ -2127,29 +2131,29 @@
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>390934204.0000000000000000</t>
+          <t>25966463752.8537860000000000</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>https://www.mintscan.io/</t>
+          <t>https://explorer.kaspa.org/</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>1639056684.2491185255400192</t>
+          <t>1672752758.8473860593874924</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>kaspa</t>
+          <t>celestia</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>Kaspa</t>
+          <t>Celestia</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
@@ -2159,29 +2163,29 @@
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>25960683651.3743060000000000</t>
+          <t>585525337.8898470000000000</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>https://explorer.kaspa.org/</t>
+          <t>https://www.mintscan.io/celestia</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>1634301649.7139061808185894</t>
+          <t>1662776684.1225518784643402</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>algorand</t>
+          <t>ethena</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>Algorand</t>
+          <t>Ethena</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
@@ -2191,29 +2195,25 @@
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>8537381523.8178040000000000</t>
-        </is>
-      </c>
-      <c r="E56" t="inlineStr">
-        <is>
-          <t>https://algoexplorer.io/</t>
-        </is>
-      </c>
+          <t>5285937500.0000000000000000</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr"/>
       <c r="F56" t="inlineStr">
         <is>
-          <t>1509418092.4102449442979540</t>
+          <t>1655459686.5222439840625000</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>arbitrum</t>
+          <t>algorand</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>Arbitrum</t>
+          <t>Algorand</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
@@ -2223,29 +2223,29 @@
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>4617913336.0000000000000000</t>
+          <t>8535611719.9373470000000000</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>https://arbiscan.io/token/0x912CE59144191C1204E64559FE8253a0e49E6548</t>
+          <t>https://algoexplorer.io/</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>1419970173.1042036744717304</t>
+          <t>1536756629.7092086460476275</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>fantom</t>
+          <t>arbitrum</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>Sonic (prev. FTM)</t>
+          <t>Arbitrum</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
@@ -2255,29 +2255,29 @@
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>2880000000.0000000000000000</t>
+          <t>4617913336.0000000000000000</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>sonicscan.org</t>
+          <t>https://arbiscan.io/token/0x912CE59144191C1204E64559FE8253a0e49E6548</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>1354992622.0879253760000000</t>
+          <t>1428742696.0100173953016360</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>kucoin-token</t>
+          <t>fantom</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>KuCoin Token</t>
+          <t>Sonic (prev. FTM)</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
@@ -2287,17 +2287,17 @@
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>125043917.8513356400000000</t>
+          <t>2880000000.0000000000000000</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>https://etherscan.io/token/0xf34960d9d60be18cc1d5afc1a6f012a723a28811</t>
+          <t>sonicscan.org</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>1332707105.0086010272566361</t>
+          <t>1386303176.0274963840000000</t>
         </is>
       </c>
     </row>
@@ -2319,7 +2319,7 @@
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>1556419102.7764000000000000</t>
+          <t>1556643195.5878000000000000</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
@@ -2329,19 +2329,19 @@
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>1243476602.1285557600427900</t>
+          <t>1324481806.3972389523680883</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>dexe</t>
+          <t>kucoin-token</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>DeXe</t>
+          <t>KuCoin Token</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
@@ -2351,29 +2351,29 @@
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>83733353.1605750500000000</t>
+          <t>125043917.8513356400000000</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>https://etherscan.io/token/0xde4EE8057785A7e8e800Db58F9784845A5C2Cbd6</t>
+          <t>https://etherscan.io/token/0xf34960d9d60be18cc1d5afc1a6f012a723a28811</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>1216907074.7788359174843804</t>
+          <t>1285356232.0280051652167502</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>optimism-ethereum</t>
+          <t>dexe</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>Optimism</t>
+          <t>DeXe</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
@@ -2383,29 +2383,29 @@
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>1620705846.0000000000000000</t>
+          <t>83733353.1605750500000000</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>https://optimistic.etherscan.io/token/0x4200000000000000000000000000000000000042</t>
+          <t>https://etherscan.io/token/0xde4EE8057785A7e8e800Db58F9784845A5C2Cbd6</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>1142899077.5028045893197086</t>
+          <t>1250463475.4180495718381997</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>story-protocol</t>
+          <t>optimism-ethereum</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>Story</t>
+          <t>Optimism</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
@@ -2415,17 +2415,17 @@
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>258992823.0000000000000000</t>
+          <t>1620705846.0000000000000000</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>www.storyscan.xyz</t>
+          <t>https://optimistic.etherscan.io/token/0x4200000000000000000000000000000000000042</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>1123963831.0916701307984247</t>
+          <t>1133837952.1196439457377750</t>
         </is>
       </c>
     </row>
@@ -2457,7 +2457,7 @@
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>1087845997.6339652208908309</t>
+          <t>1092145367.2434469050895972</t>
         </is>
       </c>
     </row>
@@ -2489,19 +2489,19 @@
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>1087206379.6654579680000000</t>
+          <t>1089463831.6675974840000000</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>jupiter</t>
+          <t>story-protocol</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>Jupiter</t>
+          <t>Story</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
@@ -2511,17 +2511,17 @@
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>2690911111.1000000000000000</t>
+          <t>259071202.0000000000000000</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>https://solscan.io/token/JUPyiwrYJFskUPiHa7hkeR8VUtAeFoSYbKedZNsDvCN</t>
+          <t>www.storyscan.xyz</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>1025229816.1535280338290957</t>
+          <t>1086778652.2427116101393964</t>
         </is>
       </c>
     </row>
@@ -2553,19 +2553,19 @@
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>1019376585.6228169645603527</t>
+          <t>1047134886.0160403564185750</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>wbnb</t>
+          <t>jupiter</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>Wrapped BNB</t>
+          <t>Jupiter</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
@@ -2575,29 +2575,29 @@
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>1582884.5398480400000000</t>
+          <t>2690911111.1000000000000000</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>https://bscscan.com/token/0xbb4CdB9CBd36B01bD1cBaEBF2De08d9173bc095c</t>
+          <t>https://solscan.io/token/JUPyiwrYJFskUPiHa7hkeR8VUtAeFoSYbKedZNsDvCN</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>936777558.5390565155380626</t>
+          <t>1036395025.0006292534635125</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>movement</t>
+          <t>wbnb</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>Movement</t>
+          <t>Wrapped BNB</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
@@ -2607,25 +2607,29 @@
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>2450000000.0000000000000000</t>
-        </is>
-      </c>
-      <c r="E69" t="inlineStr"/>
+          <t>1582884.5398480400000000</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>https://bscscan.com/token/0xbb4CdB9CBd36B01bD1cBaEBF2De08d9173bc095c</t>
+        </is>
+      </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>931613473.4540863250000000</t>
+          <t>955007735.6765999015904933</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>worldcoin-org</t>
+          <t>movement</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>Worldcoin</t>
+          <t>Movement</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
@@ -2635,25 +2639,25 @@
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>1223649706.2148200000000000</t>
+          <t>2450000000.0000000000000000</t>
         </is>
       </c>
       <c r="E70" t="inlineStr"/>
       <c r="F70" t="inlineStr">
         <is>
-          <t>885343051.8002103041850480</t>
+          <t>954913424.4212535000000000</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>stacks</t>
+          <t>worldcoin-org</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>Stacks</t>
+          <t>Worldcoin</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
@@ -2663,29 +2667,25 @@
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>1519731982.9897600000000000</t>
-        </is>
-      </c>
-      <c r="E71" t="inlineStr">
-        <is>
-          <t>https://explorer.stacks.co/</t>
-        </is>
-      </c>
+          <t>1226340536.3054771000000000</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr"/>
       <c r="F71" t="inlineStr">
         <is>
-          <t>877228249.2018610885136464</t>
+          <t>929076727.5117803100476926</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>usual-usd</t>
+          <t>stacks</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>Usual USD</t>
+          <t>Stacks</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
@@ -2695,17 +2695,17 @@
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>872045271.8289261000000000</t>
+          <t>1519909933.8523700000000000</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>https://etherscan.io/address/0x73A15FeD60Bf67631dC6cd7Bc5B6e8da8190aCF5</t>
+          <t>https://explorer.stacks.co/</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>870092925.1567833806837731</t>
+          <t>883431904.5986800963852935</t>
         </is>
       </c>
     </row>
@@ -2733,19 +2733,19 @@
       <c r="E73" t="inlineStr"/>
       <c r="F73" t="inlineStr">
         <is>
-          <t>866119281.4611833164217169</t>
+          <t>848821198.1726248356767202</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>immutable-x</t>
+          <t>usual-usd</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>Immutable X</t>
+          <t>Usual USD</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
@@ -2755,13 +2755,17 @@
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>1768317543.3900000000000000</t>
-        </is>
-      </c>
-      <c r="E74" t="inlineStr"/>
+          <t>845594423.8423951000000000</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>https://etherscan.io/address/0x73A15FeD60Bf67631dC6cd7Bc5B6e8da8190aCF5</t>
+        </is>
+      </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>849353385.9087651851556859</t>
+          <t>843387801.7890285170377857</t>
         </is>
       </c>
     </row>
@@ -2789,7 +2793,7 @@
       <c r="E75" t="inlineStr"/>
       <c r="F75" t="inlineStr">
         <is>
-          <t>833596261.6203269385324318</t>
+          <t>830544470.6809146211840202</t>
         </is>
       </c>
     </row>
@@ -2821,19 +2825,19 @@
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>827402248.4369071694139660</t>
+          <t>826459057.6476560271217835</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>the-graph</t>
+          <t>quant</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>The Graph</t>
+          <t>Quant</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
@@ -2843,29 +2847,29 @@
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>9775189789.3182130000000000</t>
+          <t>12072738.0000000000000000</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>https://etherscan.io/token/0xc944e90c64b2c07662a292be6244bdf05cda44a7</t>
+          <t>https://etherscan.io/token/0x4a220e6096b25eadb88358cb44068a3248254675</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>811294638.1934762401311477</t>
+          <t>823170158.1293001718060332</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>sei</t>
+          <t>immutable-x</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>Sei</t>
+          <t>Immutable X</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
@@ -2875,25 +2879,25 @@
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>4882361111.0000000000000000</t>
+          <t>1768317543.3900000000000000</t>
         </is>
       </c>
       <c r="E78" t="inlineStr"/>
       <c r="F78" t="inlineStr">
         <is>
-          <t>806429664.2882833109594735</t>
+          <t>818662663.1281989025653463</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>quant</t>
+          <t>the-graph</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>Quant</t>
+          <t>The Graph</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
@@ -2903,29 +2907,29 @@
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>12072738.0000000000000000</t>
+          <t>9775189789.3182130000000000</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>https://etherscan.io/token/0x4a220e6096b25eadb88358cb44068a3248254675</t>
+          <t>https://etherscan.io/token/0xc944e90c64b2c07662a292be6244bdf05cda44a7</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>800796059.1185056497732000</t>
+          <t>803987176.0545630485060602</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>flare</t>
+          <t>sei</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>Flare</t>
+          <t>Sei</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
@@ -2935,29 +2939,25 @@
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>60983663777.0100000000000000</t>
-        </is>
-      </c>
-      <c r="E80" t="inlineStr">
-        <is>
-          <t>https://flare-explorer.flare.network/</t>
-        </is>
-      </c>
+          <t>4882361111.0000000000000000</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr"/>
       <c r="F80" t="inlineStr">
         <is>
-          <t>790584621.3156201573696335</t>
+          <t>802491995.0196371269009773</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>tether-gold</t>
+          <t>flare</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>Tether Gold</t>
+          <t>Flare</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
@@ -2967,17 +2967,17 @@
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>246524.0000000000000000</t>
+          <t>60983663777.0100000000000000</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>https://etherscan.io/token/0x4922a015c4407f87432b179bb209e125432e4a2a</t>
+          <t>https://flare-explorer.flare.network/</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>781997690.0747723539614636</t>
+          <t>793778552.6324068776723810</t>
         </is>
       </c>
     </row>
@@ -3009,19 +3009,19 @@
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>774262814.1280753000000000</t>
+          <t>779391668.7351255000000000</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>paypal-usd</t>
+          <t>tether-gold</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>PayPal USD</t>
+          <t>Tether Gold</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
@@ -3031,29 +3031,29 @@
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>739265391.6749380000000000</t>
+          <t>246524.0000000000000000</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>https://etherscan.io/token/0x6c3ea9036406852006290770bedfcaba0e23a0e8</t>
+          <t>https://etherscan.io/token/0x4922a015c4407f87432b179bb209e125432e4a2a</t>
         </is>
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>737713939.0131667917627150</t>
+          <t>770886899.9651258436738276</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>lido-dao</t>
+          <t>paypal-usd</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>Lido DAO</t>
+          <t>PayPal USD</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
@@ -3063,29 +3063,29 @@
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>897877243.8587132000000000</t>
+          <t>758451321.5044110000000000</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>https://etherscan.io/token/0x5a98fcbea516cf06857215779fd812ca3bef1b32</t>
+          <t>https://etherscan.io/token/0x6c3ea9036406852006290770bedfcaba0e23a0e8</t>
         </is>
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>736136852.8863330286299283</t>
+          <t>758382202.9796824650388213</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>berachain</t>
+          <t>lido-dao</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>Berachain</t>
+          <t>Lido DAO</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
@@ -3095,25 +3095,29 @@
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>107480000.0000000000000000</t>
-        </is>
-      </c>
-      <c r="E85" t="inlineStr"/>
+          <t>897877243.8587132000000000</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>https://etherscan.io/token/0x5a98fcbea516cf06857215779fd812ca3bef1b32</t>
+        </is>
+      </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>706996649.3430440123880000</t>
+          <t>745884760.9490639139416343</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>tezos</t>
+          <t>nexo</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>Tezos</t>
+          <t>Nexo</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
@@ -3123,29 +3127,29 @@
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>1037550271.7864680000000000</t>
+          <t>646145839.5746847000000000</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>https://tzkt.io/</t>
+          <t>https://etherscan.io/token/0xb62132e35a6c13ee1ee0f84dc5d40bad8d815206</t>
         </is>
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>671528079.5623715789365613</t>
+          <t>682184567.3456370513336014</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>nexo</t>
+          <t>curve-dao-token</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>Nexo</t>
+          <t>Curve DAO Token</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
@@ -3155,29 +3159,29 @@
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>646145839.5746847000000000</t>
+          <t>1310525529.0000000000000000</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>https://etherscan.io/token/0xb62132e35a6c13ee1ee0f84dc5d40bad8d815206</t>
+          <t>https://etherscan.io/token/0xD533a949740bb3306d119CC777fa900bA034cd52</t>
         </is>
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>670432227.1842362931085152</t>
+          <t>675509751.8659340313728280</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>pax-gold</t>
+          <t>tezos</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>PAX Gold</t>
+          <t>Tezos</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
@@ -3187,29 +3191,29 @@
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>210371.2200000000000000</t>
+          <t>1037633158.1063990000000000</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>https://etherscan.io/token/0x45804880de22913dafe09f4980848ece6ecbaf78</t>
+          <t>https://tzkt.io/</t>
         </is>
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>667778818.3984549713671582</t>
+          <t>672914491.5901415866193458</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>jito</t>
+          <t>pax-gold</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>Jito</t>
+          <t>PAX Gold</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
@@ -3219,29 +3223,29 @@
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>311886262.1000000000000000</t>
+          <t>210371.2200000000000000</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>https://solscan.io/token/jtojtomepa8beP8AuQc6eXt5FriJwfFMwQx2v2f9mCL</t>
+          <t>https://etherscan.io/token/0x45804880de22913dafe09f4980848ece6ecbaf78</t>
         </is>
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>654917431.1518687489678679</t>
+          <t>656348326.5746476493830675</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>curve-dao-token</t>
+          <t>kaia</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>Curve DAO Token</t>
+          <t>Kaia</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
@@ -3251,29 +3255,29 @@
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>1308683113.0000000000000000</t>
+          <t>5966455361.8200000000000000</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>https://etherscan.io/token/0xD533a949740bb3306d119CC777fa900bA034cd52</t>
+          <t>https://www.kaiascan.io/</t>
         </is>
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>646436402.9773983232964636</t>
+          <t>653018119.2961474721230375</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>the-sandbox</t>
+          <t>gala</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>The Sandbox</t>
+          <t>Gala</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
@@ -3283,29 +3287,29 @@
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>2481357126.2233224000000000</t>
+          <t>43820741411.3010250000000000</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>https://etherscan.io/token/0x3845badAde8e6dFF049820680d1F14bD3903a5d0</t>
+          <t>https://ethplorer.io/es/address/0x15d4c048f83bd7e37d49ea4c83a07267ec4203da#chart=candlestick</t>
         </is>
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>640375514.1572475514619660</t>
+          <t>652003869.6162956703616295</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>gala</t>
+          <t>berachain</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>Gala</t>
+          <t>Berachain</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
@@ -3315,29 +3319,25 @@
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>43804947221.8090800000000000</t>
-        </is>
-      </c>
-      <c r="E92" t="inlineStr">
-        <is>
-          <t>https://ethplorer.io/es/address/0x15d4c048f83bd7e37d49ea4c83a07267ec4203da#chart=candlestick</t>
-        </is>
-      </c>
+          <t>107480000.0000000000000000</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr"/>
       <c r="F92" t="inlineStr">
         <is>
-          <t>634539418.3257243828895352</t>
+          <t>648724459.8652016836080000</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>bittorrent</t>
+          <t>the-sandbox</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>BitTorrent [New]</t>
+          <t>The Sandbox</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
@@ -3347,29 +3347,29 @@
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>986061142857000.0000000000000000</t>
+          <t>2481357126.2233224000000000</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>https://tronscan.org/#/token/1002000</t>
+          <t>https://etherscan.io/token/0x3845badAde8e6dFF049820680d1F14bD3903a5d0</t>
         </is>
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>623368561.8335109456522000</t>
+          <t>647815934.4841283707008478</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>zcash</t>
+          <t>jito</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>Zcash</t>
+          <t>Jito</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
@@ -3379,29 +3379,29 @@
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>15886821.0000000000000000</t>
+          <t>312629902.0000000000000000</t>
         </is>
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>https://explorer.zcha.in/</t>
+          <t>https://solscan.io/token/jtojtomepa8beP8AuQc6eXt5FriJwfFMwQx2v2f9mCL</t>
         </is>
       </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t>620064789.6743512306799280</t>
+          <t>619303950.9717766106440208</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>kaia</t>
+          <t>bittorrent</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>Kaia</t>
+          <t>BitTorrent [New]</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
@@ -3411,29 +3411,29 @@
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>5966455361.8200000000000000</t>
+          <t>986061142857000.0000000000000000</t>
         </is>
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>https://www.kaiascan.io/</t>
+          <t>https://tronscan.org/#/token/1002000</t>
         </is>
       </c>
       <c r="F95" t="inlineStr">
         <is>
-          <t>614087519.9211075097684709</t>
+          <t>618835633.1392488023673000</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>bitcoin-sv</t>
+          <t>zcash</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>Bitcoin SV</t>
+          <t>Zcash</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
@@ -3443,17 +3443,17 @@
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>19846218.7500000000000000</t>
+          <t>15886821.0000000000000000</t>
         </is>
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>https://bsvexplorer.io/</t>
+          <t>https://explorer.zcha.in/</t>
         </is>
       </c>
       <c r="F96" t="inlineStr">
         <is>
-          <t>607687878.8539023315164531</t>
+          <t>617493289.6408389060971121</t>
         </is>
       </c>
     </row>
@@ -3485,19 +3485,19 @@
       </c>
       <c r="F97" t="inlineStr">
         <is>
-          <t>601775482.3818354606028220</t>
+          <t>607985183.6533705999136590</t>
         </is>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>flow</t>
+          <t>bitcoin-sv</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>Flow</t>
+          <t>Bitcoin SV</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
@@ -3507,29 +3507,29 @@
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>1574016688.1911110000000000</t>
+          <t>19846700.0000000000000000</t>
         </is>
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>https://flowscan.org/</t>
+          <t>https://bsvexplorer.io/</t>
         </is>
       </c>
       <c r="F98" t="inlineStr">
         <is>
-          <t>580342144.3433431183256138</t>
+          <t>605766754.4992813057534400</t>
         </is>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>raydium</t>
+          <t>flow</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>Raydium</t>
+          <t>Flow</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
@@ -3539,17 +3539,17 @@
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>290814662.0678040000000000</t>
+          <t>1574016688.1911110000000000</t>
         </is>
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>https://explorer.solana.com/address/4k3Dyjzvzp8eMZWUXbBCjEvwSkkk59S5iCNLY3QrkX6R</t>
+          <t>https://flowscan.org/</t>
         </is>
       </c>
       <c r="F99" t="inlineStr">
         <is>
-          <t>551352890.8105441114184460</t>
+          <t>581279954.3286801295908312</t>
         </is>
       </c>
     </row>
@@ -3581,7 +3581,7 @@
       </c>
       <c r="F100" t="inlineStr">
         <is>
-          <t>537733564.0469310436815616</t>
+          <t>536484366.6070729441759991</t>
         </is>
       </c>
     </row>
@@ -3603,7 +3603,7 @@
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>295394509.7510309000000000</t>
+          <t>295589394.8793980500000000</t>
         </is>
       </c>
       <c r="E101" t="inlineStr">
@@ -3613,7 +3613,7 @@
       </c>
       <c r="F101" t="inlineStr">
         <is>
-          <t>534180343.4006736428446227</t>
+          <t>534145750.3932221898737808</t>
         </is>
       </c>
     </row>

--- a/src/static/xlsx/df_api_name_xlsx.xlsx
+++ b/src/static/xlsx/df_api_name_xlsx.xlsx
@@ -493,7 +493,7 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>1645455068329.5992655856772274</t>
+          <t>1646598735231.4176555601107457</t>
         </is>
       </c>
     </row>
@@ -525,7 +525,7 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>217347221316.2245667294943836</t>
+          <t>216950970985.5372583544136332</t>
         </is>
       </c>
     </row>
@@ -557,7 +557,7 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>144232177004.9568880200639706</t>
+          <t>144167887216.4139357237081852</t>
         </is>
       </c>
     </row>
@@ -589,7 +589,7 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>119781574734.2608914102939664</t>
+          <t>120175935170.5373517570103590</t>
         </is>
       </c>
     </row>
@@ -621,7 +621,7 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>85245710974.6838895745453480</t>
+          <t>85330557169.3414286826389230</t>
         </is>
       </c>
     </row>
@@ -653,7 +653,7 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>60787223223.3547225953715602</t>
+          <t>60828634979.1779012410637890</t>
         </is>
       </c>
     </row>
@@ -685,7 +685,7 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>59430679232.1768655839925762</t>
+          <t>59533179397.0587727506519853</t>
         </is>
       </c>
     </row>
@@ -717,7 +717,7 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>24022255961.9878813635512270</t>
+          <t>24087585742.2322830972219214</t>
         </is>
       </c>
     </row>
@@ -749,7 +749,7 @@
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>22833704989.2943970887606578</t>
+          <t>22907170408.5941774907529644</t>
         </is>
       </c>
     </row>
@@ -781,7 +781,7 @@
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>22679918094.5092607670833901</t>
+          <t>22706495702.7365528909879955</t>
         </is>
       </c>
     </row>
@@ -803,7 +803,7 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>9374205.4626198300000000</t>
+          <t>9374253.7377973000000000</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
@@ -813,7 +813,7 @@
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>16853468197.5788653671317378</t>
+          <t>16837482100.9049889149705051</t>
         </is>
       </c>
     </row>
@@ -845,7 +845,7 @@
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>10659287443.1468571077809319</t>
+          <t>10657415753.5244127571042975</t>
         </is>
       </c>
     </row>
@@ -877,7 +877,7 @@
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>8801225034.9594423175688165</t>
+          <t>8800913359.1490232894629156</t>
         </is>
       </c>
     </row>
@@ -905,7 +905,7 @@
       <c r="E15" t="inlineStr"/>
       <c r="F15" t="inlineStr">
         <is>
-          <t>8694959472.1163698981801967</t>
+          <t>8721616735.1763754465551640</t>
         </is>
       </c>
     </row>
@@ -937,7 +937,7 @@
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>8388795396.3038237658811401</t>
+          <t>8403976328.9421660143103259</t>
         </is>
       </c>
     </row>
@@ -969,7 +969,7 @@
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>7982481164.9355166817492093</t>
+          <t>8010382263.9049245571826471</t>
         </is>
       </c>
     </row>
@@ -1001,7 +1001,7 @@
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>7507349560.3925563510019458</t>
+          <t>7513765081.3762506735836999</t>
         </is>
       </c>
     </row>
@@ -1033,7 +1033,7 @@
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>7190619044.4238470876965061</t>
+          <t>7195598533.8461975636321232</t>
         </is>
       </c>
     </row>
@@ -1065,7 +1065,7 @@
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>7149207058.8357847212975309</t>
+          <t>7159684628.4904682665514976</t>
         </is>
       </c>
     </row>
@@ -1097,7 +1097,7 @@
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>6769945155.0978177477284540</t>
+          <t>6774138057.5371038507094400</t>
         </is>
       </c>
     </row>
@@ -1129,7 +1129,7 @@
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>6276792885.9557257081554631</t>
+          <t>6297023774.2108115588006025</t>
         </is>
       </c>
     </row>
@@ -1161,7 +1161,7 @@
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>6196028586.1268496819595810</t>
+          <t>6191043531.2720759898321142</t>
         </is>
       </c>
     </row>
@@ -1193,7 +1193,7 @@
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>6122622118.2422885134599200</t>
+          <t>6129985585.6601058144715400</t>
         </is>
       </c>
     </row>
@@ -1225,7 +1225,7 @@
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>6087581874.8754121847077226</t>
+          <t>6085601183.0953938021861940</t>
         </is>
       </c>
     </row>
@@ -1257,7 +1257,7 @@
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>5981333587.6287151181585756</t>
+          <t>5987629528.9591080505915631</t>
         </is>
       </c>
     </row>
@@ -1289,7 +1289,7 @@
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>5406915597.2907756128391827</t>
+          <t>5400664667.5638883963226625</t>
         </is>
       </c>
     </row>
@@ -1321,7 +1321,7 @@
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>5384848075.6187163600000000</t>
+          <t>5381097135.2567788800000000</t>
         </is>
       </c>
     </row>
@@ -1353,7 +1353,7 @@
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>5364447321.7372434799786098</t>
+          <t>5364279939.3158649213656587</t>
         </is>
       </c>
     </row>
@@ -1385,19 +1385,19 @@
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>5249076389.4218363704248283</t>
+          <t>5248524751.1490268153809021</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>hyperliquid</t>
+          <t>monero</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Hyperliquid</t>
+          <t>Monero</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -1407,29 +1407,29 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>333928180.0000000000000000</t>
+          <t>18446744.0737095500000000</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>https://app.hyperliquid.xyz/explorer/token/0x0d01dc56dcaaca66ad901c959b4011ec</t>
+          <t>http://moneroblocks.info/</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>3945453821.5850907161325560</t>
+          <t>3952889456.8075462831054052</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>monero</t>
+          <t>hyperliquid</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Monero</t>
+          <t>Hyperliquid</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -1439,17 +1439,17 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>18446744.0737095500000000</t>
+          <t>333928180.0000000000000000</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>http://moneroblocks.info/</t>
+          <t>https://app.hyperliquid.xyz/explorer/token/0x0d01dc56dcaaca66ad901c959b4011ec</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>3931065257.5209289524726976</t>
+          <t>3942293145.2542964658008880</t>
         </is>
       </c>
     </row>
@@ -1481,7 +1481,7 @@
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>3826504636.5530106227650924</t>
+          <t>3802060652.4647453956969459</t>
         </is>
       </c>
     </row>
@@ -1513,7 +1513,7 @@
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>3670315024.7961939013706965</t>
+          <t>3681192143.8715771423409358</t>
         </is>
       </c>
     </row>
@@ -1545,7 +1545,7 @@
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>3027303615.5497629508098800</t>
+          <t>3036171573.9697298132323825</t>
         </is>
       </c>
     </row>
@@ -1577,7 +1577,7 @@
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>2981082309.7863528502957960</t>
+          <t>2987845446.3240379935071800</t>
         </is>
       </c>
     </row>
@@ -1609,7 +1609,7 @@
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>2828676423.3981642566396693</t>
+          <t>2833157119.9600222180294698</t>
         </is>
       </c>
     </row>
@@ -1641,7 +1641,7 @@
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>2810953916.1080981760000000</t>
+          <t>2811123801.9637554000000000</t>
         </is>
       </c>
     </row>
@@ -1673,19 +1673,19 @@
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>2591081900.3136380337320388</t>
+          <t>2586208908.0815043077868057</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>crypto-com-coin</t>
+          <t>mantle</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Cronos</t>
+          <t>Mantle</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
@@ -1695,29 +1695,29 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>26571560696.0000000000000000</t>
+          <t>3364694382.8368406000000000</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>https://etherscan.io/token/0xa0b73e1ff0b80914ab6fe0444e65848c4c34450b</t>
+          <t>https://mantlescan.xyz/</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>2510011282.6102546951871568</t>
+          <t>2509934872.1439089485557214</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>mantle</t>
+          <t>crypto-com-coin</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Mantle</t>
+          <t>Cronos</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
@@ -1727,17 +1727,17 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>3364694382.8368406000000000</t>
+          <t>26571560696.0000000000000000</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>https://mantlescan.xyz/</t>
+          <t>https://etherscan.io/token/0xa0b73e1ff0b80914ab6fe0444e65848c4c34450b</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>2503052193.5362013959995912</t>
+          <t>2508854481.3057636050072304</t>
         </is>
       </c>
     </row>
@@ -1769,7 +1769,7 @@
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>2477431953.2822203202517431</t>
+          <t>2478927769.4636907398465175</t>
         </is>
       </c>
     </row>
@@ -1801,7 +1801,7 @@
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>2439870589.5435319001136557</t>
+          <t>2444652886.9936785230495987</t>
         </is>
       </c>
     </row>
@@ -1829,7 +1829,7 @@
       <c r="E44" t="inlineStr"/>
       <c r="F44" t="inlineStr">
         <is>
-          <t>2351176923.7007802703935634</t>
+          <t>2351184089.4835901028825070</t>
         </is>
       </c>
     </row>
@@ -1861,7 +1861,7 @@
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>2251930389.4196288082844043</t>
+          <t>2254443603.5797690295654075</t>
         </is>
       </c>
     </row>
@@ -1893,7 +1893,7 @@
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>1976558181.2927872590491727</t>
+          <t>1978702466.4974132276563342</t>
         </is>
       </c>
     </row>
@@ -1921,7 +1921,7 @@
       <c r="E47" t="inlineStr"/>
       <c r="F47" t="inlineStr">
         <is>
-          <t>1891153862.6581085632833988</t>
+          <t>1895039081.1834381490670340</t>
         </is>
       </c>
     </row>
@@ -1953,7 +1953,7 @@
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>1888555568.3313755237197186</t>
+          <t>1886540877.2310673694817112</t>
         </is>
       </c>
     </row>
@@ -1985,7 +1985,7 @@
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>1864437882.2039439415450287</t>
+          <t>1866661757.1126123683275779</t>
         </is>
       </c>
     </row>
@@ -2017,7 +2017,7 @@
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>1846463934.5908563527578930</t>
+          <t>1846890920.0091283971794894</t>
         </is>
       </c>
     </row>
@@ -2049,7 +2049,7 @@
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>1830111374.6743614844948848</t>
+          <t>1840368304.4637836433565548</t>
         </is>
       </c>
     </row>
@@ -2081,7 +2081,7 @@
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>1758385592.3633098857439712</t>
+          <t>1761381396.9875407784884192</t>
         </is>
       </c>
     </row>
@@ -2109,7 +2109,7 @@
       <c r="E53" t="inlineStr"/>
       <c r="F53" t="inlineStr">
         <is>
-          <t>1695536295.2475520112760005</t>
+          <t>1698217304.8902541213970344</t>
         </is>
       </c>
     </row>
@@ -2141,7 +2141,7 @@
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>1672752758.8473860593874924</t>
+          <t>1676857733.5362311702967958</t>
         </is>
       </c>
     </row>
@@ -2173,7 +2173,7 @@
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>1662776684.1225518784643402</t>
+          <t>1665964719.8561010302087161</t>
         </is>
       </c>
     </row>
@@ -2201,7 +2201,7 @@
       <c r="E56" t="inlineStr"/>
       <c r="F56" t="inlineStr">
         <is>
-          <t>1655459686.5222439840625000</t>
+          <t>1655783569.0386505017187500</t>
         </is>
       </c>
     </row>
@@ -2233,7 +2233,7 @@
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>1536756629.7092086460476275</t>
+          <t>1540096770.4092576404858002</t>
         </is>
       </c>
     </row>
@@ -2265,7 +2265,7 @@
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>1428742696.0100173953016360</t>
+          <t>1433271486.0716778570028416</t>
         </is>
       </c>
     </row>
@@ -2297,7 +2297,7 @@
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>1386303176.0274963840000000</t>
+          <t>1386990752.0484044160000000</t>
         </is>
       </c>
     </row>
@@ -2329,7 +2329,7 @@
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>1324481806.3972389523680883</t>
+          <t>1313792591.4572050517162866</t>
         </is>
       </c>
     </row>
@@ -2361,7 +2361,7 @@
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>1285356232.0280051652167502</t>
+          <t>1286879157.8244512983101644</t>
         </is>
       </c>
     </row>
@@ -2393,7 +2393,7 @@
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>1250463475.4180495718381997</t>
+          <t>1246753450.8607514475177250</t>
         </is>
       </c>
     </row>
@@ -2425,7 +2425,7 @@
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>1133837952.1196439457377750</t>
+          <t>1137944283.3194703470188398</t>
         </is>
       </c>
     </row>
@@ -2457,7 +2457,7 @@
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>1092145367.2434469050895972</t>
+          <t>1094048852.5650818558300958</t>
         </is>
       </c>
     </row>
@@ -2489,7 +2489,7 @@
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>1089463831.6675974840000000</t>
+          <t>1091583832.1332979160000000</t>
         </is>
       </c>
     </row>
@@ -2521,7 +2521,7 @@
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>1086778652.2427116101393964</t>
+          <t>1088034541.0222869014034406</t>
         </is>
       </c>
     </row>
@@ -2553,7 +2553,7 @@
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>1047134886.0160403564185750</t>
+          <t>1051758568.4141322761822017</t>
         </is>
       </c>
     </row>
@@ -2585,7 +2585,7 @@
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>1036395025.0006292534635125</t>
+          <t>1042373555.0230205985995807</t>
         </is>
       </c>
     </row>
@@ -2617,7 +2617,7 @@
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>955007735.6765999015904933</t>
+          <t>957543131.8998387807931264</t>
         </is>
       </c>
     </row>
@@ -2645,7 +2645,7 @@
       <c r="E70" t="inlineStr"/>
       <c r="F70" t="inlineStr">
         <is>
-          <t>954913424.4212535000000000</t>
+          <t>952334860.6572150000000000</t>
         </is>
       </c>
     </row>
@@ -2673,7 +2673,7 @@
       <c r="E71" t="inlineStr"/>
       <c r="F71" t="inlineStr">
         <is>
-          <t>929076727.5117803100476926</t>
+          <t>931258904.8206107643242157</t>
         </is>
       </c>
     </row>
@@ -2705,7 +2705,7 @@
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>883431904.5986800963852935</t>
+          <t>882723897.8018026329625323</t>
         </is>
       </c>
     </row>
@@ -2733,7 +2733,7 @@
       <c r="E73" t="inlineStr"/>
       <c r="F73" t="inlineStr">
         <is>
-          <t>848821198.1726248356767202</t>
+          <t>850694144.3058497282851060</t>
         </is>
       </c>
     </row>
@@ -2765,19 +2765,19 @@
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>843387801.7890285170377857</t>
+          <t>843406096.0131915001247042</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>binaryx-new</t>
+          <t>injective-protocol</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>Four</t>
+          <t>Injective</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
@@ -2787,25 +2787,29 @@
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>381867255.1445740000000000</t>
-        </is>
-      </c>
-      <c r="E75" t="inlineStr"/>
+          <t>98970935.4100000000000000</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>https://etherscan.io/token/0xe28b3b32b6c345a34ff64674606124dd5aceca30</t>
+        </is>
+      </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>830544470.6809146211840202</t>
+          <t>830844404.7240243661642174</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>injective-protocol</t>
+          <t>binaryx-new</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>Injective</t>
+          <t>Four</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
@@ -2815,17 +2819,13 @@
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>98970935.4100000000000000</t>
-        </is>
-      </c>
-      <c r="E76" t="inlineStr">
-        <is>
-          <t>https://etherscan.io/token/0xe28b3b32b6c345a34ff64674606124dd5aceca30</t>
-        </is>
-      </c>
+          <t>381867255.1445740000000000</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr"/>
       <c r="F76" t="inlineStr">
         <is>
-          <t>826459057.6476560271217835</t>
+          <t>829706005.3515067594787129</t>
         </is>
       </c>
     </row>
@@ -2857,7 +2857,7 @@
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>823170158.1293001718060332</t>
+          <t>824480212.1478501328031298</t>
         </is>
       </c>
     </row>
@@ -2885,7 +2885,7 @@
       <c r="E78" t="inlineStr"/>
       <c r="F78" t="inlineStr">
         <is>
-          <t>818662663.1281989025653463</t>
+          <t>820486481.2163348111835391</t>
         </is>
       </c>
     </row>
@@ -2917,7 +2917,7 @@
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>803987176.0545630485060602</t>
+          <t>805832036.9772431458822123</t>
         </is>
       </c>
     </row>
@@ -2945,7 +2945,7 @@
       <c r="E80" t="inlineStr"/>
       <c r="F80" t="inlineStr">
         <is>
-          <t>802491995.0196371269009773</t>
+          <t>805652785.9603587347946142</t>
         </is>
       </c>
     </row>
@@ -2977,7 +2977,7 @@
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>793778552.6324068776723810</t>
+          <t>794664818.6886671899783775</t>
         </is>
       </c>
     </row>
@@ -3009,7 +3009,7 @@
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>779391668.7351255000000000</t>
+          <t>781445825.7020720000000000</t>
         </is>
       </c>
     </row>
@@ -3041,7 +3041,7 @@
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>770886899.9651258436738276</t>
+          <t>770838100.0799953919811408</t>
         </is>
       </c>
     </row>
@@ -3073,7 +3073,7 @@
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>758382202.9796824650388213</t>
+          <t>757701482.3358722284106586</t>
         </is>
       </c>
     </row>
@@ -3105,7 +3105,7 @@
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>745884760.9490639139416343</t>
+          <t>747448705.8206317034801854</t>
         </is>
       </c>
     </row>
@@ -3137,7 +3137,7 @@
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>682184567.3456370513336014</t>
+          <t>681698637.0396735972849331</t>
         </is>
       </c>
     </row>
@@ -3169,7 +3169,7 @@
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>675509751.8659340313728280</t>
+          <t>680596986.3471101206560885</t>
         </is>
       </c>
     </row>
@@ -3201,7 +3201,7 @@
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>672914491.5901415866193458</t>
+          <t>674734612.2559656642228200</t>
         </is>
       </c>
     </row>
@@ -3233,19 +3233,19 @@
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>656348326.5746476493830675</t>
+          <t>656166222.6006479022637211</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>kaia</t>
+          <t>gala</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>Kaia</t>
+          <t>Gala</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
@@ -3255,29 +3255,29 @@
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>5966455361.8200000000000000</t>
+          <t>43820741411.3010250000000000</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>https://www.kaiascan.io/</t>
+          <t>https://ethplorer.io/es/address/0x15d4c048f83bd7e37d49ea4c83a07267ec4203da#chart=candlestick</t>
         </is>
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>653018119.2961474721230375</t>
+          <t>652769598.9738291579601674</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>gala</t>
+          <t>kaia</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>Gala</t>
+          <t>Kaia</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
@@ -3287,29 +3287,29 @@
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>43820741411.3010250000000000</t>
+          <t>5966455361.8200000000000000</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>https://ethplorer.io/es/address/0x15d4c048f83bd7e37d49ea4c83a07267ec4203da#chart=candlestick</t>
+          <t>https://www.kaiascan.io/</t>
         </is>
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>652003869.6162956703616295</t>
+          <t>651584475.9770766238772026</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>berachain</t>
+          <t>the-sandbox</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>Berachain</t>
+          <t>The Sandbox</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
@@ -3319,25 +3319,29 @@
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>107480000.0000000000000000</t>
-        </is>
-      </c>
-      <c r="E92" t="inlineStr"/>
+          <t>2481357126.2233224000000000</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>https://etherscan.io/token/0x3845badAde8e6dFF049820680d1F14bD3903a5d0</t>
+        </is>
+      </c>
       <c r="F92" t="inlineStr">
         <is>
-          <t>648724459.8652016836080000</t>
+          <t>649486304.2182580630035218</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>the-sandbox</t>
+          <t>berachain</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>The Sandbox</t>
+          <t>Berachain</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
@@ -3347,17 +3351,13 @@
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>2481357126.2233224000000000</t>
-        </is>
-      </c>
-      <c r="E93" t="inlineStr">
-        <is>
-          <t>https://etherscan.io/token/0x3845badAde8e6dFF049820680d1F14bD3903a5d0</t>
-        </is>
-      </c>
+          <t>107480000.0000000000000000</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr"/>
       <c r="F93" t="inlineStr">
         <is>
-          <t>647815934.4841283707008478</t>
+          <t>647760253.0012007007920000</t>
         </is>
       </c>
     </row>
@@ -3389,7 +3389,7 @@
       </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t>619303950.9717766106440208</t>
+          <t>619351409.6742075138651330</t>
         </is>
       </c>
     </row>
@@ -3421,7 +3421,7 @@
       </c>
       <c r="F95" t="inlineStr">
         <is>
-          <t>618835633.1392488023673000</t>
+          <t>618858681.5296141704567000</t>
         </is>
       </c>
     </row>
@@ -3453,7 +3453,7 @@
       </c>
       <c r="F96" t="inlineStr">
         <is>
-          <t>617493289.6408389060971121</t>
+          <t>617379057.8575049525170428</t>
         </is>
       </c>
     </row>
@@ -3485,7 +3485,7 @@
       </c>
       <c r="F97" t="inlineStr">
         <is>
-          <t>607985183.6533705999136590</t>
+          <t>608853422.7302325856381615</t>
         </is>
       </c>
     </row>
@@ -3517,7 +3517,7 @@
       </c>
       <c r="F98" t="inlineStr">
         <is>
-          <t>605766754.4992813057534400</t>
+          <t>606575928.6660298065856700</t>
         </is>
       </c>
     </row>
@@ -3549,7 +3549,7 @@
       </c>
       <c r="F99" t="inlineStr">
         <is>
-          <t>581279954.3286801295908312</t>
+          <t>582062382.8490387064067282</t>
         </is>
       </c>
     </row>
@@ -3581,7 +3581,7 @@
       </c>
       <c r="F100" t="inlineStr">
         <is>
-          <t>536484366.6070729441759991</t>
+          <t>536249794.0901753498956485</t>
         </is>
       </c>
     </row>
@@ -3613,7 +3613,7 @@
       </c>
       <c r="F101" t="inlineStr">
         <is>
-          <t>534145750.3932221898737808</t>
+          <t>534658843.8775095175659538</t>
         </is>
       </c>
     </row>
